--- a/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m20deg_95thr_LV0d5/report_xfit.xlsx
+++ b/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m20deg_95thr_LV0d5/report_xfit.xlsx
@@ -544,52 +544,52 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>17063.65671709218</v>
+        <v>17063.86611041404</v>
       </c>
       <c r="C4">
-        <v>0.7400212235433423</v>
+        <v>1.495136890948353</v>
       </c>
       <c r="D4">
-        <v>73.17256826145949</v>
+        <v>76.70753088228827</v>
       </c>
       <c r="E4">
-        <v>1.760225287278484</v>
+        <v>3.297852879850573</v>
       </c>
       <c r="F4">
-        <v>88894.73629747934</v>
+        <v>91164.82235654071</v>
       </c>
       <c r="G4">
-        <v>1722.909144579608</v>
+        <v>3278.23282898092</v>
       </c>
       <c r="H4">
-        <v>16992.24992619064</v>
+        <v>16988.10028355051</v>
       </c>
       <c r="I4">
-        <v>17100.62210375094</v>
+        <v>17103.89839796463</v>
       </c>
       <c r="J4">
-        <v>19736.64226044398</v>
+        <v>19736.6422604445</v>
       </c>
       <c r="K4">
-        <v>0.5042405640833818</v>
+        <v>0.5042405636898916</v>
       </c>
       <c r="L4">
-        <v>82.45981504869883</v>
+        <v>82.45981504733345</v>
       </c>
       <c r="M4">
-        <v>1.114871365067939</v>
+        <v>1.11487135965945</v>
       </c>
       <c r="N4">
-        <v>168546.3414165615</v>
+        <v>168546.3414139254</v>
       </c>
       <c r="O4">
-        <v>1903.897362494632</v>
+        <v>1903.897349967747</v>
       </c>
       <c r="P4">
-        <v>19695.66864303947</v>
+        <v>19695.66864304115</v>
       </c>
       <c r="Q4">
-        <v>19811.1165295891</v>
+        <v>19811.11652958246</v>
       </c>
       <c r="R4">
         <v>20209.22766736392</v>
@@ -601,7 +601,7 @@
         <v>91.73203687879777</v>
       </c>
       <c r="U4">
-        <v>4.294166394523352</v>
+        <v>4.294166394523351</v>
       </c>
       <c r="V4">
         <v>32460.58836576303</v>
@@ -610,10 +610,10 @@
         <v>1238.929112021443</v>
       </c>
       <c r="X4">
-        <v>20125.41676445596</v>
+        <v>20122.57525923243</v>
       </c>
       <c r="Y4">
-        <v>20251.26242754676</v>
+        <v>20255.76267468387</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -621,28 +621,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>16724.06213837087</v>
+        <v>16724.40576099843</v>
       </c>
       <c r="C5">
-        <v>1.205858690957624</v>
+        <v>0.6192710299987019</v>
       </c>
       <c r="D5">
-        <v>54.39983154122219</v>
+        <v>55.03322304027131</v>
       </c>
       <c r="E5">
-        <v>2.49385089580709</v>
+        <v>1.551605164670169</v>
       </c>
       <c r="F5">
-        <v>81181.67983560488</v>
+        <v>82156.34881885079</v>
       </c>
       <c r="G5">
-        <v>3438.873055521184</v>
+        <v>1813.575439154502</v>
       </c>
       <c r="H5">
-        <v>16675.80502115492</v>
+        <v>16673.23801469924</v>
       </c>
       <c r="I5">
-        <v>16749.31609412283</v>
+        <v>16753.16695563631</v>
       </c>
       <c r="J5">
         <v>18922.65036513816</v>
@@ -654,7 +654,7 @@
         <v>71.35214088312421</v>
       </c>
       <c r="M5">
-        <v>0.998823057592542</v>
+        <v>0.9988230575925419</v>
       </c>
       <c r="N5">
         <v>168166.856511263</v>
@@ -663,10 +663,10 @@
         <v>1867.566150474722</v>
       </c>
       <c r="P5">
-        <v>18888.11208727151</v>
+        <v>18887.63128270939</v>
       </c>
       <c r="Q5">
-        <v>18986.12544646887</v>
+        <v>18986.41829009752</v>
       </c>
       <c r="R5">
         <v>19327.48361812154</v>
@@ -687,10 +687,10 @@
         <v>895.5250544769175</v>
       </c>
       <c r="X5">
-        <v>19262.07758219914</v>
+        <v>19260.45927503568</v>
       </c>
       <c r="Y5">
-        <v>19361.54528803586</v>
+        <v>19362.84776984037</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -701,31 +701,31 @@
         <v>17293.94240541062</v>
       </c>
       <c r="C6">
-        <v>0.7721679928007944</v>
+        <v>0.7721679928007938</v>
       </c>
       <c r="D6">
         <v>53.85625559587106</v>
       </c>
       <c r="E6">
-        <v>1.573943165078196</v>
+        <v>1.573943165078195</v>
       </c>
       <c r="F6">
         <v>86585.84320588131</v>
       </c>
       <c r="G6">
-        <v>2346.493974192114</v>
+        <v>2346.493974192112</v>
       </c>
       <c r="H6">
-        <v>17246.78459976871</v>
+        <v>17245.20957282186</v>
       </c>
       <c r="I6">
-        <v>17317.02527155513</v>
+        <v>17318.76177005821</v>
       </c>
       <c r="J6">
         <v>19894.5145248077</v>
       </c>
       <c r="K6">
-        <v>0.6078537712847258</v>
+        <v>0.6078537712847256</v>
       </c>
       <c r="L6">
         <v>73.21165018266881</v>
@@ -740,16 +740,16 @@
         <v>2549.655459273113</v>
       </c>
       <c r="P6">
-        <v>19858.66904799741</v>
+        <v>19858.17533358898</v>
       </c>
       <c r="Q6">
-        <v>19960.22726869844</v>
+        <v>19960.36938000015</v>
       </c>
       <c r="R6">
         <v>20358.22489813585</v>
       </c>
       <c r="S6">
-        <v>0.9536524410287155</v>
+        <v>0.9536524410287153</v>
       </c>
       <c r="T6">
         <v>73.41739432889399</v>
@@ -761,13 +761,13 @@
         <v>28264.17113323703</v>
       </c>
       <c r="W6">
-        <v>718.4478272162678</v>
+        <v>718.4478272162677</v>
       </c>
       <c r="X6">
-        <v>20293.76253794626</v>
+        <v>20291.98340751342</v>
       </c>
       <c r="Y6">
-        <v>20390.0313787472</v>
+        <v>20392.01582347388</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -793,58 +793,58 @@
         <v>1694.653451441356</v>
       </c>
       <c r="H7">
-        <v>16084.08801041711</v>
+        <v>16083.07729755395</v>
       </c>
       <c r="I7">
-        <v>16163.9365663968</v>
+        <v>16165.26102245096</v>
       </c>
       <c r="J7">
-        <v>18615.71788570391</v>
+        <v>18615.71788570384</v>
       </c>
       <c r="K7">
-        <v>0.4307071063621624</v>
+        <v>0.4307071080338412</v>
       </c>
       <c r="L7">
-        <v>77.4219176707992</v>
+        <v>77.42191767067126</v>
       </c>
       <c r="M7">
-        <v>1.030234533209357</v>
+        <v>1.030234537415885</v>
       </c>
       <c r="N7">
-        <v>171465.5048637389</v>
+        <v>171465.5048651467</v>
       </c>
       <c r="O7">
-        <v>1834.198527408131</v>
+        <v>1834.198564593805</v>
       </c>
       <c r="P7">
-        <v>18577.59878893005</v>
+        <v>18577.04066283777</v>
       </c>
       <c r="Q7">
-        <v>18685.50009153151</v>
+        <v>18685.09588023619</v>
       </c>
       <c r="R7">
-        <v>19065.47098153082</v>
+        <v>19063.81765786849</v>
       </c>
       <c r="S7">
-        <v>2.403704908521504</v>
+        <v>1.43941049074703</v>
       </c>
       <c r="T7">
-        <v>76.46594429880597</v>
+        <v>73.67112947027664</v>
       </c>
       <c r="U7">
-        <v>4.748614504981291</v>
+        <v>3.344091355259876</v>
       </c>
       <c r="V7">
-        <v>31166.43986649065</v>
+        <v>29966.04177282107</v>
       </c>
       <c r="W7">
-        <v>1795.867686831592</v>
+        <v>1115.279696795263</v>
       </c>
       <c r="X7">
-        <v>18997.27887689217</v>
+        <v>18993.0561451882</v>
       </c>
       <c r="Y7">
-        <v>19097.72130324837</v>
+        <v>19101.95837349011</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -852,40 +852,40 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>16722.33000954536</v>
+        <v>16722.64838347563</v>
       </c>
       <c r="C8">
-        <v>0.6351026422795671</v>
+        <v>0.4415593510473034</v>
       </c>
       <c r="D8">
-        <v>71.83376869786932</v>
+        <v>72.42871361566499</v>
       </c>
       <c r="E8">
-        <v>1.360859803236763</v>
+        <v>1.053041429833627</v>
       </c>
       <c r="F8">
-        <v>91302.40265849941</v>
+        <v>92016.59233942383</v>
       </c>
       <c r="G8">
-        <v>1489.382305081267</v>
+        <v>1077.998842850081</v>
       </c>
       <c r="H8">
-        <v>16657.39432363402</v>
+        <v>16653.83430527312</v>
       </c>
       <c r="I8">
-        <v>16759.6653558873</v>
+        <v>16765.51546126493</v>
       </c>
       <c r="J8">
         <v>19217.29659725381</v>
       </c>
       <c r="K8">
-        <v>0.5683921859692896</v>
+        <v>0.5683921859692899</v>
       </c>
       <c r="L8">
         <v>89.12237507598347</v>
       </c>
       <c r="M8">
-        <v>1.345734486168798</v>
+        <v>1.345734486168799</v>
       </c>
       <c r="N8">
         <v>176017.4715691043</v>
@@ -894,34 +894,34 @@
         <v>2166.320353845509</v>
       </c>
       <c r="P8">
-        <v>19175.50219051173</v>
+        <v>19174.82324114463</v>
       </c>
       <c r="Q8">
-        <v>19297.34219969632</v>
+        <v>19297.50450919318</v>
       </c>
       <c r="R8">
-        <v>19676.69060300483</v>
+        <v>19675.60378182322</v>
       </c>
       <c r="S8">
-        <v>1.364967226888145</v>
+        <v>1.063066276766206</v>
       </c>
       <c r="T8">
-        <v>92.93934984697871</v>
+        <v>92.41937390724608</v>
       </c>
       <c r="U8">
-        <v>3.007456532780996</v>
+        <v>2.385129386056781</v>
       </c>
       <c r="V8">
-        <v>31771.09817109745</v>
+        <v>31361.6031859881</v>
       </c>
       <c r="W8">
-        <v>884.8855558275305</v>
+        <v>673.2624513344942</v>
       </c>
       <c r="X8">
-        <v>19591.16467745279</v>
+        <v>19588.37171469703</v>
       </c>
       <c r="Y8">
-        <v>19719.43278428224</v>
+        <v>19721.92946267297</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -929,28 +929,28 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>16356.92246413353</v>
+        <v>16357.105050104</v>
       </c>
       <c r="C9">
-        <v>0.6544842602553046</v>
+        <v>0.981562719412547</v>
       </c>
       <c r="D9">
-        <v>72.7088184559499</v>
+        <v>75.14086157004023</v>
       </c>
       <c r="E9">
-        <v>1.64839956459112</v>
+        <v>2.178938280917539</v>
       </c>
       <c r="F9">
-        <v>43867.2847799305</v>
+        <v>44748.51558831202</v>
       </c>
       <c r="G9">
-        <v>780.704804604167</v>
+        <v>1078.565535864096</v>
       </c>
       <c r="H9">
-        <v>16290.57143742556</v>
+        <v>16289.12830920784</v>
       </c>
       <c r="I9">
-        <v>16390.18581743639</v>
+        <v>16391.84061025898</v>
       </c>
       <c r="J9">
         <v>19289.27522357448</v>
@@ -971,10 +971,10 @@
         <v>1829.06382711403</v>
       </c>
       <c r="P9">
-        <v>19247.368977866</v>
+        <v>19245.72038678541</v>
       </c>
       <c r="Q9">
-        <v>19370.92691864701</v>
+        <v>19372.78523040074</v>
       </c>
       <c r="R9">
         <v>19802.10670104629</v>
@@ -986,7 +986,7 @@
         <v>86.07088405552992</v>
       </c>
       <c r="U9">
-        <v>3.932546086896216</v>
+        <v>3.932546086896217</v>
       </c>
       <c r="V9">
         <v>20699.00619578814</v>
@@ -995,10 +995,10 @@
         <v>779.647531805434</v>
       </c>
       <c r="X9">
-        <v>19723.64063120122</v>
+        <v>19721.43891529608</v>
       </c>
       <c r="Y9">
-        <v>19846.0229720728</v>
+        <v>19846.99996950625</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1009,49 +1009,49 @@
         <v>17124.03093845148</v>
       </c>
       <c r="C10">
-        <v>0.9075164871752648</v>
+        <v>0.9075164871752649</v>
       </c>
       <c r="D10">
         <v>52.84953156517519</v>
       </c>
       <c r="E10">
-        <v>1.835841000538241</v>
+        <v>1.835841000538242</v>
       </c>
       <c r="F10">
         <v>48700.52837969465</v>
       </c>
       <c r="G10">
-        <v>1567.67827288418</v>
+        <v>1567.678272884181</v>
       </c>
       <c r="H10">
-        <v>17078.39350934286</v>
+        <v>17076.85124162339</v>
       </c>
       <c r="I10">
-        <v>17147.63037845563</v>
+        <v>17149.62671873065</v>
       </c>
       <c r="J10">
-        <v>19528.74409573077</v>
+        <v>19528.74409572775</v>
       </c>
       <c r="K10">
-        <v>0.3458005511484307</v>
+        <v>0.3458005522926663</v>
       </c>
       <c r="L10">
-        <v>71.20586754442049</v>
+        <v>71.20586755131208</v>
       </c>
       <c r="M10">
-        <v>0.7563251988600602</v>
+        <v>0.7563252101743617</v>
       </c>
       <c r="N10">
-        <v>123974.6642413522</v>
+        <v>123974.6642562161</v>
       </c>
       <c r="O10">
-        <v>1115.513611500612</v>
+        <v>1115.513597201909</v>
       </c>
       <c r="P10">
-        <v>19494.13723756269</v>
+        <v>19493.7824224206</v>
       </c>
       <c r="Q10">
-        <v>19593.0003457636</v>
+        <v>19593.2387400076</v>
       </c>
       <c r="R10">
         <v>19960.24980066999</v>
@@ -1072,10 +1072,10 @@
         <v>1093.552726878498</v>
       </c>
       <c r="X10">
-        <v>19894.97177833816</v>
+        <v>19892.51523473109</v>
       </c>
       <c r="Y10">
-        <v>19992.99676600562</v>
+        <v>19993.92469502494</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1083,76 +1083,76 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>16788.58606412026</v>
+        <v>16788.58606411914</v>
       </c>
       <c r="C11">
-        <v>0.7651688657360899</v>
+        <v>0.7651688644974434</v>
       </c>
       <c r="D11">
-        <v>59.56673338252198</v>
+        <v>59.56673337919324</v>
       </c>
       <c r="E11">
-        <v>1.703055060137347</v>
+        <v>1.703055060756331</v>
       </c>
       <c r="F11">
-        <v>91027.47662598618</v>
+        <v>91027.47662250251</v>
       </c>
       <c r="G11">
-        <v>2231.289102210379</v>
+        <v>2231.289101596497</v>
       </c>
       <c r="H11">
-        <v>16735.04327393796</v>
+        <v>16734.3329021868</v>
       </c>
       <c r="I11">
-        <v>16814.62273687439</v>
+        <v>16815.41180988754</v>
       </c>
       <c r="J11">
-        <v>19587.60711305914</v>
+        <v>19587.60711306292</v>
       </c>
       <c r="K11">
-        <v>0.6271156497391069</v>
+        <v>0.6271156515263979</v>
       </c>
       <c r="L11">
-        <v>78.12791903277734</v>
+        <v>78.12791901745494</v>
       </c>
       <c r="M11">
-        <v>1.569873954779323</v>
+        <v>1.569873968467041</v>
       </c>
       <c r="N11">
-        <v>169100.4527845133</v>
+        <v>169100.4527612523</v>
       </c>
       <c r="O11">
-        <v>2667.592326991867</v>
+        <v>2667.592314261878</v>
       </c>
       <c r="P11">
-        <v>19549.15212242056</v>
+        <v>19548.54658233471</v>
       </c>
       <c r="Q11">
-        <v>19658.58792031989</v>
+        <v>19658.78386309371</v>
       </c>
       <c r="R11">
-        <v>20084.02296177366</v>
+        <v>20084.02296177889</v>
       </c>
       <c r="S11">
-        <v>1.255931504514</v>
+        <v>1.255931505083973</v>
       </c>
       <c r="T11">
-        <v>77.4319961508008</v>
+        <v>77.43199617091187</v>
       </c>
       <c r="U11">
-        <v>3.06418009216915</v>
+        <v>3.064180084352942</v>
       </c>
       <c r="V11">
-        <v>30190.10989484172</v>
+        <v>30190.10990006161</v>
       </c>
       <c r="W11">
-        <v>952.2804099007391</v>
+        <v>952.2804082356733</v>
       </c>
       <c r="X11">
-        <v>20013.13744602913</v>
+        <v>20010.53403566769</v>
       </c>
       <c r="Y11">
-        <v>20120.7560378328</v>
+        <v>20123.39403099284</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1160,34 +1160,34 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>16657.01211683693</v>
+        <v>16657.01211684016</v>
       </c>
       <c r="C12">
-        <v>0.964901290861509</v>
+        <v>0.9649012975577557</v>
       </c>
       <c r="D12">
-        <v>64.90041570163781</v>
+        <v>64.90041571229263</v>
       </c>
       <c r="E12">
-        <v>2.002928293570109</v>
+        <v>2.002928302140988</v>
       </c>
       <c r="F12">
-        <v>106170.7983752026</v>
+        <v>106170.7983814836</v>
       </c>
       <c r="G12">
-        <v>2901.53887432506</v>
+        <v>2901.538894604464</v>
       </c>
       <c r="H12">
-        <v>16599.6758564827</v>
+        <v>16598.88407072675</v>
       </c>
       <c r="I12">
-        <v>16683.94923543607</v>
+        <v>16684.6539078845</v>
       </c>
       <c r="J12">
         <v>19445.78923538403</v>
       </c>
       <c r="K12">
-        <v>0.4294452630838003</v>
+        <v>0.4294452630838001</v>
       </c>
       <c r="L12">
         <v>80.55717481318126</v>
@@ -1202,34 +1202,34 @@
         <v>1764.89444329459</v>
       </c>
       <c r="P12">
-        <v>19404.1675738932</v>
+        <v>19404.16757388634</v>
       </c>
       <c r="Q12">
-        <v>19518.10608313977</v>
+        <v>19518.10608315665</v>
       </c>
       <c r="R12">
-        <v>19939.84260140374</v>
+        <v>19940.81520821071</v>
       </c>
       <c r="S12">
-        <v>1.949432405743884</v>
+        <v>2.686817049859609</v>
       </c>
       <c r="T12">
-        <v>86.22842802120081</v>
+        <v>91.42120679506026</v>
       </c>
       <c r="U12">
-        <v>4.378996606650565</v>
+        <v>5.430748107676191</v>
       </c>
       <c r="V12">
-        <v>31643.59895704747</v>
+        <v>32943.5637018296</v>
       </c>
       <c r="W12">
-        <v>1378.494413446206</v>
+        <v>1787.089010279286</v>
       </c>
       <c r="X12">
-        <v>19860.94917499624</v>
+        <v>19859.49416593723</v>
       </c>
       <c r="Y12">
-        <v>19977.29051161596</v>
+        <v>19977.89719008698</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1237,28 +1237,28 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>17451.31519099119</v>
+        <v>17451.31519100269</v>
       </c>
       <c r="C13">
-        <v>1.212092824857506</v>
+        <v>1.212092820139935</v>
       </c>
       <c r="D13">
-        <v>61.73779528165038</v>
+        <v>61.73779531050533</v>
       </c>
       <c r="E13">
-        <v>2.464397393006345</v>
+        <v>2.46439739038003</v>
       </c>
       <c r="F13">
-        <v>49878.96738596325</v>
+        <v>49878.96740411643</v>
       </c>
       <c r="G13">
-        <v>1842.637134150985</v>
+        <v>1842.63713104961</v>
       </c>
       <c r="H13">
-        <v>17397.19542992601</v>
+        <v>17396.34737918744</v>
       </c>
       <c r="I13">
-        <v>17478.88242534631</v>
+        <v>17479.82441524431</v>
       </c>
       <c r="J13">
         <v>20367.78592087925</v>
@@ -1270,7 +1270,7 @@
         <v>84.29600509147301</v>
       </c>
       <c r="M13">
-        <v>0.801154968844859</v>
+        <v>0.8011549688448591</v>
       </c>
       <c r="N13">
         <v>127470.6956783122</v>
@@ -1279,34 +1279,34 @@
         <v>998.8225222778464</v>
       </c>
       <c r="P13">
-        <v>20328.32336353024</v>
+        <v>20327.92804095753</v>
       </c>
       <c r="Q13">
-        <v>20442.74817786701</v>
+        <v>20442.26085952796</v>
       </c>
       <c r="R13">
-        <v>20876.53860456989</v>
+        <v>20876.53860458728</v>
       </c>
       <c r="S13">
-        <v>1.763286549057643</v>
+        <v>1.763286548466834</v>
       </c>
       <c r="T13">
-        <v>83.8604335301888</v>
+        <v>83.86043359341848</v>
       </c>
       <c r="U13">
-        <v>4.27548045507705</v>
+        <v>4.275480504423883</v>
       </c>
       <c r="V13">
-        <v>21845.49994186814</v>
+        <v>21845.49995163102</v>
       </c>
       <c r="W13">
-        <v>903.6866146996475</v>
+        <v>903.6866226360414</v>
       </c>
       <c r="X13">
-        <v>20802.62810272128</v>
+        <v>20800.54484720659</v>
       </c>
       <c r="Y13">
-        <v>20913.40612601094</v>
+        <v>20915.3026703834</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1314,28 +1314,28 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>17254.28156763485</v>
+        <v>17254.35392218131</v>
       </c>
       <c r="C14">
-        <v>0.9570310456507274</v>
+        <v>0.4615781801190426</v>
       </c>
       <c r="D14">
-        <v>59.05367913058893</v>
+        <v>59.18819610893928</v>
       </c>
       <c r="E14">
-        <v>2.026728232806854</v>
+        <v>1.201112184300801</v>
       </c>
       <c r="F14">
-        <v>105272.8141044442</v>
+        <v>105526.928988817</v>
       </c>
       <c r="G14">
-        <v>3398.086899380824</v>
+        <v>1674.06246566924</v>
       </c>
       <c r="H14">
-        <v>17202.07848733164</v>
+        <v>17201.18409861775</v>
       </c>
       <c r="I14">
-        <v>17279.93098297389</v>
+        <v>17280.99042709883</v>
       </c>
       <c r="J14">
         <v>19810.17394055228</v>
@@ -1347,7 +1347,7 @@
         <v>75.43669650034889</v>
       </c>
       <c r="M14">
-        <v>0.9171914699490686</v>
+        <v>0.9171914699490685</v>
       </c>
       <c r="N14">
         <v>172029.356819497</v>
@@ -1356,34 +1356,34 @@
         <v>1717.429222979936</v>
       </c>
       <c r="P14">
-        <v>19772.3078655906</v>
+        <v>19771.8334204604</v>
       </c>
       <c r="Q14">
-        <v>19879.48690076082</v>
+        <v>19878.73802867574</v>
       </c>
       <c r="R14">
-        <v>20267.47924108709</v>
+        <v>20265.68594519915</v>
       </c>
       <c r="S14">
-        <v>2.846824087081782</v>
+        <v>1.64784727925369</v>
       </c>
       <c r="T14">
-        <v>76.9402443403818</v>
+        <v>73.89014036689451</v>
       </c>
       <c r="U14">
-        <v>5.500370737197561</v>
+        <v>3.813895743876937</v>
       </c>
       <c r="V14">
-        <v>31160.85882394948</v>
+        <v>29824.5730764309</v>
       </c>
       <c r="W14">
-        <v>2124.053526508996</v>
+        <v>1259.452569675814</v>
       </c>
       <c r="X14">
-        <v>20199.08345343481</v>
+        <v>20196.68982765638</v>
       </c>
       <c r="Y14">
-        <v>20299.68126756403</v>
+        <v>20301.97294475527</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1391,34 +1391,34 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>16689.56064867025</v>
+        <v>16689.56064867382</v>
       </c>
       <c r="C15">
-        <v>0.2697352604768085</v>
+        <v>0.2697352617393918</v>
       </c>
       <c r="D15">
-        <v>52.53155836901242</v>
+        <v>52.53155838033366</v>
       </c>
       <c r="E15">
-        <v>0.6731757745380873</v>
+        <v>0.6731757803857598</v>
       </c>
       <c r="F15">
-        <v>53100.70142063713</v>
+        <v>53100.70143020806</v>
       </c>
       <c r="G15">
-        <v>549.6578908522889</v>
+        <v>549.6578964610555</v>
       </c>
       <c r="H15">
-        <v>16642.79402183089</v>
+        <v>16642.33531758752</v>
       </c>
       <c r="I15">
-        <v>16710.87791396654</v>
+        <v>16711.40746244352</v>
       </c>
       <c r="J15">
         <v>19480.6255784354</v>
       </c>
       <c r="K15">
-        <v>0.735770303396122</v>
+        <v>0.7357703033961218</v>
       </c>
       <c r="L15">
         <v>72.90380046623197</v>
@@ -1430,37 +1430,37 @@
         <v>121659.5812342255</v>
       </c>
       <c r="O15">
-        <v>2348.896213816106</v>
+        <v>2348.896213816105</v>
       </c>
       <c r="P15">
-        <v>19444.27164830148</v>
+        <v>19443.14074830092</v>
       </c>
       <c r="Q15">
-        <v>19545.72866047096</v>
+        <v>19546.86936426943</v>
       </c>
       <c r="R15">
-        <v>19969.05570689756</v>
+        <v>19969.05570689552</v>
       </c>
       <c r="S15">
-        <v>1.158425364089996</v>
+        <v>1.15842536269453</v>
       </c>
       <c r="T15">
-        <v>70.21932324814905</v>
+        <v>70.21932324597724</v>
       </c>
       <c r="U15">
-        <v>2.701862422175034</v>
+        <v>2.701862442149023</v>
       </c>
       <c r="V15">
-        <v>20337.63965337448</v>
+        <v>20337.63965085372</v>
       </c>
       <c r="W15">
-        <v>639.0665583908865</v>
+        <v>639.0665749424863</v>
       </c>
       <c r="X15">
-        <v>19903.20253781895</v>
+        <v>19902.40140441477</v>
       </c>
       <c r="Y15">
-        <v>20002.08389231279</v>
+        <v>20003.14923559002</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1471,73 +1471,73 @@
         <v>16866.95228100335</v>
       </c>
       <c r="C16">
-        <v>0.5157599861713923</v>
+        <v>0.5157599861713925</v>
       </c>
       <c r="D16">
         <v>60.21805959358867</v>
       </c>
       <c r="E16">
-        <v>1.22067272703547</v>
+        <v>1.220672727035471</v>
       </c>
       <c r="F16">
         <v>94413.61886533898</v>
       </c>
       <c r="G16">
-        <v>1581.248881996529</v>
+        <v>1581.24888199653</v>
       </c>
       <c r="H16">
-        <v>16812.3404313023</v>
+        <v>16811.47798419363</v>
       </c>
       <c r="I16">
-        <v>16895.96275859692</v>
+        <v>16897.10535352841</v>
       </c>
       <c r="J16">
-        <v>19482.78801056149</v>
+        <v>19482.78801056181</v>
       </c>
       <c r="K16">
-        <v>0.5204544045708878</v>
+        <v>0.520454404751811</v>
       </c>
       <c r="L16">
-        <v>80.2380012102451</v>
+        <v>80.23800120921963</v>
       </c>
       <c r="M16">
-        <v>1.166410053252182</v>
+        <v>1.166410059505515</v>
       </c>
       <c r="N16">
-        <v>178381.8072006963</v>
+        <v>178381.8071992959</v>
       </c>
       <c r="O16">
-        <v>2170.378192731648</v>
+        <v>2170.37819443366</v>
       </c>
       <c r="P16">
-        <v>19445.45034310925</v>
+        <v>19444.84614785344</v>
       </c>
       <c r="Q16">
-        <v>19553.77339337315</v>
+        <v>19553.27949082827</v>
       </c>
       <c r="R16">
-        <v>19945.57485411497</v>
+        <v>19945.57485411498</v>
       </c>
       <c r="S16">
-        <v>0.9130024727960681</v>
+        <v>0.9130024728009056</v>
       </c>
       <c r="T16">
-        <v>74.17537814246549</v>
+        <v>74.17537814248496</v>
       </c>
       <c r="U16">
-        <v>2.061842856893688</v>
+        <v>2.061842843641574</v>
       </c>
       <c r="V16">
-        <v>28352.29544770399</v>
+        <v>28352.29544770951</v>
       </c>
       <c r="W16">
-        <v>650.5216257105424</v>
+        <v>650.521625712665</v>
       </c>
       <c r="X16">
-        <v>19873.84915285428</v>
+        <v>19872.36956916189</v>
       </c>
       <c r="Y16">
-        <v>19986.94189621907</v>
+        <v>19988.07344360558</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1563,58 +1563,58 @@
         <v>2697.071551061076</v>
       </c>
       <c r="H17">
-        <v>17146.21010100792</v>
+        <v>17145.67263191244</v>
       </c>
       <c r="I17">
-        <v>17218.67281152606</v>
+        <v>17219.19163693356</v>
       </c>
       <c r="J17">
         <v>20105.04223350572</v>
       </c>
       <c r="K17">
-        <v>0.634246501476312</v>
+        <v>0.6342465014763127</v>
       </c>
       <c r="L17">
         <v>74.61367880074729</v>
       </c>
       <c r="M17">
-        <v>1.431522316008607</v>
+        <v>1.431522316008609</v>
       </c>
       <c r="N17">
         <v>125402.7897570599</v>
       </c>
       <c r="O17">
-        <v>1984.453343225802</v>
+        <v>1984.453343225804</v>
       </c>
       <c r="P17">
-        <v>20068.19461213639</v>
+        <v>20067.7356841847</v>
       </c>
       <c r="Q17">
-        <v>20171.80406330113</v>
+        <v>20171.53970082346</v>
       </c>
       <c r="R17">
-        <v>20609.01153036557</v>
+        <v>20606.71120780747</v>
       </c>
       <c r="S17">
-        <v>2.682176284329352</v>
+        <v>1.48943820782087</v>
       </c>
       <c r="T17">
-        <v>76.94798057179909</v>
+        <v>72.71619018574719</v>
       </c>
       <c r="U17">
-        <v>5.643995253408665</v>
+        <v>3.837278298815802</v>
       </c>
       <c r="V17">
-        <v>22810.20276030282</v>
+        <v>21477.49819568321</v>
       </c>
       <c r="W17">
-        <v>1567.54734334617</v>
+        <v>887.0154161699563</v>
       </c>
       <c r="X17">
-        <v>20541.64161016287</v>
+        <v>20540.00075197049</v>
       </c>
       <c r="Y17">
-        <v>20639.31809005221</v>
+        <v>20640.94465491732</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1637,13 +1637,13 @@
         <v>85394.42839610565</v>
       </c>
       <c r="G18">
-        <v>1586.273812128494</v>
+        <v>1586.273812128495</v>
       </c>
       <c r="H18">
-        <v>16528.8411892066</v>
+        <v>16528.04620938895</v>
       </c>
       <c r="I18">
-        <v>16603.98812052216</v>
+        <v>16604.70250316239</v>
       </c>
       <c r="J18">
         <v>19207.65513627824</v>
@@ -1664,34 +1664,34 @@
         <v>2361.772028998967</v>
       </c>
       <c r="P18">
-        <v>19172.1878116013</v>
+        <v>19171.91131417469</v>
       </c>
       <c r="Q18">
-        <v>19275.12432674385</v>
+        <v>19273.65557013006</v>
       </c>
       <c r="R18">
-        <v>19668.45641305832</v>
+        <v>19668.45166908743</v>
       </c>
       <c r="S18">
-        <v>1.916890476462423</v>
+        <v>1.761133349366035</v>
       </c>
       <c r="T18">
-        <v>73.98974713063276</v>
+        <v>73.91778298888619</v>
       </c>
       <c r="U18">
-        <v>4.869430599427543</v>
+        <v>3.773098476395278</v>
       </c>
       <c r="V18">
-        <v>28678.2773069986</v>
+        <v>28661.73147388282</v>
       </c>
       <c r="W18">
-        <v>1493.807631409819</v>
+        <v>1255.187265679607</v>
       </c>
       <c r="X18">
-        <v>19601.64031556319</v>
+        <v>19598.75301060841</v>
       </c>
       <c r="Y18">
-        <v>19703.33453432597</v>
+        <v>19705.77158295243</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1702,13 +1702,13 @@
         <v>16414.72062417594</v>
       </c>
       <c r="C19">
-        <v>0.4359312213596448</v>
+        <v>0.4359312213596447</v>
       </c>
       <c r="D19">
         <v>51.66104627106641</v>
       </c>
       <c r="E19">
-        <v>0.8335133016182774</v>
+        <v>0.8335133016182771</v>
       </c>
       <c r="F19">
         <v>92708.58338227608</v>
@@ -1717,34 +1717,34 @@
         <v>1430.948714530892</v>
       </c>
       <c r="H19">
-        <v>16369.08632363618</v>
+        <v>16368.39216854632</v>
       </c>
       <c r="I19">
-        <v>16436.61244261003</v>
+        <v>16437.37342228534</v>
       </c>
       <c r="J19">
         <v>18927.97641669701</v>
       </c>
       <c r="K19">
-        <v>0.5521116733680907</v>
+        <v>0.5521116733680906</v>
       </c>
       <c r="L19">
         <v>71.55051302555728</v>
       </c>
       <c r="M19">
-        <v>1.181382428999266</v>
+        <v>1.181382428999265</v>
       </c>
       <c r="N19">
         <v>169784.1548813278</v>
       </c>
       <c r="O19">
-        <v>2410.002259672026</v>
+        <v>2410.002259672025</v>
       </c>
       <c r="P19">
-        <v>18892.9352430644</v>
+        <v>18892.6644454981</v>
       </c>
       <c r="Q19">
-        <v>18992.66906276296</v>
+        <v>18991.93529970867</v>
       </c>
       <c r="R19">
         <v>19379.3235355184</v>
@@ -1756,7 +1756,7 @@
         <v>73.16701598119754</v>
       </c>
       <c r="U19">
-        <v>3.247830533392028</v>
+        <v>3.247830533392029</v>
       </c>
       <c r="V19">
         <v>29737.64494514827</v>
@@ -1765,10 +1765,10 @@
         <v>1083.113471720104</v>
       </c>
       <c r="X19">
-        <v>19313.984977887</v>
+        <v>19312.56942610654</v>
       </c>
       <c r="Y19">
-        <v>19410.77586777749</v>
+        <v>19411.85325213366</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1779,7 +1779,7 @@
         <v>16841.39785925321</v>
       </c>
       <c r="C20">
-        <v>0.6186404308700861</v>
+        <v>0.6186404308700865</v>
       </c>
       <c r="D20">
         <v>59.99391561900205</v>
@@ -1794,58 +1794,58 @@
         <v>1635.002944248465</v>
       </c>
       <c r="H20">
-        <v>16787.44382022617</v>
+        <v>16786.41081798912</v>
       </c>
       <c r="I20">
-        <v>16868.55329157309</v>
+        <v>16869.66914479285</v>
       </c>
       <c r="J20">
-        <v>19639.5417445649</v>
+        <v>19639.54174456327</v>
       </c>
       <c r="K20">
-        <v>0.4584744749608006</v>
+        <v>0.4584744754677776</v>
       </c>
       <c r="L20">
-        <v>80.38224466474784</v>
+        <v>80.38224467162293</v>
       </c>
       <c r="M20">
-        <v>1.050789394869051</v>
+        <v>1.050789396490506</v>
       </c>
       <c r="N20">
-        <v>167871.9400823068</v>
+        <v>167871.9400877417</v>
       </c>
       <c r="O20">
-        <v>1801.339665617213</v>
+        <v>1801.339672726744</v>
       </c>
       <c r="P20">
-        <v>19599.85648986492</v>
+        <v>19599.85648985919</v>
       </c>
       <c r="Q20">
-        <v>19712.38247341455</v>
+        <v>19712.3824734305</v>
       </c>
       <c r="R20">
-        <v>20134.38109438074</v>
+        <v>20134.41163441917</v>
       </c>
       <c r="S20">
-        <v>1.455068496279536</v>
+        <v>1.375408007974407</v>
       </c>
       <c r="T20">
-        <v>80.90527782580406</v>
+        <v>81.36057292366473</v>
       </c>
       <c r="U20">
-        <v>3.650843932520046</v>
+        <v>2.990370455660651</v>
       </c>
       <c r="V20">
-        <v>29531.973066259</v>
+        <v>29630.45284155347</v>
       </c>
       <c r="W20">
-        <v>1054.233294473685</v>
+        <v>922.0556663511589</v>
       </c>
       <c r="X20">
-        <v>20060.39533244708</v>
+        <v>20058.53455528679</v>
       </c>
       <c r="Y20">
-        <v>20173.02124594928</v>
+        <v>20174.5861441289</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1853,46 +1853,46 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>16320.00051949192</v>
+        <v>16320.3220437311</v>
       </c>
       <c r="C21">
-        <v>0.8949056666220959</v>
+        <v>0.5256997774311357</v>
       </c>
       <c r="D21">
-        <v>59.70130265402527</v>
+        <v>60.27152195676177</v>
       </c>
       <c r="E21">
-        <v>1.842282917722177</v>
+        <v>1.261937169830228</v>
       </c>
       <c r="F21">
-        <v>79554.62463305498</v>
+        <v>80324.88275325844</v>
       </c>
       <c r="G21">
-        <v>2211.340318109652</v>
+        <v>1347.239419127492</v>
       </c>
       <c r="H21">
-        <v>16266.50157915157</v>
+        <v>16265.12109867709</v>
       </c>
       <c r="I21">
-        <v>16349.09552716436</v>
+        <v>16350.84266839872</v>
       </c>
       <c r="J21">
-        <v>18814.36475918155</v>
+        <v>18814.36475916972</v>
       </c>
       <c r="K21">
-        <v>0.7340176435600536</v>
+        <v>0.7340176424482706</v>
       </c>
       <c r="L21">
-        <v>80.19658242700694</v>
+        <v>80.19658246838856</v>
       </c>
       <c r="M21">
-        <v>1.717452986801354</v>
+        <v>1.717453005650611</v>
       </c>
       <c r="N21">
-        <v>166886.8025383251</v>
+        <v>166886.8025936836</v>
       </c>
       <c r="O21">
-        <v>2925.228981019741</v>
+        <v>2925.228980714972</v>
       </c>
       <c r="P21">
         <v>18774.58608022469</v>
@@ -1901,28 +1901,28 @@
         <v>18885.89330830883</v>
       </c>
       <c r="R21">
-        <v>19268.68652967697</v>
+        <v>19268.68652968507</v>
       </c>
       <c r="S21">
-        <v>1.030419574567612</v>
+        <v>1.030419573414055</v>
       </c>
       <c r="T21">
-        <v>84.52162400076811</v>
+        <v>84.52162402168635</v>
       </c>
       <c r="U21">
-        <v>2.322931871857616</v>
+        <v>2.322931856045176</v>
       </c>
       <c r="V21">
-        <v>29904.33590711876</v>
+        <v>29904.33591409788</v>
       </c>
       <c r="W21">
-        <v>697.143586938754</v>
+        <v>697.1435957490552</v>
       </c>
       <c r="X21">
-        <v>19193.90246355009</v>
+        <v>19192.31001504801</v>
       </c>
       <c r="Y21">
-        <v>19304.43134182882</v>
+        <v>19305.83731509007</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1945,13 +1945,13 @@
         <v>75293.84653150073</v>
       </c>
       <c r="G22">
-        <v>1807.079114574001</v>
+        <v>1807.079114574002</v>
       </c>
       <c r="H22">
-        <v>17232.19562420188</v>
+        <v>17231.22492490055</v>
       </c>
       <c r="I22">
-        <v>17302.87022201638</v>
+        <v>17303.92732761763</v>
       </c>
       <c r="J22">
         <v>19836.13349748269</v>
@@ -1963,7 +1963,7 @@
         <v>75.95318099110185</v>
       </c>
       <c r="M22">
-        <v>1.393508290241011</v>
+        <v>1.393508290241012</v>
       </c>
       <c r="N22">
         <v>165165.1924115465</v>
@@ -1972,10 +1972,10 @@
         <v>2450.226022812754</v>
       </c>
       <c r="P22">
-        <v>19799.8820673994</v>
+        <v>19799.42316922764</v>
       </c>
       <c r="Q22">
-        <v>19904.30974505471</v>
+        <v>19903.8279123942</v>
       </c>
       <c r="R22">
         <v>20299.09818208063</v>
@@ -1987,19 +1987,19 @@
         <v>76.69266478966655</v>
       </c>
       <c r="U22">
-        <v>4.980109908087877</v>
+        <v>4.980109908087878</v>
       </c>
       <c r="V22">
         <v>29342.05279190929</v>
       </c>
       <c r="W22">
-        <v>1601.071594879122</v>
+        <v>1601.071594879121</v>
       </c>
       <c r="X22">
-        <v>20228.73721367976</v>
+        <v>20226.31512117411</v>
       </c>
       <c r="Y22">
-        <v>20335.3442802337</v>
+        <v>20338.79709149462</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2007,52 +2007,52 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>17510.91253637392</v>
+        <v>17511.57720851687</v>
       </c>
       <c r="C23">
-        <v>0.9952833523868528</v>
+        <v>1.989707919132241</v>
       </c>
       <c r="D23">
-        <v>69.85296825864418</v>
+        <v>74.30173196697821</v>
       </c>
       <c r="E23">
-        <v>2.238725988911677</v>
+        <v>4.069459082227466</v>
       </c>
       <c r="F23">
-        <v>54261.15827081647</v>
+        <v>56325.89483466438</v>
       </c>
       <c r="G23">
-        <v>1445.694239886899</v>
+        <v>2710.347364928311</v>
       </c>
       <c r="H23">
-        <v>17445.91143936548</v>
+        <v>17438.31540429664</v>
       </c>
       <c r="I23">
-        <v>17542.89806370875</v>
+        <v>17548.20550246006</v>
       </c>
       <c r="J23">
-        <v>20365.65207032785</v>
+        <v>20365.652070337</v>
       </c>
       <c r="K23">
-        <v>0.6528672937257143</v>
+        <v>0.652867296729356</v>
       </c>
       <c r="L23">
-        <v>79.89832361731764</v>
+        <v>79.89832358263952</v>
       </c>
       <c r="M23">
-        <v>1.57551147741538</v>
+        <v>1.575511474096051</v>
       </c>
       <c r="N23">
-        <v>125839.4346852431</v>
+        <v>125839.4346527771</v>
       </c>
       <c r="O23">
-        <v>1989.386928670627</v>
+        <v>1989.386934766015</v>
       </c>
       <c r="P23">
-        <v>20326.44731583586</v>
+        <v>20325.69267489706</v>
       </c>
       <c r="Q23">
-        <v>20438.24627118741</v>
+        <v>20437.84151835218</v>
       </c>
       <c r="R23">
         <v>20866.78448392701</v>
@@ -2073,10 +2073,10 @@
         <v>916.0453467219691</v>
       </c>
       <c r="X23">
-        <v>20785.08375986925</v>
+        <v>20781.25850084607</v>
       </c>
       <c r="Y23">
-        <v>20905.22160079324</v>
+        <v>20907.62867956529</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2084,76 +2084,76 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16971.34565064688</v>
+        <v>16970.7296810954</v>
       </c>
       <c r="C24">
-        <v>1.193727084009801</v>
+        <v>0.7921197213719631</v>
       </c>
       <c r="D24">
-        <v>79.57479133298628</v>
+        <v>78.45663009856375</v>
       </c>
       <c r="E24">
-        <v>2.45455356176024</v>
+        <v>1.843201003710548</v>
       </c>
       <c r="F24">
-        <v>57177.16311658161</v>
+        <v>56389.75151220566</v>
       </c>
       <c r="G24">
-        <v>1563.665343625721</v>
+        <v>1080.566793810993</v>
       </c>
       <c r="H24">
-        <v>16899.10383589713</v>
+        <v>16895.52959362853</v>
       </c>
       <c r="I24">
-        <v>17007.42083408456</v>
+        <v>17010.42639699199</v>
       </c>
       <c r="J24">
-        <v>19894.86198140953</v>
+        <v>19894.86198140377</v>
       </c>
       <c r="K24">
-        <v>0.5940127538791268</v>
+        <v>0.5940127536181059</v>
       </c>
       <c r="L24">
-        <v>90.32419220141725</v>
+        <v>90.32419222038335</v>
       </c>
       <c r="M24">
-        <v>1.318480847660596</v>
+        <v>1.318480826955417</v>
       </c>
       <c r="N24">
-        <v>132369.4054208308</v>
+        <v>132369.4054359423</v>
       </c>
       <c r="O24">
-        <v>1636.483622427185</v>
+        <v>1636.483612895174</v>
       </c>
       <c r="P24">
-        <v>19852.49441043097</v>
+        <v>19851.81096128077</v>
       </c>
       <c r="Q24">
-        <v>19975.37794317247</v>
+        <v>19975.0862881071</v>
       </c>
       <c r="R24">
         <v>20406.07291356118</v>
       </c>
       <c r="S24">
-        <v>1.904878056864886</v>
+        <v>1.904878056864885</v>
       </c>
       <c r="T24">
         <v>100.9784016214498</v>
       </c>
       <c r="U24">
-        <v>4.012188152461898</v>
+        <v>4.012188152461897</v>
       </c>
       <c r="V24">
         <v>25702.58305019716</v>
       </c>
       <c r="W24">
-        <v>906.3831372601787</v>
+        <v>906.3831372601782</v>
       </c>
       <c r="X24">
-        <v>20316.02947219917</v>
+        <v>20316.02947220461</v>
       </c>
       <c r="Y24">
-        <v>20449.43736223519</v>
+        <v>20449.43736222958</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2161,76 +2161,76 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16673.18607512903</v>
+        <v>16673.57699389503</v>
       </c>
       <c r="C25">
-        <v>0.7323648790868844</v>
+        <v>1.466575947760563</v>
       </c>
       <c r="D25">
-        <v>82.55808315377868</v>
+        <v>85.85325862841728</v>
       </c>
       <c r="E25">
-        <v>1.6386074405866</v>
+        <v>3.042437419476949</v>
       </c>
       <c r="F25">
-        <v>61926.75227772787</v>
+        <v>63344.34352079224</v>
       </c>
       <c r="G25">
-        <v>1020.494155627372</v>
+        <v>1941.69278427811</v>
       </c>
       <c r="H25">
-        <v>16597.78129028302</v>
+        <v>16589.90596553059</v>
       </c>
       <c r="I25">
-        <v>16711.12755831819</v>
+        <v>16718.65593881223</v>
       </c>
       <c r="J25">
-        <v>19492.30271443863</v>
+        <v>19492.30271443914</v>
       </c>
       <c r="K25">
-        <v>0.6327827970305669</v>
+        <v>0.6327827963936837</v>
       </c>
       <c r="L25">
-        <v>87.88080951815371</v>
+        <v>87.88080951622416</v>
       </c>
       <c r="M25">
-        <v>1.443700606571052</v>
+        <v>1.44370061580045</v>
       </c>
       <c r="N25">
-        <v>128850.5903737828</v>
+        <v>128850.5903723379</v>
       </c>
       <c r="O25">
-        <v>1738.276045423664</v>
+        <v>1738.276054086757</v>
       </c>
       <c r="P25">
-        <v>19448.67890481991</v>
+        <v>19447.69162836706</v>
       </c>
       <c r="Q25">
-        <v>19571.00279354421</v>
+        <v>19572.32972200691</v>
       </c>
       <c r="R25">
-        <v>19984.99942719897</v>
+        <v>19984.99942723521</v>
       </c>
       <c r="S25">
-        <v>2.555198970681818</v>
+        <v>2.555198980910939</v>
       </c>
       <c r="T25">
-        <v>99.97328405604087</v>
+        <v>99.97328419508875</v>
       </c>
       <c r="U25">
-        <v>6.197742654940967</v>
+        <v>6.197742706247571</v>
       </c>
       <c r="V25">
-        <v>26271.76284157434</v>
+        <v>26271.76286250566</v>
       </c>
       <c r="W25">
-        <v>1294.795083539145</v>
+        <v>1294.795088216977</v>
       </c>
       <c r="X25">
-        <v>19893.45146518984</v>
+        <v>19890.93764415531</v>
       </c>
       <c r="Y25">
-        <v>20032.80352924491</v>
+        <v>20034.37553922825</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2238,28 +2238,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17483.44678491482</v>
+        <v>17482.97588131696</v>
       </c>
       <c r="C26">
-        <v>1.616769266998554</v>
+        <v>1.151864009989179</v>
       </c>
       <c r="D26">
-        <v>89.98169153820045</v>
+        <v>89.07808576402287</v>
       </c>
       <c r="E26">
-        <v>3.437579361498221</v>
+        <v>2.678649254754857</v>
       </c>
       <c r="F26">
-        <v>65101.19173893869</v>
+        <v>64505.83980289416</v>
       </c>
       <c r="G26">
-        <v>2130.520588326222</v>
+        <v>1591.22604488878</v>
       </c>
       <c r="H26">
-        <v>17398.04732490836</v>
+        <v>17392.41961080214</v>
       </c>
       <c r="I26">
-        <v>17529.45161073371</v>
+        <v>17534.68522833419</v>
       </c>
       <c r="J26">
         <v>20250.03339983589</v>
@@ -2286,28 +2286,28 @@
         <v>20334.43106319393</v>
       </c>
       <c r="R26">
-        <v>20739.6935597992</v>
+        <v>20740.00978927191</v>
       </c>
       <c r="S26">
-        <v>2.263894241839919</v>
+        <v>2.327251895462738</v>
       </c>
       <c r="T26">
-        <v>109.3617677629863</v>
+        <v>111.5938051815896</v>
       </c>
       <c r="U26">
-        <v>5.146311972627494</v>
+        <v>4.817481275398376</v>
       </c>
       <c r="V26">
-        <v>28531.06584358923</v>
+        <v>28908.6922428064</v>
       </c>
       <c r="W26">
-        <v>1137.584262617956</v>
+        <v>1108.090365911088</v>
       </c>
       <c r="X26">
-        <v>20644.95392246404</v>
+        <v>20639.47628993382</v>
       </c>
       <c r="Y26">
-        <v>20786.74354597402</v>
+        <v>20788.44987663913</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2318,7 +2318,7 @@
         <v>17303.63535143782</v>
       </c>
       <c r="C27">
-        <v>0.9306027060572342</v>
+        <v>0.9306027060572341</v>
       </c>
       <c r="D27">
         <v>79.91290237038095</v>
@@ -2333,58 +2333,58 @@
         <v>1313.687496131997</v>
       </c>
       <c r="H27">
-        <v>17229.8701012559</v>
+        <v>17226.30213259076</v>
       </c>
       <c r="I27">
-        <v>17342.61113455012</v>
+        <v>17346.10069170912</v>
       </c>
       <c r="J27">
-        <v>20060.97023255085</v>
+        <v>20061.00671392058</v>
       </c>
       <c r="K27">
-        <v>0.6342599528641552</v>
+        <v>0.623538456677566</v>
       </c>
       <c r="L27">
-        <v>88.85611217698492</v>
+        <v>88.05984949587119</v>
       </c>
       <c r="M27">
-        <v>1.613462632434982</v>
+        <v>1.373755403968576</v>
       </c>
       <c r="N27">
-        <v>132463.9877513228</v>
+        <v>131750.9682854787</v>
       </c>
       <c r="O27">
-        <v>1883.64491921901</v>
+        <v>1719.841741888521</v>
       </c>
       <c r="P27">
-        <v>20018.7278257837</v>
+        <v>20017.06566443331</v>
       </c>
       <c r="Q27">
-        <v>20139.25485145906</v>
+        <v>20140.98618686178</v>
       </c>
       <c r="R27">
-        <v>20538.66846274919</v>
+        <v>20538.66846275249</v>
       </c>
       <c r="S27">
-        <v>1.699605822383947</v>
+        <v>1.699605817481438</v>
       </c>
       <c r="T27">
-        <v>94.72417205936465</v>
+        <v>94.72417208659364</v>
       </c>
       <c r="U27">
-        <v>4.114364026346245</v>
+        <v>4.114364065902387</v>
       </c>
       <c r="V27">
-        <v>26832.29396620256</v>
+        <v>26832.29396853328</v>
       </c>
       <c r="W27">
-        <v>935.2860657795467</v>
+        <v>935.286069527399</v>
       </c>
       <c r="X27">
-        <v>20452.44030846011</v>
+        <v>20450.47826928425</v>
       </c>
       <c r="Y27">
-        <v>20583.38870528559</v>
+        <v>20584.09217879053</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2530,7 @@
         <v>16822.9423337496</v>
       </c>
       <c r="C4">
-        <v>0.8981214689362842</v>
+        <v>0.8981214689362846</v>
       </c>
       <c r="D4">
         <v>52.08048660568848</v>
@@ -2545,10 +2545,10 @@
         <v>3129.689334563802</v>
       </c>
       <c r="H4">
-        <v>16777.03316938273</v>
+        <v>16774.94398900956</v>
       </c>
       <c r="I4">
-        <v>16845.88692022823</v>
+        <v>16848.48464924792</v>
       </c>
       <c r="J4">
         <v>19164.95933490519</v>
@@ -2560,7 +2560,7 @@
         <v>69.73441118996429</v>
       </c>
       <c r="M4">
-        <v>1.02553494686765</v>
+        <v>1.025534946867649</v>
       </c>
       <c r="N4">
         <v>161763.6497585578</v>
@@ -2569,34 +2569,34 @@
         <v>1837.092590413035</v>
       </c>
       <c r="P4">
-        <v>19129.96619867305</v>
+        <v>19129.57597179702</v>
       </c>
       <c r="Q4">
-        <v>19228.52484462606</v>
+        <v>19228.43132430595</v>
       </c>
       <c r="R4">
-        <v>19592.90799698032</v>
+        <v>19594.38864120828</v>
       </c>
       <c r="S4">
-        <v>1.22187868799386</v>
+        <v>1.664929910016139</v>
       </c>
       <c r="T4">
-        <v>62.90317443333242</v>
+        <v>69.68398304605951</v>
       </c>
       <c r="U4">
-        <v>2.879336996285457</v>
+        <v>3.909792142572466</v>
       </c>
       <c r="V4">
-        <v>25666.17717048928</v>
+        <v>27502.29511334239</v>
       </c>
       <c r="W4">
-        <v>954.8849392091004</v>
+        <v>1245.421599202459</v>
       </c>
       <c r="X4">
-        <v>19530.49401969103</v>
+        <v>19528.25567320624</v>
       </c>
       <c r="Y4">
-        <v>19629.56217885939</v>
+        <v>19631.94926650048</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2607,13 +2607,13 @@
         <v>16918.33658143082</v>
       </c>
       <c r="C5">
-        <v>0.533831390278905</v>
+        <v>0.5338313902789049</v>
       </c>
       <c r="D5">
         <v>65.27324480217298</v>
       </c>
       <c r="E5">
-        <v>1.270142653666797</v>
+        <v>1.270142653666798</v>
       </c>
       <c r="F5">
         <v>110554.4240829598</v>
@@ -2622,10 +2622,10 @@
         <v>1836.400112852053</v>
       </c>
       <c r="H5">
-        <v>16862.72065762307</v>
+        <v>16861.98593755001</v>
       </c>
       <c r="I5">
-        <v>16944.03873370312</v>
+        <v>16944.92261976618</v>
       </c>
       <c r="J5">
         <v>19705.49545710252</v>
@@ -2646,34 +2646,34 @@
         <v>2248.04784233029</v>
       </c>
       <c r="P5">
-        <v>19666.06119516343</v>
+        <v>19665.4071199225</v>
       </c>
       <c r="Q5">
-        <v>19777.08860873968</v>
+        <v>19776.80682145128</v>
       </c>
       <c r="R5">
-        <v>20193.76600717723</v>
+        <v>20193.76600717699</v>
       </c>
       <c r="S5">
-        <v>1.331737340800124</v>
+        <v>1.331737333679746</v>
       </c>
       <c r="T5">
-        <v>83.51121324659654</v>
+        <v>83.51121324513383</v>
       </c>
       <c r="U5">
-        <v>3.007531463185875</v>
+        <v>3.007531498710128</v>
       </c>
       <c r="V5">
-        <v>28615.64980844355</v>
+        <v>28615.64980848665</v>
       </c>
       <c r="W5">
-        <v>851.1694832334541</v>
+        <v>851.1694974758495</v>
       </c>
       <c r="X5">
-        <v>20117.10873695833</v>
+        <v>20114.58359514962</v>
       </c>
       <c r="Y5">
-        <v>20232.94625070934</v>
+        <v>20235.1634852784</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2681,64 +2681,64 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16802.98623973193</v>
+        <v>16802.98623972563</v>
       </c>
       <c r="C6">
-        <v>0.982986631191834</v>
+        <v>0.9829866248960836</v>
       </c>
       <c r="D6">
-        <v>85.01645734868764</v>
+        <v>85.01645732888223</v>
       </c>
       <c r="E6">
-        <v>1.976646351445565</v>
+        <v>1.976646322268311</v>
       </c>
       <c r="F6">
-        <v>118204.8184290006</v>
+        <v>118204.8184152364</v>
       </c>
       <c r="G6">
-        <v>2526.636421667302</v>
+        <v>2526.63638899341</v>
       </c>
       <c r="H6">
-        <v>16728.11785810554</v>
+        <v>16726.06453218803</v>
       </c>
       <c r="I6">
-        <v>16838.17557226672</v>
+        <v>16839.44543677554</v>
       </c>
       <c r="J6">
         <v>19982.43959013743</v>
       </c>
       <c r="K6">
-        <v>0.6945830181687654</v>
+        <v>0.694583018168898</v>
       </c>
       <c r="L6">
-        <v>95.01228912897203</v>
+        <v>95.01228912897672</v>
       </c>
       <c r="M6">
-        <v>1.656772961698218</v>
+        <v>1.656772961701399</v>
       </c>
       <c r="N6">
-        <v>169681.9278478922</v>
+        <v>169681.9278478985</v>
       </c>
       <c r="O6">
-        <v>2384.146564079853</v>
+        <v>2384.146564083318</v>
       </c>
       <c r="P6">
-        <v>19935.5568652061</v>
+        <v>19934.66761463596</v>
       </c>
       <c r="Q6">
-        <v>20067.82412329538</v>
+        <v>20068.63656177771</v>
       </c>
       <c r="R6">
         <v>20527.23350707499</v>
       </c>
       <c r="S6">
-        <v>1.843690970925776</v>
+        <v>1.843690970925775</v>
       </c>
       <c r="T6">
         <v>103.8223164562171</v>
       </c>
       <c r="U6">
-        <v>4.263033432057344</v>
+        <v>4.263033432057346</v>
       </c>
       <c r="V6">
         <v>33594.35338035594</v>
@@ -2747,10 +2747,10 @@
         <v>1136.813397272576</v>
       </c>
       <c r="X6">
-        <v>20434.13600667733</v>
+        <v>20434.13600665137</v>
       </c>
       <c r="Y6">
-        <v>20572.76797170018</v>
+        <v>20572.76797172504</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2767,7 +2767,7 @@
         <v>58.32019918855023</v>
       </c>
       <c r="E7">
-        <v>2.301676958476435</v>
+        <v>2.301676958476436</v>
       </c>
       <c r="F7">
         <v>84807.48620497131</v>
@@ -2776,58 +2776,58 @@
         <v>2870.07277820202</v>
       </c>
       <c r="H7">
-        <v>16278.30391952064</v>
+        <v>16277.00195656949</v>
       </c>
       <c r="I7">
-        <v>16354.14988046685</v>
+        <v>16354.88868865921</v>
       </c>
       <c r="J7">
-        <v>19125.95108373898</v>
+        <v>19125.95108373956</v>
       </c>
       <c r="K7">
-        <v>0.2810595813350953</v>
+        <v>0.2810595816632393</v>
       </c>
       <c r="L7">
-        <v>78.77084514014602</v>
+        <v>78.77084513783333</v>
       </c>
       <c r="M7">
-        <v>0.6783826859145545</v>
+        <v>0.6783826830035181</v>
       </c>
       <c r="N7">
-        <v>152159.6256754313</v>
+        <v>152159.6256729666</v>
       </c>
       <c r="O7">
-        <v>1049.994068253066</v>
+        <v>1049.994068196984</v>
       </c>
       <c r="P7">
-        <v>19086.59871007439</v>
+        <v>19085.94421938939</v>
       </c>
       <c r="Q7">
-        <v>19197.48320314615</v>
+        <v>19197.29454751472</v>
       </c>
       <c r="R7">
-        <v>19624.48033024807</v>
+        <v>19624.71751637744</v>
       </c>
       <c r="S7">
-        <v>1.189175381004459</v>
+        <v>1.430482468214334</v>
       </c>
       <c r="T7">
-        <v>80.09592027103876</v>
+        <v>82.83564166660838</v>
       </c>
       <c r="U7">
-        <v>2.945348907782091</v>
+        <v>3.1591190953537</v>
       </c>
       <c r="V7">
-        <v>27517.82296337324</v>
+        <v>28075.74595726602</v>
       </c>
       <c r="W7">
-        <v>801.5142923142713</v>
+        <v>895.9178232881972</v>
       </c>
       <c r="X7">
-        <v>19551.51236049306</v>
+        <v>19549.75668742205</v>
       </c>
       <c r="Y7">
-        <v>19661.02490831491</v>
+        <v>19662.18024093426</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2838,7 +2838,7 @@
         <v>16641.68430592955</v>
       </c>
       <c r="C8">
-        <v>0.735219617281767</v>
+        <v>0.7352196172817668</v>
       </c>
       <c r="D8">
         <v>56.55668656657195</v>
@@ -2853,16 +2853,16 @@
         <v>2387.263633796451</v>
       </c>
       <c r="H8">
-        <v>16592.11250215588</v>
+        <v>16590.49712964662</v>
       </c>
       <c r="I8">
-        <v>16666.89027633315</v>
+        <v>16668.76836258644</v>
       </c>
       <c r="J8">
         <v>19324.84929452639</v>
       </c>
       <c r="K8">
-        <v>0.355967412805043</v>
+        <v>0.3559674128050429</v>
       </c>
       <c r="L8">
         <v>74.90072747291677</v>
@@ -2877,34 +2877,34 @@
         <v>1389.544816662338</v>
       </c>
       <c r="P8">
-        <v>19287.21259914038</v>
+        <v>19286.59250736473</v>
       </c>
       <c r="Q8">
-        <v>19392.7176971166</v>
+        <v>19392.80125320612</v>
       </c>
       <c r="R8">
-        <v>19800.04447970508</v>
+        <v>19799.99281140205</v>
       </c>
       <c r="S8">
-        <v>2.073011677005864</v>
+        <v>1.875086215371602</v>
       </c>
       <c r="T8">
-        <v>78.93739574024269</v>
+        <v>78.47197588915242</v>
       </c>
       <c r="U8">
-        <v>5.115241279019767</v>
+        <v>3.909935334800307</v>
       </c>
       <c r="V8">
-        <v>28216.458374724</v>
+        <v>28107.51656106721</v>
       </c>
       <c r="W8">
-        <v>1494.390854459361</v>
+        <v>1227.406369190058</v>
       </c>
       <c r="X8">
-        <v>19732.15812286603</v>
+        <v>19727.77980670112</v>
       </c>
       <c r="Y8">
-        <v>19832.21649509818</v>
+        <v>19835.33777304521</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2912,76 +2912,76 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>16218.93530071046</v>
+        <v>16219.00726683431</v>
       </c>
       <c r="C9">
-        <v>0.2529751777583087</v>
+        <v>0.2876246288937524</v>
       </c>
       <c r="D9">
-        <v>55.36012277303779</v>
+        <v>55.99670640752222</v>
       </c>
       <c r="E9">
-        <v>0.6750265310860746</v>
+        <v>0.6027823600149617</v>
       </c>
       <c r="F9">
-        <v>90784.48321307567</v>
+        <v>91492.69302596657</v>
       </c>
       <c r="G9">
-        <v>883.603345840036</v>
+        <v>859.0851275249402</v>
       </c>
       <c r="H9">
-        <v>16170.90009844307</v>
+        <v>16169.78160223022</v>
       </c>
       <c r="I9">
-        <v>16243.10398365726</v>
+        <v>16244.82411999823</v>
       </c>
       <c r="J9">
-        <v>18680.26829122952</v>
+        <v>18680.26829123221</v>
       </c>
       <c r="K9">
-        <v>0.6548409456524117</v>
+        <v>0.6548409368894756</v>
       </c>
       <c r="L9">
-        <v>75.05664843824479</v>
+        <v>75.05664842794233</v>
       </c>
       <c r="M9">
-        <v>1.531567521918803</v>
+        <v>1.531567528789262</v>
       </c>
       <c r="N9">
-        <v>139625.6663255671</v>
+        <v>139625.6663168553</v>
       </c>
       <c r="O9">
-        <v>2346.860289087098</v>
+        <v>2346.860298690573</v>
       </c>
       <c r="P9">
-        <v>18644.87642450198</v>
+        <v>18644.29946104834</v>
       </c>
       <c r="Q9">
-        <v>18746.03461442099</v>
+        <v>18746.33719533293</v>
       </c>
       <c r="R9">
-        <v>19120.25285226028</v>
+        <v>19121.93366594798</v>
       </c>
       <c r="S9">
-        <v>0.8145612380745245</v>
+        <v>0.9366669110741525</v>
       </c>
       <c r="T9">
-        <v>71.46058269455479</v>
+        <v>74.71925946470041</v>
       </c>
       <c r="U9">
-        <v>1.827148655765523</v>
+        <v>2.271024939679349</v>
       </c>
       <c r="V9">
-        <v>24732.55658523243</v>
+        <v>25749.41679517889</v>
       </c>
       <c r="W9">
-        <v>527.2772496728883</v>
+        <v>622.3995332039331</v>
       </c>
       <c r="X9">
-        <v>19054.84305789421</v>
+        <v>19053.07559048676</v>
       </c>
       <c r="Y9">
-        <v>19158.05458231077</v>
+        <v>19160.01969684946</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2989,28 +2989,28 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>16300.55113652091</v>
+        <v>16300.80383529661</v>
       </c>
       <c r="C10">
-        <v>1.08828473245283</v>
+        <v>0.6257591431018615</v>
       </c>
       <c r="D10">
-        <v>57.82763450369946</v>
+        <v>58.28645243863087</v>
       </c>
       <c r="E10">
-        <v>2.221794872002212</v>
+        <v>1.493747399640544</v>
       </c>
       <c r="F10">
-        <v>77929.80102529483</v>
+        <v>78544.69296107619</v>
       </c>
       <c r="G10">
-        <v>2695.568842815066</v>
+        <v>1612.182878608289</v>
       </c>
       <c r="H10">
-        <v>16247.93739271317</v>
+        <v>16246.47306860908</v>
       </c>
       <c r="I10">
-        <v>16328.73774954318</v>
+        <v>16330.43384798317</v>
       </c>
       <c r="J10">
         <v>18724.71249900269</v>
@@ -3031,34 +3031,34 @@
         <v>2241.279711042377</v>
       </c>
       <c r="P10">
-        <v>18687.06922954717</v>
+        <v>18686.50959010652</v>
       </c>
       <c r="Q10">
-        <v>18793.1349130003</v>
+        <v>18792.53287072922</v>
       </c>
       <c r="R10">
-        <v>19165.07262152811</v>
+        <v>19164.09879528483</v>
       </c>
       <c r="S10">
-        <v>2.232162134281351</v>
+        <v>1.361649873616667</v>
       </c>
       <c r="T10">
-        <v>80.15512660722626</v>
+        <v>79.63517162083286</v>
       </c>
       <c r="U10">
-        <v>4.72255383348962</v>
+        <v>2.970127403802402</v>
       </c>
       <c r="V10">
-        <v>24479.05732310443</v>
+        <v>24114.85808312927</v>
       </c>
       <c r="W10">
-        <v>1303.915759175631</v>
+        <v>759.2646000814048</v>
       </c>
       <c r="X10">
-        <v>19094.25532372847</v>
+        <v>19089.40207808679</v>
       </c>
       <c r="Y10">
-        <v>19198.89174542406</v>
+        <v>19202.55917547453</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -3075,7 +3075,7 @@
         <v>69.56254796764043</v>
       </c>
       <c r="E11">
-        <v>1.134195598937215</v>
+        <v>1.134195598937216</v>
       </c>
       <c r="F11">
         <v>89424.75635030011</v>
@@ -3084,58 +3084,58 @@
         <v>1405.305097506976</v>
       </c>
       <c r="H11">
-        <v>17669.36524827575</v>
+        <v>17669.11262327785</v>
       </c>
       <c r="I11">
-        <v>17758.0671584141</v>
+        <v>17757.96915116891</v>
       </c>
       <c r="J11">
-        <v>20882.7662275922</v>
+        <v>20882.76622756712</v>
       </c>
       <c r="K11">
-        <v>0.7982788133488051</v>
+        <v>0.7982788128978218</v>
       </c>
       <c r="L11">
-        <v>88.78169098382153</v>
+        <v>88.78169104791623</v>
       </c>
       <c r="M11">
-        <v>1.658472141622757</v>
+        <v>1.658472145832362</v>
       </c>
       <c r="N11">
-        <v>139059.4888711573</v>
+        <v>139059.4889532955</v>
       </c>
       <c r="O11">
-        <v>2284.82624886999</v>
+        <v>2284.826230396316</v>
       </c>
       <c r="P11">
-        <v>20840.85286589529</v>
+        <v>20840.16749480393</v>
       </c>
       <c r="Q11">
-        <v>20961.3992084269</v>
+        <v>20961.62883646615</v>
       </c>
       <c r="R11">
-        <v>21426.30374316637</v>
+        <v>21426.56316382639</v>
       </c>
       <c r="S11">
-        <v>2.336172926463734</v>
+        <v>2.37948342242369</v>
       </c>
       <c r="T11">
-        <v>83.45004569979713</v>
+        <v>85.64611890608245</v>
       </c>
       <c r="U11">
-        <v>5.610731479223536</v>
+        <v>5.059014905596488</v>
       </c>
       <c r="V11">
-        <v>24129.76742373429</v>
+        <v>24531.74617406301</v>
       </c>
       <c r="W11">
-        <v>1320.120328350729</v>
+        <v>1248.664839959748</v>
       </c>
       <c r="X11">
-        <v>21350.29745838491</v>
+        <v>21347.99379701811</v>
       </c>
       <c r="Y11">
-        <v>21463.32882512268</v>
+        <v>21465.11902358435</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -3152,67 +3152,67 @@
         <v>52.85891730564656</v>
       </c>
       <c r="E12">
-        <v>0.4494522117118672</v>
+        <v>0.4494522117118673</v>
       </c>
       <c r="F12">
         <v>101415.3147892176</v>
       </c>
       <c r="G12">
-        <v>767.2829107956077</v>
+        <v>767.2829107956079</v>
       </c>
       <c r="H12">
-        <v>16637.02928609646</v>
+        <v>16635.51548793661</v>
       </c>
       <c r="I12">
-        <v>16705.15917030405</v>
+        <v>16707.08992656055</v>
       </c>
       <c r="J12">
         <v>19057.67737645268</v>
       </c>
       <c r="K12">
-        <v>0.7462698950162958</v>
+        <v>0.7462698950162957</v>
       </c>
       <c r="L12">
         <v>72.2812579791819</v>
       </c>
       <c r="M12">
-        <v>1.588415105041366</v>
+        <v>1.588415105041365</v>
       </c>
       <c r="N12">
         <v>139152.4480545917</v>
       </c>
       <c r="O12">
-        <v>2643.029554810238</v>
+        <v>2643.029554810237</v>
       </c>
       <c r="P12">
-        <v>19023.15440744585</v>
+        <v>19022.91528262764</v>
       </c>
       <c r="Q12">
-        <v>19122.41478338728</v>
+        <v>19121.57448124649</v>
       </c>
       <c r="R12">
-        <v>19487.53360283161</v>
+        <v>19487.60581479641</v>
       </c>
       <c r="S12">
-        <v>1.133002375478591</v>
+        <v>1.102681355725325</v>
       </c>
       <c r="T12">
-        <v>73.32348624034906</v>
+        <v>74.19273568190584</v>
       </c>
       <c r="U12">
-        <v>2.76816843677209</v>
+        <v>2.343652216618653</v>
       </c>
       <c r="V12">
-        <v>25281.57411373648</v>
+        <v>25466.79866427152</v>
       </c>
       <c r="W12">
-        <v>762.1371100772772</v>
+        <v>684.7087938082256</v>
       </c>
       <c r="X12">
-        <v>19420.09215746286</v>
+        <v>19418.1868079892</v>
       </c>
       <c r="Y12">
-        <v>19522.25054866068</v>
+        <v>19524.37123538393</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3220,52 +3220,52 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>16842.39950820285</v>
+        <v>16842.03262555671</v>
       </c>
       <c r="C13">
-        <v>1.070837308791453</v>
+        <v>0.5655424823472756</v>
       </c>
       <c r="D13">
-        <v>65.91633512377362</v>
+        <v>65.26360722102056</v>
       </c>
       <c r="E13">
-        <v>2.16593377104649</v>
+        <v>1.38821946357118</v>
       </c>
       <c r="F13">
-        <v>94525.07154041302</v>
+        <v>93512.93190658832</v>
       </c>
       <c r="G13">
-        <v>2964.412688791075</v>
+        <v>1588.792063336927</v>
       </c>
       <c r="H13">
-        <v>16785.19775286011</v>
+        <v>16784.19213392652</v>
       </c>
       <c r="I13">
-        <v>16869.45823074511</v>
+        <v>16870.52215007906</v>
       </c>
       <c r="J13">
         <v>19654.601873731</v>
       </c>
       <c r="K13">
-        <v>0.5662015365196187</v>
+        <v>0.5662015365203649</v>
       </c>
       <c r="L13">
-        <v>79.66878435387864</v>
+        <v>79.66878435388415</v>
       </c>
       <c r="M13">
-        <v>1.322176898662575</v>
+        <v>1.322176890748338</v>
       </c>
       <c r="N13">
-        <v>162902.3648632059</v>
+        <v>162902.3648632146</v>
       </c>
       <c r="O13">
-        <v>2206.380169600025</v>
+        <v>2206.380169598439</v>
       </c>
       <c r="P13">
-        <v>19615.07919793684</v>
+        <v>19615.07919793826</v>
       </c>
       <c r="Q13">
-        <v>19725.54503149284</v>
+        <v>19725.54503149156</v>
       </c>
       <c r="R13">
         <v>20145.51541827418</v>
@@ -3277,7 +3277,7 @@
         <v>86.0008082734183</v>
       </c>
       <c r="U13">
-        <v>2.965824326527536</v>
+        <v>2.965824326527537</v>
       </c>
       <c r="V13">
         <v>29906.87352025988</v>
@@ -3286,10 +3286,10 @@
         <v>878.097770453798</v>
       </c>
       <c r="X13">
-        <v>20069.29533082217</v>
+        <v>20067.07866421595</v>
       </c>
       <c r="Y13">
-        <v>20183.07581617634</v>
+        <v>20185.05938353061</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3315,58 +3315,58 @@
         <v>16259.54266793971</v>
       </c>
       <c r="H14">
-        <v>16946.25927226552</v>
+        <v>16947.51574633314</v>
       </c>
       <c r="I14">
-        <v>17119.70544574881</v>
+        <v>17119.43880416909</v>
       </c>
       <c r="J14">
-        <v>19868.95057425194</v>
+        <v>19869.41924570318</v>
       </c>
       <c r="K14">
-        <v>2.889435169440202</v>
+        <v>3.037938130350883</v>
       </c>
       <c r="L14">
-        <v>144.5365268852132</v>
+        <v>138.0567873241793</v>
       </c>
       <c r="M14">
-        <v>6.748736994636104</v>
+        <v>6.249584011263154</v>
       </c>
       <c r="N14">
-        <v>189840.4968680166</v>
+        <v>184096.480303394</v>
       </c>
       <c r="O14">
-        <v>7333.452510292158</v>
+        <v>7267.512995171184</v>
       </c>
       <c r="P14">
-        <v>19808.2772381256</v>
+        <v>19807.32464478489</v>
       </c>
       <c r="Q14">
-        <v>19984.97329352728</v>
+        <v>19990.08411799004</v>
       </c>
       <c r="R14">
-        <v>20381.4674462892</v>
+        <v>20381.46744629998</v>
       </c>
       <c r="S14">
-        <v>4.502416074652347</v>
+        <v>4.502416069623331</v>
       </c>
       <c r="T14">
-        <v>155.4129450275596</v>
+        <v>155.4129450572608</v>
       </c>
       <c r="U14">
-        <v>9.304917156439231</v>
+        <v>9.304917147049899</v>
       </c>
       <c r="V14">
-        <v>35730.44841175546</v>
+        <v>35730.44841635437</v>
       </c>
       <c r="W14">
-        <v>1879.670613613541</v>
+        <v>1879.670611246765</v>
       </c>
       <c r="X14">
-        <v>20249.01300191434</v>
+        <v>20247.87800510614</v>
       </c>
       <c r="Y14">
-        <v>20441.48599149774</v>
+        <v>20440.96283225781</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3377,43 +3377,43 @@
         <v>16400.03629136763</v>
       </c>
       <c r="C15">
-        <v>1.245679562476661</v>
+        <v>1.24567956247666</v>
       </c>
       <c r="D15">
         <v>65.25417134965086</v>
       </c>
       <c r="E15">
-        <v>2.759287870431003</v>
+        <v>2.759287870431002</v>
       </c>
       <c r="F15">
         <v>109482.5142823599</v>
       </c>
       <c r="G15">
-        <v>4129.822647594397</v>
+        <v>4129.822647594396</v>
       </c>
       <c r="H15">
-        <v>16343.48155650524</v>
+        <v>16342.93346216934</v>
       </c>
       <c r="I15">
-        <v>16426.23327456721</v>
+        <v>16426.85456405177</v>
       </c>
       <c r="J15">
-        <v>19299.28267917488</v>
+        <v>19299.28267917511</v>
       </c>
       <c r="K15">
-        <v>0.3487237978539245</v>
+        <v>0.3487237978496461</v>
       </c>
       <c r="L15">
-        <v>81.4273807456872</v>
+        <v>81.42738074475443</v>
       </c>
       <c r="M15">
-        <v>0.8045795913759745</v>
+        <v>0.8045795903345386</v>
       </c>
       <c r="N15">
-        <v>172312.7152304816</v>
+        <v>172312.715229487</v>
       </c>
       <c r="O15">
-        <v>1393.143818247531</v>
+        <v>1393.143817432365</v>
       </c>
       <c r="P15">
         <v>19259.59314888033</v>
@@ -3422,28 +3422,28 @@
         <v>19372.69300142643</v>
       </c>
       <c r="R15">
-        <v>19803.95933681416</v>
+        <v>19804.15856267488</v>
       </c>
       <c r="S15">
-        <v>1.055479065458515</v>
+        <v>1.248689483668187</v>
       </c>
       <c r="T15">
-        <v>80.28891501395</v>
+        <v>82.55595813663244</v>
       </c>
       <c r="U15">
-        <v>2.594290280660563</v>
+        <v>2.738713284415354</v>
       </c>
       <c r="V15">
-        <v>29788.87976863458</v>
+        <v>30296.81849952664</v>
       </c>
       <c r="W15">
-        <v>763.4527358370683</v>
+        <v>840.463927047632</v>
       </c>
       <c r="X15">
-        <v>19731.28328182238</v>
+        <v>19729.05733871306</v>
       </c>
       <c r="Y15">
-        <v>19840.41057067838</v>
+        <v>19842.41790729886</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3451,28 +3451,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16790.83348408857</v>
+        <v>16791.00401847274</v>
       </c>
       <c r="C16">
-        <v>0.6015749963141269</v>
+        <v>0.6134948429918196</v>
       </c>
       <c r="D16">
-        <v>56.58643082886807</v>
+        <v>57.61402720500332</v>
       </c>
       <c r="E16">
-        <v>1.486754664756158</v>
+        <v>1.211887450126776</v>
       </c>
       <c r="F16">
-        <v>108190.5492137252</v>
+        <v>109591.7743196137</v>
       </c>
       <c r="G16">
-        <v>2387.43093168821</v>
+        <v>2120.316989691109</v>
       </c>
       <c r="H16">
-        <v>16741.10986142093</v>
+        <v>16739.1439951452</v>
       </c>
       <c r="I16">
-        <v>16815.25930621544</v>
+        <v>16817.28725101642</v>
       </c>
       <c r="J16">
         <v>19287.86047338618</v>
@@ -3484,43 +3484,43 @@
         <v>72.5470075575826</v>
       </c>
       <c r="M16">
-        <v>0.8074145979077648</v>
+        <v>0.8074145979077649</v>
       </c>
       <c r="N16">
         <v>168359.1362886305</v>
       </c>
       <c r="O16">
-        <v>1616.913868641712</v>
+        <v>1616.913868641713</v>
       </c>
       <c r="P16">
-        <v>19250.96450742335</v>
+        <v>19250.52396651565</v>
       </c>
       <c r="Q16">
-        <v>19353.94607459335</v>
+        <v>19353.61329480669</v>
       </c>
       <c r="R16">
-        <v>19737.88173671225</v>
+        <v>19737.46614001029</v>
       </c>
       <c r="S16">
-        <v>1.528516252338302</v>
+        <v>1.543065319457177</v>
       </c>
       <c r="T16">
-        <v>72.23288980603341</v>
+        <v>74.75001935497046</v>
       </c>
       <c r="U16">
-        <v>3.204733385465345</v>
+        <v>3.441959220818372</v>
       </c>
       <c r="V16">
-        <v>30235.47601812788</v>
+        <v>30618.46856796132</v>
       </c>
       <c r="W16">
-        <v>1222.50173739027</v>
+        <v>1172.814896183152</v>
       </c>
       <c r="X16">
-        <v>19672.00634544224</v>
+        <v>19669.66674346268</v>
       </c>
       <c r="Y16">
-        <v>19768.51054601118</v>
+        <v>19770.78189330633</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3531,31 +3531,31 @@
         <v>16447.48544866933</v>
       </c>
       <c r="C17">
-        <v>0.5490831709107103</v>
+        <v>0.5490831709123362</v>
       </c>
       <c r="D17">
-        <v>60.48734293668516</v>
+        <v>60.48734293667918</v>
       </c>
       <c r="E17">
-        <v>1.278026091425392</v>
+        <v>1.278026096462675</v>
       </c>
       <c r="F17">
-        <v>113443.3870198776</v>
+        <v>113443.3870198682</v>
       </c>
       <c r="G17">
-        <v>2006.79678082792</v>
+        <v>2006.796780833643</v>
       </c>
       <c r="H17">
-        <v>16393.93790092968</v>
+        <v>16393.06871669134</v>
       </c>
       <c r="I17">
-        <v>16474.43772636579</v>
+        <v>16475.63184122913</v>
       </c>
       <c r="J17">
         <v>19115.31481472344</v>
       </c>
       <c r="K17">
-        <v>0.7733492215587476</v>
+        <v>0.7733492215587475</v>
       </c>
       <c r="L17">
         <v>79.52931283288557</v>
@@ -3567,7 +3567,7 @@
         <v>172677.7760975914</v>
       </c>
       <c r="O17">
-        <v>3215.900010936822</v>
+        <v>3215.900010936821</v>
       </c>
       <c r="P17">
         <v>19076.34769263277</v>
@@ -3579,13 +3579,13 @@
         <v>19590.91864940664</v>
       </c>
       <c r="S17">
-        <v>1.497587541550792</v>
+        <v>1.497587541550793</v>
       </c>
       <c r="T17">
         <v>84.11458472832987</v>
       </c>
       <c r="U17">
-        <v>3.104832701410514</v>
+        <v>3.104832701410512</v>
       </c>
       <c r="V17">
         <v>30743.38027892834</v>
@@ -3594,10 +3594,10 @@
         <v>1010.977807316877</v>
       </c>
       <c r="X17">
-        <v>19516.92194112338</v>
+        <v>19514.83815179314</v>
       </c>
       <c r="Y17">
-        <v>19628.16299071199</v>
+        <v>19628.8734036794</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3608,7 +3608,7 @@
         <v>16884.41404390841</v>
       </c>
       <c r="C18">
-        <v>0.7617099706412663</v>
+        <v>0.7617099706412664</v>
       </c>
       <c r="D18">
         <v>66.29024519189657</v>
@@ -3623,28 +3623,28 @@
         <v>2164.24718121648</v>
       </c>
       <c r="H18">
-        <v>16825.76161218899</v>
+        <v>16823.40385815704</v>
       </c>
       <c r="I18">
-        <v>16914.83802952768</v>
+        <v>16917.98575403236</v>
       </c>
       <c r="J18">
         <v>19587.07834398629</v>
       </c>
       <c r="K18">
-        <v>0.4930236641809075</v>
+        <v>0.4930236641809077</v>
       </c>
       <c r="L18">
         <v>83.4173722955053</v>
       </c>
       <c r="M18">
-        <v>1.107935645109393</v>
+        <v>1.107935645109394</v>
       </c>
       <c r="N18">
         <v>153089.9493033412</v>
       </c>
       <c r="O18">
-        <v>1687.1134819697</v>
+        <v>1687.113481969701</v>
       </c>
       <c r="P18">
         <v>19547.49180760256</v>
@@ -3662,7 +3662,7 @@
         <v>78.46317427585846</v>
       </c>
       <c r="U18">
-        <v>3.944530795676802</v>
+        <v>3.944530795676805</v>
       </c>
       <c r="V18">
         <v>25702.91689885101</v>
@@ -3671,10 +3671,10 @@
         <v>1059.866110990153</v>
       </c>
       <c r="X18">
-        <v>19994.55459878067</v>
+        <v>19992.71309698606</v>
       </c>
       <c r="Y18">
-        <v>20103.44773708453</v>
+        <v>20105.07978053681</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3691,7 +3691,7 @@
         <v>56.42168236613009</v>
       </c>
       <c r="E19">
-        <v>0.8497379024547196</v>
+        <v>0.8497379024547194</v>
       </c>
       <c r="F19">
         <v>106279.6487675608</v>
@@ -3700,16 +3700,16 @@
         <v>1368.236356767155</v>
       </c>
       <c r="H19">
-        <v>17231.64092013596</v>
+        <v>17230.4496494059</v>
       </c>
       <c r="I19">
-        <v>17306.17028220523</v>
+        <v>17307.1880863916</v>
       </c>
       <c r="J19">
         <v>20033.79202140423</v>
       </c>
       <c r="K19">
-        <v>0.7087414111817772</v>
+        <v>0.7087414111817775</v>
       </c>
       <c r="L19">
         <v>76.58479771970481</v>
@@ -3721,37 +3721,37 @@
         <v>152887.4396315941</v>
       </c>
       <c r="O19">
-        <v>2639.838677700994</v>
+        <v>2639.838677700995</v>
       </c>
       <c r="P19">
-        <v>19997.91327138464</v>
+        <v>19997.41668305753</v>
       </c>
       <c r="Q19">
-        <v>20101.65293042392</v>
+        <v>20101.38887563013</v>
       </c>
       <c r="R19">
-        <v>20514.36280957433</v>
+        <v>20513.89134014515</v>
       </c>
       <c r="S19">
-        <v>1.016317897547509</v>
+        <v>0.6469148309850569</v>
       </c>
       <c r="T19">
-        <v>72.20498951048177</v>
+        <v>71.38090872928376</v>
       </c>
       <c r="U19">
-        <v>2.04905307085711</v>
+        <v>1.491269444032743</v>
       </c>
       <c r="V19">
-        <v>25362.58092505005</v>
+        <v>25072.25764153621</v>
       </c>
       <c r="W19">
-        <v>647.1710286544845</v>
+        <v>430.3421986670263</v>
       </c>
       <c r="X19">
-        <v>20448.68887312288</v>
+        <v>20445.19794425937</v>
       </c>
       <c r="Y19">
-        <v>20548.48544941027</v>
+        <v>20551.64103309436</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -3762,73 +3762,73 @@
         <v>16994.07853290371</v>
       </c>
       <c r="C20">
-        <v>0.4882710981636674</v>
+        <v>0.4882710981636675</v>
       </c>
       <c r="D20">
         <v>46.14168592322076</v>
       </c>
       <c r="E20">
-        <v>1.181554348200028</v>
+        <v>1.181554348200027</v>
       </c>
       <c r="F20">
         <v>91756.00113310781</v>
       </c>
       <c r="G20">
-        <v>1974.694667544231</v>
+        <v>1974.694667544232</v>
       </c>
       <c r="H20">
-        <v>16952.71073650351</v>
+        <v>16952.04778494152</v>
       </c>
       <c r="I20">
-        <v>17014.07915318954</v>
+        <v>17014.85670275355</v>
       </c>
       <c r="J20">
-        <v>19248.26149831582</v>
+        <v>19248.26149830234</v>
       </c>
       <c r="K20">
-        <v>0.6278126469062175</v>
+        <v>0.6278126456180644</v>
       </c>
       <c r="L20">
-        <v>65.47723195923822</v>
+        <v>65.47723200373038</v>
       </c>
       <c r="M20">
-        <v>1.535913692649502</v>
+        <v>1.535913674681954</v>
       </c>
       <c r="N20">
-        <v>147847.2463721438</v>
+        <v>147847.2464567701</v>
       </c>
       <c r="O20">
-        <v>2774.829198162804</v>
+        <v>2774.829201831292</v>
       </c>
       <c r="P20">
-        <v>19216.95730200178</v>
+        <v>19216.64915380631</v>
       </c>
       <c r="Q20">
-        <v>19307.35292461325</v>
+        <v>19306.83047474701</v>
       </c>
       <c r="R20">
-        <v>19660.47510929863</v>
+        <v>19658.57697742789</v>
       </c>
       <c r="S20">
-        <v>1.727512926705937</v>
+        <v>1.032458612767471</v>
       </c>
       <c r="T20">
-        <v>70.55284960856559</v>
+        <v>67.42341405840573</v>
       </c>
       <c r="U20">
-        <v>3.254454571466987</v>
+        <v>2.384041807202084</v>
       </c>
       <c r="V20">
-        <v>27766.55226338682</v>
+        <v>26408.79925259095</v>
       </c>
       <c r="W20">
-        <v>1252.598195957148</v>
+        <v>764.8938179018852</v>
       </c>
       <c r="X20">
-        <v>19598.24523012077</v>
+        <v>19596.61547468649</v>
       </c>
       <c r="Y20">
-        <v>19688.39312799699</v>
+        <v>19690.20859702183</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3836,28 +3836,28 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16560.33561195912</v>
+        <v>16560.26832270625</v>
       </c>
       <c r="C21">
-        <v>1.092861760293441</v>
+        <v>0.6001920024591352</v>
       </c>
       <c r="D21">
-        <v>63.04040830169662</v>
+        <v>62.91369168346034</v>
       </c>
       <c r="E21">
-        <v>2.343547096315713</v>
+        <v>1.522182437284314</v>
       </c>
       <c r="F21">
-        <v>115594.9402491024</v>
+        <v>115359.5186264085</v>
       </c>
       <c r="G21">
-        <v>3863.07418337424</v>
+        <v>2180.937063167826</v>
       </c>
       <c r="H21">
-        <v>16504.26369164068</v>
+        <v>16503.08994981519</v>
       </c>
       <c r="I21">
-        <v>16589.52768277003</v>
+        <v>16591.13857799436</v>
       </c>
       <c r="J21">
         <v>19205.28389190026</v>
@@ -3875,13 +3875,13 @@
         <v>149224.4874562048</v>
       </c>
       <c r="O21">
-        <v>1526.231585770999</v>
+        <v>1526.231585770998</v>
       </c>
       <c r="P21">
-        <v>19164.74807248321</v>
+        <v>19164.74807248347</v>
       </c>
       <c r="Q21">
-        <v>19277.86949189413</v>
+        <v>19277.86949189647</v>
       </c>
       <c r="R21">
         <v>19676.37613302821</v>
@@ -3902,10 +3902,10 @@
         <v>866.3853303896124</v>
       </c>
       <c r="X21">
-        <v>19602.03222741224</v>
+        <v>19601.21847448947</v>
       </c>
       <c r="Y21">
-        <v>19716.04264902322</v>
+        <v>19717.27107153763</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3913,28 +3913,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>17546.16022776746</v>
+        <v>17546.16022776745</v>
       </c>
       <c r="C22">
-        <v>0.3147650151799304</v>
+        <v>0.3147650151794013</v>
       </c>
       <c r="D22">
-        <v>57.94205965963431</v>
+        <v>57.94205965962674</v>
       </c>
       <c r="E22">
-        <v>0.7548897646583058</v>
+        <v>0.7548897646564737</v>
       </c>
       <c r="F22">
-        <v>108650.4223152381</v>
+        <v>108650.4223152268</v>
       </c>
       <c r="G22">
-        <v>1148.34502175395</v>
+        <v>1148.34502175414</v>
       </c>
       <c r="H22">
-        <v>17495.18336712839</v>
+        <v>17493.9080161476</v>
       </c>
       <c r="I22">
-        <v>17571.51156545182</v>
+        <v>17572.9924737719</v>
       </c>
       <c r="J22">
         <v>20183.05393521128</v>
@@ -3946,7 +3946,7 @@
         <v>76.84749714656517</v>
       </c>
       <c r="M22">
-        <v>0.9115351286441836</v>
+        <v>0.9115351286441834</v>
       </c>
       <c r="N22">
         <v>150266.4869570146</v>
@@ -3955,10 +3955,10 @@
         <v>1492.675552136972</v>
       </c>
       <c r="P22">
-        <v>20146.79962270887</v>
+        <v>20146.26635924853</v>
       </c>
       <c r="Q22">
-        <v>20251.25244448626</v>
+        <v>20251.08091168999</v>
       </c>
       <c r="R22">
         <v>20648.62092109361</v>
@@ -3979,10 +3979,10 @@
         <v>1032.47763114605</v>
       </c>
       <c r="X22">
-        <v>20577.08571262309</v>
+        <v>20575.14800498897</v>
       </c>
       <c r="Y22">
-        <v>20684.20949353677</v>
+        <v>20685.76013062691</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -3993,7 +3993,7 @@
         <v>16916.60399266417</v>
       </c>
       <c r="C23">
-        <v>0.5340741300528147</v>
+        <v>0.5340741300528149</v>
       </c>
       <c r="D23">
         <v>53.42673185788475</v>
@@ -4008,10 +4008,10 @@
         <v>1873.340989248858</v>
       </c>
       <c r="H23">
-        <v>16868.53045973318</v>
+        <v>16866.9775042742</v>
       </c>
       <c r="I23">
-        <v>16941.25226646387</v>
+        <v>16943.13798448061</v>
       </c>
       <c r="J23">
         <v>19304.38372383871</v>
@@ -4023,7 +4023,7 @@
         <v>72.4024817675482</v>
       </c>
       <c r="M23">
-        <v>0.9511159284614368</v>
+        <v>0.9511159284614369</v>
       </c>
       <c r="N23">
         <v>173549.893088615</v>
@@ -4032,34 +4032,34 @@
         <v>1766.645734768118</v>
       </c>
       <c r="P23">
-        <v>19268.87024699365</v>
+        <v>19268.4502607711</v>
       </c>
       <c r="Q23">
-        <v>19368.9413041819</v>
+        <v>19368.66186059085</v>
       </c>
       <c r="R23">
-        <v>19733.97801341129</v>
+        <v>19734.54673379117</v>
       </c>
       <c r="S23">
-        <v>1.906094240777264</v>
+        <v>1.299212878046029</v>
       </c>
       <c r="T23">
-        <v>70.90161825859134</v>
+        <v>71.95832343359491</v>
       </c>
       <c r="U23">
-        <v>3.973799754953021</v>
+        <v>3.035198978423394</v>
       </c>
       <c r="V23">
-        <v>29656.36121608228</v>
+        <v>30081.1000856654</v>
       </c>
       <c r="W23">
-        <v>1456.730889910462</v>
+        <v>1026.385335222661</v>
       </c>
       <c r="X23">
-        <v>19668.61208078291</v>
+        <v>19665.22549012782</v>
       </c>
       <c r="Y23">
-        <v>19769.10083452247</v>
+        <v>19771.84036997323</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -4067,52 +4067,52 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17429.20841502446</v>
+        <v>17429.92554773987</v>
       </c>
       <c r="C24">
-        <v>0.6632836902393828</v>
+        <v>0.547341290152497</v>
       </c>
       <c r="D24">
-        <v>80.46228402686542</v>
+        <v>81.79127964727542</v>
       </c>
       <c r="E24">
-        <v>1.426067856301259</v>
+        <v>1.294284448081809</v>
       </c>
       <c r="F24">
-        <v>107111.5854388117</v>
+        <v>108804.1335352564</v>
       </c>
       <c r="G24">
-        <v>1633.712435537807</v>
+        <v>1388.45446444925</v>
       </c>
       <c r="H24">
-        <v>17357.97504043522</v>
+        <v>17355.91476070288</v>
       </c>
       <c r="I24">
-        <v>17466.86276742248</v>
+        <v>17470.6431085656</v>
       </c>
       <c r="J24">
         <v>20337.90270496294</v>
       </c>
       <c r="K24">
-        <v>0.9025357166196529</v>
+        <v>0.9025357166196533</v>
       </c>
       <c r="L24">
         <v>93.10412186201029</v>
       </c>
       <c r="M24">
-        <v>1.920179054097187</v>
+        <v>1.920179054097188</v>
       </c>
       <c r="N24">
         <v>177225.3973120499</v>
       </c>
       <c r="O24">
-        <v>3138.751683872253</v>
+        <v>3138.751683872254</v>
       </c>
       <c r="P24">
-        <v>20293.08202794411</v>
+        <v>20293.08202794438</v>
       </c>
       <c r="Q24">
-        <v>20421.22558166197</v>
+        <v>20421.22558166144</v>
       </c>
       <c r="R24">
         <v>20841.37527278853</v>
@@ -4124,19 +4124,19 @@
         <v>90.79480208328849</v>
       </c>
       <c r="U24">
-        <v>3.30832511675571</v>
+        <v>3.308325116755711</v>
       </c>
       <c r="V24">
         <v>30112.95324252419</v>
       </c>
       <c r="W24">
-        <v>921.3452723679998</v>
+        <v>921.3452723679997</v>
       </c>
       <c r="X24">
-        <v>20758.95482928523</v>
+        <v>20756.89904816633</v>
       </c>
       <c r="Y24">
-        <v>20884.57732326047</v>
+        <v>20886.63889231326</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -4144,64 +4144,64 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>17068.28275735904</v>
+        <v>17068.41995676157</v>
       </c>
       <c r="C25">
-        <v>0.6870846152074961</v>
+        <v>0.7383754998182375</v>
       </c>
       <c r="D25">
-        <v>52.37118652405002</v>
+        <v>53.66341747948996</v>
       </c>
       <c r="E25">
-        <v>1.796176083842127</v>
+        <v>1.549566898884525</v>
       </c>
       <c r="F25">
-        <v>81772.20419076798</v>
+        <v>83080.86968537986</v>
       </c>
       <c r="G25">
-        <v>2204.076867535184</v>
+        <v>2063.012167824234</v>
       </c>
       <c r="H25">
-        <v>17020.38335560263</v>
+        <v>17019.52970853807</v>
       </c>
       <c r="I25">
-        <v>17092.79093858077</v>
+        <v>17093.72661382594</v>
       </c>
       <c r="J25">
         <v>19701.88270733848</v>
       </c>
       <c r="K25">
-        <v>0.3830562488852397</v>
+        <v>0.38305624888524</v>
       </c>
       <c r="L25">
         <v>74.6462235319206</v>
       </c>
       <c r="M25">
-        <v>0.9417026024382447</v>
+        <v>0.9417026024382456</v>
       </c>
       <c r="N25">
         <v>164285.9783110919</v>
       </c>
       <c r="O25">
-        <v>1659.873363646329</v>
+        <v>1659.873363646331</v>
       </c>
       <c r="P25">
-        <v>19665.86285206474</v>
+        <v>19665.3627597376</v>
       </c>
       <c r="Q25">
-        <v>19767.22257825936</v>
+        <v>19767.00489685099</v>
       </c>
       <c r="R25">
         <v>20166.07905456258</v>
       </c>
       <c r="S25">
-        <v>1.924335174395132</v>
+        <v>1.924335174395133</v>
       </c>
       <c r="T25">
         <v>76.27482261448175</v>
       </c>
       <c r="U25">
-        <v>3.810427400699285</v>
+        <v>3.810427400699286</v>
       </c>
       <c r="V25">
         <v>30167.42248590305</v>
@@ -4210,10 +4210,10 @@
         <v>1403.194055546432</v>
       </c>
       <c r="X25">
-        <v>20099.79928582305</v>
+        <v>20098.02328702406</v>
       </c>
       <c r="Y25">
-        <v>20196.15952184834</v>
+        <v>20197.55523428529</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -4221,40 +4221,40 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>16921.82486956962</v>
+        <v>16921.82486955843</v>
       </c>
       <c r="C26">
-        <v>0.7976562148287395</v>
+        <v>0.7976562115943001</v>
       </c>
       <c r="D26">
-        <v>61.52190566658202</v>
+        <v>61.52190564337386</v>
       </c>
       <c r="E26">
-        <v>1.573045347844455</v>
+        <v>1.573045337691828</v>
       </c>
       <c r="F26">
-        <v>109079.1501114816</v>
+        <v>109079.1500687368</v>
       </c>
       <c r="G26">
-        <v>2629.427902045014</v>
+        <v>2629.427902815967</v>
       </c>
       <c r="H26">
-        <v>16867.58474005265</v>
+        <v>16866.73316373131</v>
       </c>
       <c r="I26">
-        <v>16947.96486543776</v>
+        <v>16948.80361963464</v>
       </c>
       <c r="J26">
         <v>19774.45255980514</v>
       </c>
       <c r="K26">
-        <v>0.4263125465846217</v>
+        <v>0.4263125465846216</v>
       </c>
       <c r="L26">
         <v>81.6508860504488</v>
       </c>
       <c r="M26">
-        <v>1.019343292813875</v>
+        <v>1.019343292813874</v>
       </c>
       <c r="N26">
         <v>172211.888274261</v>
@@ -4263,10 +4263,10 @@
         <v>1741.923585956666</v>
       </c>
       <c r="P26">
-        <v>19734.37616801409</v>
+        <v>19734.37616801217</v>
       </c>
       <c r="Q26">
-        <v>19847.14242647085</v>
+        <v>19847.14242647519</v>
       </c>
       <c r="R26">
         <v>20275.63988215428</v>
@@ -4284,13 +4284,13 @@
         <v>30311.48717678292</v>
       </c>
       <c r="W26">
-        <v>977.2274469404467</v>
+        <v>977.227446940447</v>
       </c>
       <c r="X26">
-        <v>20204.05535050314</v>
+        <v>20201.78175097533</v>
       </c>
       <c r="Y26">
-        <v>20311.41578954614</v>
+        <v>20313.71553824582</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -4298,76 +4298,76 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15942.11995950453</v>
+        <v>15942.40361680403</v>
       </c>
       <c r="C27">
-        <v>0.8966366815519917</v>
+        <v>0.4489738467672383</v>
       </c>
       <c r="D27">
-        <v>58.57084998164503</v>
+        <v>59.65419068346061</v>
       </c>
       <c r="E27">
-        <v>2.090612667268099</v>
+        <v>1.014817287996015</v>
       </c>
       <c r="F27">
-        <v>95070.18838508399</v>
+        <v>96480.6883916949</v>
       </c>
       <c r="G27">
-        <v>2986.657039540878</v>
+        <v>1351.665695293007</v>
       </c>
       <c r="H27">
-        <v>15890.26307941482</v>
+        <v>15889.15623898768</v>
       </c>
       <c r="I27">
-        <v>15968.63360112973</v>
+        <v>15970.01412778363</v>
       </c>
       <c r="J27">
-        <v>18378.34317683285</v>
+        <v>18378.34317683283</v>
       </c>
       <c r="K27">
-        <v>0.5999141519330697</v>
+        <v>0.5999141519361145</v>
       </c>
       <c r="L27">
-        <v>76.08424305232097</v>
+        <v>76.08424305234918</v>
       </c>
       <c r="M27">
-        <v>1.347276265691324</v>
+        <v>1.347276265698322</v>
       </c>
       <c r="N27">
-        <v>173351.32537569</v>
+        <v>173351.3253757442</v>
       </c>
       <c r="O27">
-        <v>2602.625621347824</v>
+        <v>2602.625621349879</v>
       </c>
       <c r="P27">
-        <v>18342.13452414152</v>
+        <v>18341.71476727598</v>
       </c>
       <c r="Q27">
-        <v>18447.20023671411</v>
+        <v>18446.56389541608</v>
       </c>
       <c r="R27">
-        <v>18824.00500047072</v>
+        <v>18824.22914167486</v>
       </c>
       <c r="S27">
-        <v>1.536853698614332</v>
+        <v>0.9974787594415023</v>
       </c>
       <c r="T27">
-        <v>74.51367684452489</v>
+        <v>74.91044999966034</v>
       </c>
       <c r="U27">
-        <v>3.168702048075656</v>
+        <v>2.328279015595597</v>
       </c>
       <c r="V27">
-        <v>29628.28923748366</v>
+        <v>29787.20277820218</v>
       </c>
       <c r="W27">
-        <v>1123.933205022977</v>
+        <v>751.9247663563233</v>
       </c>
       <c r="X27">
-        <v>18754.87248325867</v>
+        <v>18752.26882179413</v>
       </c>
       <c r="Y27">
-        <v>18859.42912286471</v>
+        <v>18862.01388835947</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4378,7 +4378,7 @@
         <v>16327.31862150062</v>
       </c>
       <c r="C28">
-        <v>0.4530190533241282</v>
+        <v>0.4530190533241281</v>
       </c>
       <c r="D28">
         <v>58.12584233611303</v>
@@ -4393,58 +4393,58 @@
         <v>1610.484373962372</v>
       </c>
       <c r="H28">
-        <v>16275.96204388085</v>
+        <v>16275.04063447502</v>
       </c>
       <c r="I28">
-        <v>16352.28541162899</v>
+        <v>16353.03731218377</v>
       </c>
       <c r="J28">
         <v>19188.64988902871</v>
       </c>
       <c r="K28">
-        <v>0.7318705583659613</v>
+        <v>0.7318705583659618</v>
       </c>
       <c r="L28">
         <v>80.34626989209545</v>
       </c>
       <c r="M28">
-        <v>1.628064615086008</v>
+        <v>1.628064615086009</v>
       </c>
       <c r="N28">
         <v>172225.0954938787</v>
       </c>
       <c r="O28">
-        <v>2898.748919808872</v>
+        <v>2898.748919808875</v>
       </c>
       <c r="P28">
-        <v>19149.34168873974</v>
+        <v>19149.34168874294</v>
       </c>
       <c r="Q28">
-        <v>19260.86994163306</v>
+        <v>19260.86994162518</v>
       </c>
       <c r="R28">
-        <v>19699.37081115195</v>
+        <v>19699.37081114279</v>
       </c>
       <c r="S28">
-        <v>1.398822874555611</v>
+        <v>1.398822865140833</v>
       </c>
       <c r="T28">
-        <v>80.11389092900566</v>
+        <v>80.11389090185565</v>
       </c>
       <c r="U28">
-        <v>2.963684774361464</v>
+        <v>2.96368472429313</v>
       </c>
       <c r="V28">
-        <v>30397.99169089019</v>
+        <v>30397.99168457348</v>
       </c>
       <c r="W28">
-        <v>977.267162153867</v>
+        <v>977.2671390608629</v>
       </c>
       <c r="X28">
-        <v>19627.09113870256</v>
+        <v>19625.49407781816</v>
       </c>
       <c r="Y28">
-        <v>19733.54188640534</v>
+        <v>19734.77693727973</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4455,49 +4455,49 @@
         <v>16675.14320234498</v>
       </c>
       <c r="C29">
-        <v>0.4081392294091314</v>
+        <v>0.4081392294091313</v>
       </c>
       <c r="D29">
         <v>49.64501150941403</v>
       </c>
       <c r="E29">
-        <v>0.9761145143032327</v>
+        <v>0.976114514303232</v>
       </c>
       <c r="F29">
         <v>110838.4313122884</v>
       </c>
       <c r="G29">
-        <v>1911.798134350124</v>
+        <v>1911.798134350123</v>
       </c>
       <c r="H29">
-        <v>16631.49141324768</v>
+        <v>16631.07001665798</v>
       </c>
       <c r="I29">
-        <v>16695.75243693833</v>
+        <v>16696.21492946359</v>
       </c>
       <c r="J29">
-        <v>19449.03367187485</v>
+        <v>19449.03367187349</v>
       </c>
       <c r="K29">
-        <v>0.8760171154993236</v>
+        <v>0.8760171128982863</v>
       </c>
       <c r="L29">
-        <v>73.06789267928121</v>
+        <v>73.06789268357376</v>
       </c>
       <c r="M29">
-        <v>1.93713520292324</v>
+        <v>1.937135196866782</v>
       </c>
       <c r="N29">
-        <v>168183.6834906754</v>
+        <v>168183.6834968624</v>
       </c>
       <c r="O29">
-        <v>3769.887346271437</v>
+        <v>3769.88733460399</v>
       </c>
       <c r="P29">
-        <v>19413.17911019172</v>
+        <v>19412.88714778047</v>
       </c>
       <c r="Q29">
-        <v>19514.64678290464</v>
+        <v>19513.77699247096</v>
       </c>
       <c r="R29">
         <v>19940.49686851814</v>
@@ -4509,19 +4509,19 @@
         <v>69.06090680896926</v>
       </c>
       <c r="U29">
-        <v>2.477568990256316</v>
+        <v>2.477568990256315</v>
       </c>
       <c r="V29">
         <v>30221.4171982505</v>
       </c>
       <c r="W29">
-        <v>899.4977089588349</v>
+        <v>899.4977089588347</v>
       </c>
       <c r="X29">
-        <v>19878.64251692935</v>
+        <v>19876.47735899169</v>
       </c>
       <c r="Y29">
-        <v>19971.90493303942</v>
+        <v>19973.93010519317</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4532,7 +4532,7 @@
         <v>17358.49821900368</v>
       </c>
       <c r="C30">
-        <v>0.8310644250627601</v>
+        <v>0.8310644250627598</v>
       </c>
       <c r="D30">
         <v>62.06637638175759</v>
@@ -4544,37 +4544,37 @@
         <v>96158.59485612123</v>
       </c>
       <c r="G30">
-        <v>2523.531130947971</v>
+        <v>2523.531130947969</v>
       </c>
       <c r="H30">
-        <v>17303.25522296063</v>
+        <v>17302.53247994143</v>
       </c>
       <c r="I30">
-        <v>17387.30369859532</v>
+        <v>17387.54362877725</v>
       </c>
       <c r="J30">
-        <v>20045.2769411973</v>
+        <v>20045.27694120035</v>
       </c>
       <c r="K30">
-        <v>0.4334481468561002</v>
+        <v>0.433448145888194</v>
       </c>
       <c r="L30">
-        <v>78.00679615132017</v>
+        <v>78.00679613974522</v>
       </c>
       <c r="M30">
-        <v>1.023974826637632</v>
+        <v>1.023974799993854</v>
       </c>
       <c r="N30">
-        <v>167614.2940691594</v>
+        <v>167614.29405523</v>
       </c>
       <c r="O30">
-        <v>1781.739785475768</v>
+        <v>1781.739785518927</v>
       </c>
       <c r="P30">
-        <v>20005.91083888512</v>
+        <v>20005.28459825287</v>
       </c>
       <c r="Q30">
-        <v>20116.19165498902</v>
+        <v>20116.00044832331</v>
       </c>
       <c r="R30">
         <v>20526.90528843032</v>
@@ -4586,19 +4586,19 @@
         <v>80.77765979046195</v>
       </c>
       <c r="U30">
-        <v>3.082129855396656</v>
+        <v>3.082129855396655</v>
       </c>
       <c r="V30">
         <v>30074.28741836975</v>
       </c>
       <c r="W30">
-        <v>946.4981015320412</v>
+        <v>946.4981015320413</v>
       </c>
       <c r="X30">
-        <v>20453.06889105252</v>
+        <v>20451.1734670557</v>
       </c>
       <c r="Y30">
-        <v>20564.19121032178</v>
+        <v>20566.01306295591</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4606,76 +4606,76 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>17388.05035724064</v>
+        <v>17388.05035723988</v>
       </c>
       <c r="C31">
-        <v>0.2493661004052576</v>
+        <v>0.2493661025406277</v>
       </c>
       <c r="D31">
-        <v>59.64513664409137</v>
+        <v>59.64513664165789</v>
       </c>
       <c r="E31">
-        <v>0.5604906071874336</v>
+        <v>0.5604906118801051</v>
       </c>
       <c r="F31">
-        <v>105300.136627673</v>
+        <v>105300.1366251118</v>
       </c>
       <c r="G31">
-        <v>840.4188517664948</v>
+        <v>840.4188505211964</v>
       </c>
       <c r="H31">
-        <v>17336.50270591891</v>
+        <v>17335.80409819965</v>
       </c>
       <c r="I31">
-        <v>17412.89148096975</v>
+        <v>17413.34204896999</v>
       </c>
       <c r="J31">
-        <v>20280.66079237901</v>
+        <v>20280.77331381597</v>
       </c>
       <c r="K31">
-        <v>0.3901079711098752</v>
+        <v>0.2571367756667892</v>
       </c>
       <c r="L31">
-        <v>78.19877680214685</v>
+        <v>77.16847305152758</v>
       </c>
       <c r="M31">
-        <v>0.8238002292468425</v>
+        <v>0.6290399326946144</v>
       </c>
       <c r="N31">
-        <v>171052.2038954278</v>
+        <v>169583.3519830315</v>
       </c>
       <c r="O31">
-        <v>1558.697309745802</v>
+        <v>1122.072123384079</v>
       </c>
       <c r="P31">
-        <v>20243.03376960047</v>
+        <v>20242.44276124047</v>
       </c>
       <c r="Q31">
-        <v>20350.20129741328</v>
+        <v>20349.5205645104</v>
       </c>
       <c r="R31">
-        <v>20788.28647901928</v>
+        <v>20785.5959303689</v>
       </c>
       <c r="S31">
-        <v>1.852381577593833</v>
+        <v>1.237458064282446</v>
       </c>
       <c r="T31">
-        <v>81.33333508485238</v>
+        <v>76.73476843517588</v>
       </c>
       <c r="U31">
-        <v>3.578399195650971</v>
+        <v>2.924683243756147</v>
       </c>
       <c r="V31">
-        <v>31339.70256833559</v>
+        <v>29393.79331887156</v>
       </c>
       <c r="W31">
-        <v>1341.382187452004</v>
+        <v>908.6226411665822</v>
       </c>
       <c r="X31">
-        <v>20717.28082799706</v>
+        <v>20713.47754906466</v>
       </c>
       <c r="Y31">
-        <v>20819.53704454967</v>
+        <v>20822.83062543363</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4692,67 +4692,67 @@
         <v>62.10001019287406</v>
       </c>
       <c r="E32">
-        <v>1.010524876269495</v>
+        <v>1.010524876269494</v>
       </c>
       <c r="F32">
         <v>86837.22532526312</v>
       </c>
       <c r="G32">
-        <v>1164.459869442199</v>
+        <v>1164.4598694422</v>
       </c>
       <c r="H32">
-        <v>16587.98486421231</v>
+        <v>16585.35741964879</v>
       </c>
       <c r="I32">
-        <v>16672.28601970459</v>
+        <v>16676.09762918808</v>
       </c>
       <c r="J32">
         <v>19183.80563710241</v>
       </c>
       <c r="K32">
-        <v>0.5240726126412326</v>
+        <v>0.5240726126412325</v>
       </c>
       <c r="L32">
         <v>80.04552400960479</v>
       </c>
       <c r="M32">
-        <v>1.22636112944036</v>
+        <v>1.226361129440361</v>
       </c>
       <c r="N32">
         <v>168000.5683545195</v>
       </c>
       <c r="O32">
-        <v>2103.433170557786</v>
+        <v>2103.433170557785</v>
       </c>
       <c r="P32">
-        <v>19145.33505938968</v>
+        <v>19144.689039713</v>
       </c>
       <c r="Q32">
-        <v>19255.37053983041</v>
+        <v>19255.27396822693</v>
       </c>
       <c r="R32">
         <v>19633.13215515471</v>
       </c>
       <c r="S32">
-        <v>0.8864914933807072</v>
+        <v>0.8864914933807071</v>
       </c>
       <c r="T32">
         <v>74.60083891785888</v>
       </c>
       <c r="U32">
-        <v>2.085587828862003</v>
+        <v>2.085587828862002</v>
       </c>
       <c r="V32">
         <v>28245.46610869974</v>
       </c>
       <c r="W32">
-        <v>640.6223432828555</v>
+        <v>640.6223432828552</v>
       </c>
       <c r="X32">
-        <v>19563.70782819084</v>
+        <v>19561.74625857426</v>
       </c>
       <c r="Y32">
-        <v>19672.15943736958</v>
+        <v>19674.17936845265</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4898,7 @@
         <v>16774.72486008279</v>
       </c>
       <c r="C4">
-        <v>0.4499538141965121</v>
+        <v>0.449953814196512</v>
       </c>
       <c r="D4">
         <v>55.26534902793315</v>
@@ -4913,58 +4913,58 @@
         <v>1225.193703181053</v>
       </c>
       <c r="H4">
-        <v>16724.51084365031</v>
+        <v>16723.15312601822</v>
       </c>
       <c r="I4">
-        <v>16800.07183927702</v>
+        <v>16801.39470100178</v>
       </c>
       <c r="J4">
-        <v>19475.37458132628</v>
+        <v>19475.37458133059</v>
       </c>
       <c r="K4">
-        <v>0.3366889391570276</v>
+        <v>0.3366889351066311</v>
       </c>
       <c r="L4">
-        <v>79.35722827747574</v>
+        <v>79.35722826121621</v>
       </c>
       <c r="M4">
-        <v>0.8089031493666055</v>
+        <v>0.8089031301502222</v>
       </c>
       <c r="N4">
-        <v>144665.164232801</v>
+        <v>144665.1642149661</v>
       </c>
       <c r="O4">
-        <v>1186.29352273942</v>
+        <v>1186.293510943312</v>
       </c>
       <c r="P4">
-        <v>19437.93730921299</v>
+        <v>19437.42417004161</v>
       </c>
       <c r="Q4">
-        <v>19546.23916791332</v>
+        <v>19545.49474614752</v>
       </c>
       <c r="R4">
-        <v>19955.70878000215</v>
+        <v>19955.708780023</v>
       </c>
       <c r="S4">
-        <v>1.809245436618674</v>
+        <v>1.809245427577329</v>
       </c>
       <c r="T4">
-        <v>82.97446363375138</v>
+        <v>82.97446370363788</v>
       </c>
       <c r="U4">
-        <v>4.297175808736417</v>
+        <v>4.297175796893053</v>
       </c>
       <c r="V4">
-        <v>25834.82405516537</v>
+        <v>25834.8240708832</v>
       </c>
       <c r="W4">
-        <v>1094.270331942474</v>
+        <v>1094.270316792742</v>
       </c>
       <c r="X4">
-        <v>19882.31780325337</v>
+        <v>19880.5836989805</v>
       </c>
       <c r="Y4">
-        <v>19992.22888310817</v>
+        <v>19993.8935943578</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -4975,7 +4975,7 @@
         <v>17482.79789876824</v>
       </c>
       <c r="C5">
-        <v>0.9510360346299411</v>
+        <v>0.9510360346299418</v>
       </c>
       <c r="D5">
         <v>50.97140947770286</v>
@@ -4987,37 +4987,37 @@
         <v>70482.02134135235</v>
       </c>
       <c r="G5">
-        <v>2457.858739730611</v>
+        <v>2457.858739730612</v>
       </c>
       <c r="H5">
-        <v>17436.6071863195</v>
+        <v>17436.09142271536</v>
       </c>
       <c r="I5">
-        <v>17506.76588664578</v>
+        <v>17507.20123249406</v>
       </c>
       <c r="J5">
-        <v>20391.54206927131</v>
+        <v>20391.54206927192</v>
       </c>
       <c r="K5">
-        <v>0.4609187579690921</v>
+        <v>0.4609187534701548</v>
       </c>
       <c r="L5">
-        <v>70.07781100746743</v>
+        <v>70.0778110045332</v>
       </c>
       <c r="M5">
-        <v>1.073848276758846</v>
+        <v>1.073848258416519</v>
       </c>
       <c r="N5">
-        <v>135544.4859891293</v>
+        <v>135544.4859880793</v>
       </c>
       <c r="O5">
-        <v>1689.028082380147</v>
+        <v>1689.028098367187</v>
       </c>
       <c r="P5">
-        <v>20353.51923973522</v>
+        <v>20352.335163678</v>
       </c>
       <c r="Q5">
-        <v>20455.57377860019</v>
+        <v>20456.67656942513</v>
       </c>
       <c r="R5">
         <v>20898.48201742576</v>
@@ -5029,19 +5029,19 @@
         <v>74.58052263620152</v>
       </c>
       <c r="U5">
-        <v>2.173815199883241</v>
+        <v>2.17381519988324</v>
       </c>
       <c r="V5">
         <v>26569.87416316815</v>
       </c>
       <c r="W5">
-        <v>714.1355591666601</v>
+        <v>714.1355591666598</v>
       </c>
       <c r="X5">
-        <v>20832.31142145748</v>
+        <v>20831.49732434181</v>
       </c>
       <c r="Y5">
-        <v>20927.56171193631</v>
+        <v>20927.67549339388</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -5049,28 +5049,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17043.49589784027</v>
+        <v>17043.4958979006</v>
       </c>
       <c r="C6">
-        <v>0.9186649116149864</v>
+        <v>0.918664910804148</v>
       </c>
       <c r="D6">
-        <v>59.86526819186584</v>
+        <v>59.86526834148344</v>
       </c>
       <c r="E6">
-        <v>2.049495009376592</v>
+        <v>2.04949503009138</v>
       </c>
       <c r="F6">
-        <v>85358.82262807782</v>
+        <v>85358.82282549642</v>
       </c>
       <c r="G6">
-        <v>2674.901060086034</v>
+        <v>2674.901104963115</v>
       </c>
       <c r="H6">
-        <v>16992.87481175017</v>
+        <v>16991.67654683471</v>
       </c>
       <c r="I6">
-        <v>17065.63145353458</v>
+        <v>17066.57726284662</v>
       </c>
       <c r="J6">
         <v>19964.7716411073</v>
@@ -5082,7 +5082,7 @@
         <v>77.75478663861338</v>
       </c>
       <c r="M6">
-        <v>0.7675645270027179</v>
+        <v>0.7675645270027174</v>
       </c>
       <c r="N6">
         <v>152019.9159607647</v>
@@ -5091,34 +5091,34 @@
         <v>1221.405282658005</v>
       </c>
       <c r="P6">
-        <v>19926.68028226465</v>
+        <v>19926.08058345149</v>
       </c>
       <c r="Q6">
-        <v>20034.73857233702</v>
+        <v>20034.71000297312</v>
       </c>
       <c r="R6">
-        <v>20481.60256452902</v>
+        <v>20481.65199443736</v>
       </c>
       <c r="S6">
-        <v>1.689247187844213</v>
+        <v>1.547127568520147</v>
       </c>
       <c r="T6">
-        <v>78.43535077009145</v>
+        <v>78.7267229886493</v>
       </c>
       <c r="U6">
-        <v>3.906161267535305</v>
+        <v>3.085019751829943</v>
       </c>
       <c r="V6">
-        <v>27599.71563093389</v>
+        <v>27669.48300671357</v>
       </c>
       <c r="W6">
-        <v>1156.945150213388</v>
+        <v>974.9596705470433</v>
       </c>
       <c r="X6">
-        <v>20410.19527689502</v>
+        <v>20407.86463209909</v>
       </c>
       <c r="Y6">
-        <v>20515.55298682738</v>
+        <v>20516.31904618031</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -5129,37 +5129,37 @@
         <v>16784.89713025347</v>
       </c>
       <c r="C7">
-        <v>0.4063037841035912</v>
+        <v>0.4063037841035911</v>
       </c>
       <c r="D7">
         <v>64.60363094769616</v>
       </c>
       <c r="E7">
-        <v>0.8845622797274522</v>
+        <v>0.8845622797274516</v>
       </c>
       <c r="F7">
         <v>79489.50189309512</v>
       </c>
       <c r="G7">
-        <v>927.8270594822602</v>
+        <v>927.8270594822595</v>
       </c>
       <c r="H7">
-        <v>16728.07408682269</v>
+        <v>16727.46121167509</v>
       </c>
       <c r="I7">
-        <v>16812.42774147993</v>
+        <v>16812.93881836768</v>
       </c>
       <c r="J7">
         <v>19799.41760558541</v>
       </c>
       <c r="K7">
-        <v>0.4081264575036969</v>
+        <v>0.408126457503697</v>
       </c>
       <c r="L7">
         <v>81.10278736913462</v>
       </c>
       <c r="M7">
-        <v>0.9444386728586435</v>
+        <v>0.9444386728586437</v>
       </c>
       <c r="N7">
         <v>149195.3596961427</v>
@@ -5168,34 +5168,34 @@
         <v>1417.077709089979</v>
       </c>
       <c r="P7">
-        <v>19759.18663099828</v>
+        <v>19759.18663100698</v>
       </c>
       <c r="Q7">
-        <v>19872.96917990273</v>
+        <v>19872.96917988413</v>
       </c>
       <c r="R7">
-        <v>20320.90053866611</v>
+        <v>20320.12888688175</v>
       </c>
       <c r="S7">
-        <v>2.102819714337224</v>
+        <v>1.350226285734682</v>
       </c>
       <c r="T7">
-        <v>84.92108712169173</v>
+        <v>83.42455694369596</v>
       </c>
       <c r="U7">
-        <v>4.575421010084972</v>
+        <v>3.336867692415322</v>
       </c>
       <c r="V7">
-        <v>26776.6729290613</v>
+        <v>26317.69551692585</v>
       </c>
       <c r="W7">
-        <v>1258.035878139622</v>
+        <v>831.3654869884984</v>
       </c>
       <c r="X7">
-        <v>20245.06107314129</v>
+        <v>20242.74708064114</v>
       </c>
       <c r="Y7">
-        <v>20359.32511700797</v>
+        <v>20361.30123569176</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -5206,7 +5206,7 @@
         <v>16694.15483156902</v>
       </c>
       <c r="C8">
-        <v>0.6456515123497116</v>
+        <v>0.645651512349712</v>
       </c>
       <c r="D8">
         <v>51.89525141399876</v>
@@ -5218,13 +5218,13 @@
         <v>82392.07360576796</v>
       </c>
       <c r="G8">
-        <v>1888.762657071513</v>
+        <v>1888.762657071514</v>
       </c>
       <c r="H8">
-        <v>16649.29094663596</v>
+        <v>16648.88440126312</v>
       </c>
       <c r="I8">
-        <v>16714.05234425057</v>
+        <v>16714.41612235441</v>
       </c>
       <c r="J8">
         <v>19289.6129033409</v>
@@ -5236,7 +5236,7 @@
         <v>68.52153771035923</v>
       </c>
       <c r="M8">
-        <v>1.637617540890587</v>
+        <v>1.637617540890588</v>
       </c>
       <c r="N8">
         <v>144570.8678379807</v>
@@ -5245,34 +5245,34 @@
         <v>2890.049813875937</v>
       </c>
       <c r="P8">
-        <v>19254.95142357942</v>
+        <v>19254.95142357294</v>
       </c>
       <c r="Q8">
-        <v>19351.88512689178</v>
+        <v>19351.8851269079</v>
       </c>
       <c r="R8">
         <v>19755.13207763487</v>
       </c>
       <c r="S8">
-        <v>0.9135921161708002</v>
+        <v>0.9135921161707998</v>
       </c>
       <c r="T8">
         <v>66.51268914871126</v>
       </c>
       <c r="U8">
-        <v>2.035279502068365</v>
+        <v>2.035279502068364</v>
       </c>
       <c r="V8">
         <v>26447.27160809812</v>
       </c>
       <c r="W8">
-        <v>688.2969858950972</v>
+        <v>688.2969858950969</v>
       </c>
       <c r="X8">
-        <v>19695.3616067697</v>
+        <v>19693.94468706404</v>
       </c>
       <c r="Y8">
-        <v>19784.44328849364</v>
+        <v>19785.63490675607</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -5283,7 +5283,7 @@
         <v>16761.2980368482</v>
       </c>
       <c r="C9">
-        <v>0.5311872017005113</v>
+        <v>0.5311872017005111</v>
       </c>
       <c r="D9">
         <v>51.7951790281982</v>
@@ -5298,10 +5298,10 @@
         <v>1071.864384232104</v>
       </c>
       <c r="H9">
-        <v>16713.96636149493</v>
+        <v>16712.06093701584</v>
       </c>
       <c r="I9">
-        <v>16784.91166936516</v>
+        <v>16786.89477518657</v>
       </c>
       <c r="J9">
         <v>19379.31304100227</v>
@@ -5313,7 +5313,7 @@
         <v>73.63115817033982</v>
       </c>
       <c r="M9">
-        <v>1.049571338356743</v>
+        <v>1.049571338356744</v>
       </c>
       <c r="N9">
         <v>113377.1465776066</v>
@@ -5322,10 +5322,10 @@
         <v>1344.514891224301</v>
       </c>
       <c r="P9">
-        <v>19343.13137041733</v>
+        <v>19342.74448374082</v>
       </c>
       <c r="Q9">
-        <v>19446.63191744289</v>
+        <v>19446.26705951893</v>
       </c>
       <c r="R9">
         <v>19848.38410919949</v>
@@ -5337,7 +5337,7 @@
         <v>70.35735790157077</v>
       </c>
       <c r="U9">
-        <v>3.704420457471549</v>
+        <v>3.704420457471547</v>
       </c>
       <c r="V9">
         <v>20146.80622946966</v>
@@ -5346,10 +5346,10 @@
         <v>864.554980827491</v>
       </c>
       <c r="X9">
-        <v>19783.9858062525</v>
+        <v>19781.27427065336</v>
       </c>
       <c r="Y9">
-        <v>19881.88947242447</v>
+        <v>19884.63429691931</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -5375,22 +5375,22 @@
         <v>1689.747005660869</v>
       </c>
       <c r="H10">
-        <v>16946.74033208034</v>
+        <v>16946.4956846525</v>
       </c>
       <c r="I10">
-        <v>17022.20447286422</v>
+        <v>17022.16644631701</v>
       </c>
       <c r="J10">
         <v>20151.6219474</v>
       </c>
       <c r="K10">
-        <v>0.2234029353124124</v>
+        <v>0.2234029353124125</v>
       </c>
       <c r="L10">
         <v>80.63649895096907</v>
       </c>
       <c r="M10">
-        <v>0.4880596206763705</v>
+        <v>0.4880596206763707</v>
       </c>
       <c r="N10">
         <v>110769.0342610073</v>
@@ -5399,10 +5399,10 @@
         <v>570.851494912362</v>
       </c>
       <c r="P10">
-        <v>20112.90763009226</v>
+        <v>20112.9076300844</v>
       </c>
       <c r="Q10">
-        <v>20222.16896146988</v>
+        <v>20222.16896148506</v>
       </c>
       <c r="R10">
         <v>20702.13751218495</v>
@@ -5423,10 +5423,10 @@
         <v>1057.383247104904</v>
       </c>
       <c r="X10">
-        <v>20633.92117381738</v>
+        <v>20631.99026743495</v>
       </c>
       <c r="Y10">
-        <v>20736.34908410949</v>
+        <v>20738.33246399999</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -5434,76 +5434,76 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16999.30039535687</v>
+        <v>17000.72285076501</v>
       </c>
       <c r="C11">
-        <v>1.073530490305779</v>
+        <v>0.6335769755382535</v>
       </c>
       <c r="D11">
-        <v>42.85483918478808</v>
+        <v>45.73103215996164</v>
       </c>
       <c r="E11">
-        <v>2.452573716456247</v>
+        <v>1.860509900097418</v>
       </c>
       <c r="F11">
-        <v>50998.51296736822</v>
+        <v>54587.59067354324</v>
       </c>
       <c r="G11">
-        <v>2734.582843923471</v>
+        <v>1688.569490672098</v>
       </c>
       <c r="H11">
-        <v>16962.61376049108</v>
+        <v>16961.8130497598</v>
       </c>
       <c r="I11">
-        <v>17019.18535775837</v>
+        <v>17020.04078734512</v>
       </c>
       <c r="J11">
-        <v>19509.65925303369</v>
+        <v>19509.65925303566</v>
       </c>
       <c r="K11">
-        <v>0.7009944399908217</v>
+        <v>0.7009944425188859</v>
       </c>
       <c r="L11">
-        <v>63.3982958503317</v>
+        <v>63.39829584198161</v>
       </c>
       <c r="M11">
-        <v>1.750536305753483</v>
+        <v>1.750536320523588</v>
       </c>
       <c r="N11">
-        <v>109672.7659532957</v>
+        <v>109672.7659454448</v>
       </c>
       <c r="O11">
-        <v>2378.610526593855</v>
+        <v>2378.610536206793</v>
       </c>
       <c r="P11">
-        <v>19477.65120545</v>
+        <v>19477.38038002646</v>
       </c>
       <c r="Q11">
-        <v>19568.0193944036</v>
+        <v>19567.11659941536</v>
       </c>
       <c r="R11">
-        <v>19959.13815343877</v>
+        <v>19959.11830604419</v>
       </c>
       <c r="S11">
-        <v>1.804374737325488</v>
+        <v>1.017971397434055</v>
       </c>
       <c r="T11">
-        <v>62.40900343515175</v>
+        <v>62.36850290123413</v>
       </c>
       <c r="U11">
-        <v>4.105805751381762</v>
+        <v>2.695909175067185</v>
       </c>
       <c r="V11">
-        <v>19717.40249879772</v>
+        <v>19705.13178724337</v>
       </c>
       <c r="W11">
-        <v>1120.048127133449</v>
+        <v>651.6454915860065</v>
       </c>
       <c r="X11">
-        <v>19901.77237960417</v>
+        <v>19900.19576938726</v>
       </c>
       <c r="Y11">
-        <v>19987.85785576085</v>
+        <v>19990.10010410144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -5520,19 +5520,19 @@
         <v>46.5193260639855</v>
       </c>
       <c r="E12">
-        <v>0.716809161639514</v>
+        <v>0.7168091616395137</v>
       </c>
       <c r="F12">
         <v>56920.079120756</v>
       </c>
       <c r="G12">
-        <v>694.6898568354487</v>
+        <v>694.6898568354485</v>
       </c>
       <c r="H12">
-        <v>16052.21982069942</v>
+        <v>16051.5993748742</v>
       </c>
       <c r="I12">
-        <v>16112.773531349</v>
+        <v>16113.59887639486</v>
       </c>
       <c r="J12">
         <v>18399.53576301868</v>
@@ -5553,34 +5553,34 @@
         <v>2054.462965716212</v>
       </c>
       <c r="P12">
-        <v>18366.23236555644</v>
+        <v>18365.85543291159</v>
       </c>
       <c r="Q12">
-        <v>18458.85415129767</v>
+        <v>18458.18883272906</v>
       </c>
       <c r="R12">
-        <v>18821.73908450155</v>
+        <v>18821.9651690161</v>
       </c>
       <c r="S12">
-        <v>0.7211897890699894</v>
+        <v>1.010717179808049</v>
       </c>
       <c r="T12">
-        <v>63.90245526280759</v>
+        <v>66.16397741468788</v>
       </c>
       <c r="U12">
-        <v>1.757583392619878</v>
+        <v>2.1411074416744</v>
       </c>
       <c r="V12">
-        <v>22001.69518923427</v>
+        <v>22465.35427459775</v>
       </c>
       <c r="W12">
-        <v>482.3591805665516</v>
+        <v>620.8781995250855</v>
       </c>
       <c r="X12">
-        <v>18761.22132822605</v>
+        <v>18758.70083151014</v>
       </c>
       <c r="Y12">
-        <v>18854.29207263924</v>
+        <v>18856.78463228914</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -5591,73 +5591,73 @@
         <v>17149.55488536735</v>
       </c>
       <c r="C13">
-        <v>0.5448627853666465</v>
+        <v>0.5448627853666463</v>
       </c>
       <c r="D13">
         <v>49.48544374817507</v>
       </c>
       <c r="E13">
-        <v>1.317136199815711</v>
+        <v>1.31713619981571</v>
       </c>
       <c r="F13">
         <v>97584.0137207731</v>
       </c>
       <c r="G13">
-        <v>2091.538364793578</v>
+        <v>2091.538364793577</v>
       </c>
       <c r="H13">
-        <v>17106.37551403501</v>
+        <v>17106.287797624</v>
       </c>
       <c r="I13">
-        <v>17170.75000720977</v>
+        <v>17170.8349558946</v>
       </c>
       <c r="J13">
-        <v>20094.11523873137</v>
+        <v>20094.11523873138</v>
       </c>
       <c r="K13">
-        <v>0.6522734667066823</v>
+        <v>0.6522734667073868</v>
       </c>
       <c r="L13">
-        <v>72.31522520227861</v>
+        <v>72.31522520227449</v>
       </c>
       <c r="M13">
-        <v>1.663896642798384</v>
+        <v>1.663896642796815</v>
       </c>
       <c r="N13">
-        <v>156978.0546916166</v>
+        <v>156978.0546916101</v>
       </c>
       <c r="O13">
-        <v>2820.37976239298</v>
+        <v>2820.379762390138</v>
       </c>
       <c r="P13">
-        <v>20059.47570306544</v>
+        <v>20059.20123537073</v>
       </c>
       <c r="Q13">
-        <v>20158.81022072311</v>
+        <v>20157.84747080393</v>
       </c>
       <c r="R13">
-        <v>20607.80946248738</v>
+        <v>20607.64973728289</v>
       </c>
       <c r="S13">
-        <v>2.028172725212458</v>
+        <v>1.19876921816918</v>
       </c>
       <c r="T13">
-        <v>66.97677902547031</v>
+        <v>66.68195534511004</v>
       </c>
       <c r="U13">
-        <v>4.206595639921884</v>
+        <v>2.887752112791253</v>
       </c>
       <c r="V13">
-        <v>25610.48199505938</v>
+        <v>25497.6869498629</v>
       </c>
       <c r="W13">
-        <v>1443.104603703671</v>
+        <v>881.2330698437263</v>
       </c>
       <c r="X13">
-        <v>20545.79025965926</v>
+        <v>20544.39995595501</v>
       </c>
       <c r="Y13">
-        <v>20639.14749882294</v>
+        <v>20640.28889057923</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -5665,34 +5665,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16960.98526385764</v>
+        <v>16960.98526386342</v>
       </c>
       <c r="C14">
-        <v>0.968120724947916</v>
+        <v>0.9681207205864677</v>
       </c>
       <c r="D14">
-        <v>48.96444795818449</v>
+        <v>48.96444797316828</v>
       </c>
       <c r="E14">
-        <v>2.159613916603476</v>
+        <v>2.159613927048107</v>
       </c>
       <c r="F14">
-        <v>55834.0120622683</v>
+        <v>55834.01207938262</v>
       </c>
       <c r="G14">
-        <v>2077.762127302174</v>
+        <v>2077.762142865406</v>
       </c>
       <c r="H14">
-        <v>16917.80297679191</v>
+        <v>16917.25951065647</v>
       </c>
       <c r="I14">
-        <v>16982.44839528159</v>
+        <v>16983.00369019737</v>
       </c>
       <c r="J14">
         <v>19708.62688186339</v>
       </c>
       <c r="K14">
-        <v>0.4640531453019145</v>
+        <v>0.4640531453019143</v>
       </c>
       <c r="L14">
         <v>71.07010763840934</v>
@@ -5707,34 +5707,34 @@
         <v>1427.64174726462</v>
       </c>
       <c r="P14">
-        <v>19673.71135362589</v>
+        <v>19673.52602144985</v>
       </c>
       <c r="Q14">
-        <v>19772.99085802022</v>
+        <v>19771.93485835238</v>
       </c>
       <c r="R14">
-        <v>20192.96053354001</v>
+        <v>20192.96053354007</v>
       </c>
       <c r="S14">
-        <v>1.694274711941786</v>
+        <v>1.694274711932768</v>
       </c>
       <c r="T14">
-        <v>73.69161177986045</v>
+        <v>73.69161177994516</v>
       </c>
       <c r="U14">
-        <v>3.609789979190571</v>
+        <v>3.609789979166378</v>
       </c>
       <c r="V14">
-        <v>21279.7192553124</v>
+        <v>21279.71925533348</v>
       </c>
       <c r="W14">
-        <v>908.1953885207903</v>
+        <v>908.1953885201872</v>
       </c>
       <c r="X14">
-        <v>20129.37879606372</v>
+        <v>20128.18215672112</v>
       </c>
       <c r="Y14">
-        <v>20223.13922542355</v>
+        <v>20224.18273310558</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5742,28 +5742,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17112.86742475466</v>
+        <v>17112.86742472742</v>
       </c>
       <c r="C15">
-        <v>1.219665713767337</v>
+        <v>1.219665725359394</v>
       </c>
       <c r="D15">
-        <v>65.61897258605937</v>
+        <v>65.61897252594576</v>
       </c>
       <c r="E15">
-        <v>2.418350389398531</v>
+        <v>2.41835044628042</v>
       </c>
       <c r="F15">
-        <v>105278.6670533756</v>
+        <v>105278.6669634215</v>
       </c>
       <c r="G15">
-        <v>3753.898404958349</v>
+        <v>3753.898465256374</v>
       </c>
       <c r="H15">
-        <v>17057.74884856139</v>
+        <v>17057.2044865756</v>
       </c>
       <c r="I15">
-        <v>17136.25417178548</v>
+        <v>17136.61478402373</v>
       </c>
       <c r="J15">
         <v>20242.63292049963</v>
@@ -5784,16 +5784,16 @@
         <v>2425.460579663868</v>
       </c>
       <c r="P15">
-        <v>20203.15997995037</v>
+        <v>20203.15997995278</v>
       </c>
       <c r="Q15">
-        <v>20313.8194825973</v>
+        <v>20313.81948259096</v>
       </c>
       <c r="R15">
         <v>20778.49498101703</v>
       </c>
       <c r="S15">
-        <v>0.868361278613638</v>
+        <v>0.8683612786136383</v>
       </c>
       <c r="T15">
         <v>78.81698579619903</v>
@@ -5805,13 +5805,13 @@
         <v>28790.71428320074</v>
       </c>
       <c r="W15">
-        <v>584.726739877383</v>
+        <v>584.7267398773832</v>
       </c>
       <c r="X15">
-        <v>20707.92090018987</v>
+        <v>20705.88955003774</v>
       </c>
       <c r="Y15">
-        <v>20812.53884060275</v>
+        <v>20813.13890337069</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -5822,7 +5822,7 @@
         <v>16164.77965590311</v>
       </c>
       <c r="C16">
-        <v>0.5147272620896444</v>
+        <v>0.5147272620896443</v>
       </c>
       <c r="D16">
         <v>60.84710742893947</v>
@@ -5837,34 +5837,34 @@
         <v>1662.766894148701</v>
       </c>
       <c r="H16">
-        <v>16111.58191187311</v>
+        <v>16110.75566117959</v>
       </c>
       <c r="I16">
-        <v>16190.89724775008</v>
+        <v>16191.82505828362</v>
       </c>
       <c r="J16">
-        <v>18809.50589166977</v>
+        <v>18809.2953432923</v>
       </c>
       <c r="K16">
-        <v>0.8615176332975246</v>
+        <v>0.8513504175605936</v>
       </c>
       <c r="L16">
-        <v>76.75864988713282</v>
+        <v>78.23491837825512</v>
       </c>
       <c r="M16">
-        <v>1.706557300849487</v>
+        <v>1.980781988396279</v>
       </c>
       <c r="N16">
-        <v>151056.55422586</v>
+        <v>153009.4803500601</v>
       </c>
       <c r="O16">
-        <v>3007.670235341377</v>
+        <v>3241.285830863118</v>
       </c>
       <c r="P16">
-        <v>18771.13489756943</v>
+        <v>18770.65536068703</v>
       </c>
       <c r="Q16">
-        <v>18880.09659131231</v>
+        <v>18878.75376139963</v>
       </c>
       <c r="R16">
         <v>19282.58255928957</v>
@@ -5882,13 +5882,13 @@
         <v>24905.56401504936</v>
       </c>
       <c r="W16">
-        <v>701.1006807470864</v>
+        <v>701.1006807470865</v>
       </c>
       <c r="X16">
-        <v>19216.42980932079</v>
+        <v>19214.6719393353</v>
       </c>
       <c r="Y16">
-        <v>19320.63940904189</v>
+        <v>19322.61830615662</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -5905,7 +5905,7 @@
         <v>47.37060889143425</v>
       </c>
       <c r="E17">
-        <v>1.527257493329135</v>
+        <v>1.527257493329136</v>
       </c>
       <c r="F17">
         <v>94976.25963355839</v>
@@ -5914,58 +5914,58 @@
         <v>3042.604184792557</v>
       </c>
       <c r="H17">
-        <v>16776.05302558413</v>
+        <v>16775.9379736523</v>
       </c>
       <c r="I17">
-        <v>16838.79736192105</v>
+        <v>16838.90963187574</v>
       </c>
       <c r="J17">
-        <v>19648.72473547795</v>
+        <v>19648.70334958635</v>
       </c>
       <c r="K17">
-        <v>0.4024599690313632</v>
+        <v>0.4399910605585048</v>
       </c>
       <c r="L17">
-        <v>67.24737887668226</v>
+        <v>67.49844958412173</v>
       </c>
       <c r="M17">
-        <v>0.8483182419862231</v>
+        <v>1.112635897101129</v>
       </c>
       <c r="N17">
-        <v>147049.1883299993</v>
+        <v>147394.6964744353</v>
       </c>
       <c r="O17">
-        <v>1590.203176030808</v>
+        <v>1924.944961548246</v>
       </c>
       <c r="P17">
-        <v>19613.02337181914</v>
+        <v>19612.73600193518</v>
       </c>
       <c r="Q17">
-        <v>19710.08112807205</v>
+        <v>19709.91944712204</v>
       </c>
       <c r="R17">
-        <v>20142.99878768984</v>
+        <v>20142.99878769375</v>
       </c>
       <c r="S17">
-        <v>0.7597309495055465</v>
+        <v>0.7597309552142307</v>
       </c>
       <c r="T17">
-        <v>68.4558714602244</v>
+        <v>68.45587147737648</v>
       </c>
       <c r="U17">
-        <v>1.836669002579183</v>
+        <v>1.836668990994238</v>
       </c>
       <c r="V17">
-        <v>26139.46380875826</v>
+        <v>26139.46381106151</v>
       </c>
       <c r="W17">
-        <v>572.8448895684887</v>
+        <v>572.8448974458801</v>
       </c>
       <c r="X17">
-        <v>20082.68454183834</v>
+        <v>20081.23001282671</v>
       </c>
       <c r="Y17">
-        <v>20172.12480588924</v>
+        <v>20173.3541646828</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -5976,31 +5976,31 @@
         <v>16334.24108596595</v>
       </c>
       <c r="C18">
-        <v>1.071173173251266</v>
+        <v>1.071173173251265</v>
       </c>
       <c r="D18">
         <v>42.06737664037573</v>
       </c>
       <c r="E18">
-        <v>2.463523291931113</v>
+        <v>2.463523291931111</v>
       </c>
       <c r="F18">
         <v>94723.38520861625</v>
       </c>
       <c r="G18">
-        <v>4631.345675832775</v>
+        <v>4631.345675832772</v>
       </c>
       <c r="H18">
-        <v>16296.93610141818</v>
+        <v>16296.35723287335</v>
       </c>
       <c r="I18">
-        <v>16352.56111252681</v>
+        <v>16353.09161848949</v>
       </c>
       <c r="J18">
         <v>18764.24189027718</v>
       </c>
       <c r="K18">
-        <v>0.6165658194975426</v>
+        <v>0.6165658194975427</v>
       </c>
       <c r="L18">
         <v>64.03414737055618</v>
@@ -6015,34 +6015,34 @@
         <v>2674.974562616856</v>
       </c>
       <c r="P18">
-        <v>18732.1161122106</v>
+        <v>18731.74689632929</v>
       </c>
       <c r="Q18">
-        <v>18822.00042201617</v>
+        <v>18821.29630182146</v>
       </c>
       <c r="R18">
-        <v>19207.35913780934</v>
+        <v>19207.31319569855</v>
       </c>
       <c r="S18">
-        <v>1.170529681492276</v>
+        <v>0.8431979779443977</v>
       </c>
       <c r="T18">
-        <v>57.30963190402638</v>
+        <v>58.94410650166957</v>
       </c>
       <c r="U18">
-        <v>2.669452224371828</v>
+        <v>1.900658666955234</v>
       </c>
       <c r="V18">
-        <v>25485.89860391982</v>
+        <v>25845.41731132019</v>
       </c>
       <c r="W18">
-        <v>989.2419998388591</v>
+        <v>702.8696150646277</v>
       </c>
       <c r="X18">
-        <v>19152.13206536414</v>
+        <v>19149.90195086076</v>
       </c>
       <c r="Y18">
-        <v>19238.1063605046</v>
+        <v>19241.54825031424</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -6059,19 +6059,19 @@
         <v>61.51631384329426</v>
       </c>
       <c r="E19">
-        <v>0.4384307391908567</v>
+        <v>0.438430739190857</v>
       </c>
       <c r="F19">
         <v>59649.52828519759</v>
       </c>
       <c r="G19">
-        <v>339.5598891114915</v>
+        <v>339.5598891114916</v>
       </c>
       <c r="H19">
-        <v>16551.33984143266</v>
+        <v>16550.5201525911</v>
       </c>
       <c r="I19">
-        <v>16632.55356501679</v>
+        <v>16633.52686743704</v>
       </c>
       <c r="J19">
         <v>19266.39280976917</v>
@@ -6083,7 +6083,7 @@
         <v>80.97341340499202</v>
       </c>
       <c r="M19">
-        <v>1.666703583041369</v>
+        <v>1.666703583041367</v>
       </c>
       <c r="N19">
         <v>111893.9169803633</v>
@@ -6092,34 +6092,34 @@
         <v>1810.364446802285</v>
       </c>
       <c r="P19">
-        <v>19228.11747699626</v>
+        <v>19227.57782789267</v>
       </c>
       <c r="Q19">
-        <v>19338.98817428524</v>
+        <v>19337.7621943696</v>
       </c>
       <c r="R19">
-        <v>19746.32747099208</v>
+        <v>19746.31213043826</v>
       </c>
       <c r="S19">
-        <v>1.673870871834817</v>
+        <v>1.543590056751453</v>
       </c>
       <c r="T19">
-        <v>87.3458688120801</v>
+        <v>87.22424395733518</v>
       </c>
       <c r="U19">
-        <v>4.068319716106929</v>
+        <v>3.248649710783975</v>
       </c>
       <c r="V19">
-        <v>20895.16366053317</v>
+        <v>20875.72595000179</v>
       </c>
       <c r="W19">
-        <v>795.870222176616</v>
+        <v>673.7850323047911</v>
       </c>
       <c r="X19">
-        <v>19670.08822709852</v>
+        <v>19668.60475647567</v>
       </c>
       <c r="Y19">
-        <v>19781.95283082114</v>
+        <v>19782.5074484958</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -6130,7 +6130,7 @@
         <v>16211.64416604056</v>
       </c>
       <c r="C20">
-        <v>0.405166426240072</v>
+        <v>0.4051664262400719</v>
       </c>
       <c r="D20">
         <v>48.34893674449992</v>
@@ -6145,28 +6145,28 @@
         <v>1133.086819199579</v>
       </c>
       <c r="H20">
-        <v>16170.64068492768</v>
+        <v>16170.27704396198</v>
       </c>
       <c r="I20">
-        <v>16231.46977762442</v>
+        <v>16231.84834678596</v>
       </c>
       <c r="J20">
         <v>19026.31646509038</v>
       </c>
       <c r="K20">
-        <v>1.046947967948525</v>
+        <v>1.046947967948524</v>
       </c>
       <c r="L20">
         <v>70.73518501834889</v>
       </c>
       <c r="M20">
-        <v>2.506896450779231</v>
+        <v>2.50689645077923</v>
       </c>
       <c r="N20">
         <v>116039.7784169467</v>
       </c>
       <c r="O20">
-        <v>3411.119029465164</v>
+        <v>3411.119029465163</v>
       </c>
       <c r="P20">
         <v>18991.96276552635</v>
@@ -6178,7 +6178,7 @@
         <v>19522.1362201047</v>
       </c>
       <c r="S20">
-        <v>0.7878935596306763</v>
+        <v>0.7878935596306762</v>
       </c>
       <c r="T20">
         <v>62.43200427421927</v>
@@ -6190,13 +6190,13 @@
         <v>20024.1055375562</v>
       </c>
       <c r="W20">
-        <v>479.1088054218248</v>
+        <v>479.1088054218247</v>
       </c>
       <c r="X20">
-        <v>19464.02283661029</v>
+        <v>19461.98135504256</v>
       </c>
       <c r="Y20">
-        <v>19551.66950444064</v>
+        <v>19553.6190310678</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -6222,16 +6222,16 @@
         <v>1455.57796350628</v>
       </c>
       <c r="H21">
-        <v>16031.49278973656</v>
+        <v>16031.10178694589</v>
       </c>
       <c r="I21">
-        <v>16090.38884841494</v>
+        <v>16090.47840714185</v>
       </c>
       <c r="J21">
         <v>18790.49999032573</v>
       </c>
       <c r="K21">
-        <v>0.5997263764131822</v>
+        <v>0.599726376413182</v>
       </c>
       <c r="L21">
         <v>68.3237463477799</v>
@@ -6243,7 +6243,7 @@
         <v>119776.6726473382</v>
       </c>
       <c r="O21">
-        <v>1959.133876178104</v>
+        <v>1959.133876178103</v>
       </c>
       <c r="P21">
         <v>18756.99860088954</v>
@@ -6261,19 +6261,19 @@
         <v>66.39059929939484</v>
       </c>
       <c r="U21">
-        <v>2.16480117322322</v>
+        <v>2.164801173223218</v>
       </c>
       <c r="V21">
         <v>20100.05822783395</v>
       </c>
       <c r="W21">
-        <v>599.0423945825902</v>
+        <v>599.0423945825901</v>
       </c>
       <c r="X21">
-        <v>19219.12103145696</v>
+        <v>19217.45205747685</v>
       </c>
       <c r="Y21">
-        <v>19305.81369073952</v>
+        <v>19307.78619453232</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -6296,13 +6296,13 @@
         <v>54526.55432284753</v>
       </c>
       <c r="G22">
-        <v>1870.081685722318</v>
+        <v>1870.081685722319</v>
       </c>
       <c r="H22">
-        <v>16501.82528923672</v>
+        <v>16501.34962422243</v>
       </c>
       <c r="I22">
-        <v>16562.12339484918</v>
+        <v>16562.64869896089</v>
       </c>
       <c r="J22">
         <v>19048.64935076197</v>
@@ -6314,7 +6314,7 @@
         <v>65.91869138129805</v>
       </c>
       <c r="M22">
-        <v>1.715748006118378</v>
+        <v>1.715748006118379</v>
       </c>
       <c r="N22">
         <v>111317.2955488347</v>
@@ -6323,16 +6323,16 @@
         <v>2301.9710220903</v>
       </c>
       <c r="P22">
-        <v>19017.18169121441</v>
+        <v>19016.86871689345</v>
       </c>
       <c r="Q22">
-        <v>19108.23051728447</v>
+        <v>19107.60667142813</v>
       </c>
       <c r="R22">
         <v>19493.24814513066</v>
       </c>
       <c r="S22">
-        <v>0.4909044891224228</v>
+        <v>0.4909044891224227</v>
       </c>
       <c r="T22">
         <v>62.93271807997688</v>
@@ -6347,10 +6347,10 @@
         <v>295.0033812826495</v>
       </c>
       <c r="X22">
-        <v>19436.03618195583</v>
+        <v>19434.97931478972</v>
       </c>
       <c r="Y22">
-        <v>19522.26585232648</v>
+        <v>19523.09899673193</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -6358,40 +6358,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16307.51411113073</v>
+        <v>16307.5141111529</v>
       </c>
       <c r="C23">
-        <v>1.050606033113928</v>
+        <v>1.050606038371551</v>
       </c>
       <c r="D23">
-        <v>45.74586401914413</v>
+        <v>45.74586406664295</v>
       </c>
       <c r="E23">
-        <v>2.040095063996004</v>
+        <v>2.040095066341276</v>
       </c>
       <c r="F23">
-        <v>59649.85972743557</v>
+        <v>59649.8597860877</v>
       </c>
       <c r="G23">
-        <v>2576.624807070789</v>
+        <v>2576.624770043723</v>
       </c>
       <c r="H23">
-        <v>16268.10220869048</v>
+        <v>16268.09482659256</v>
       </c>
       <c r="I23">
-        <v>16326.2245515188</v>
+        <v>16326.03725584423</v>
       </c>
       <c r="J23">
         <v>18896.07561700757</v>
       </c>
       <c r="K23">
-        <v>0.8614197292959229</v>
+        <v>0.8614197292959228</v>
       </c>
       <c r="L23">
         <v>64.96096765775431</v>
       </c>
       <c r="M23">
-        <v>1.931522713278067</v>
+        <v>1.931522713278066</v>
       </c>
       <c r="N23">
         <v>116731.2080825164</v>
@@ -6400,34 +6400,34 @@
         <v>2904.577725768697</v>
       </c>
       <c r="P23">
-        <v>18863.97602259958</v>
+        <v>18863.64166512784</v>
       </c>
       <c r="Q23">
-        <v>18954.88950948141</v>
+        <v>18954.0530977627</v>
       </c>
       <c r="R23">
-        <v>19356.40424919846</v>
+        <v>19356.40424919495</v>
       </c>
       <c r="S23">
-        <v>1.410332183090792</v>
+        <v>1.410332187368194</v>
       </c>
       <c r="T23">
-        <v>63.17135697816494</v>
+        <v>63.17135696867528</v>
       </c>
       <c r="U23">
-        <v>2.889467482191872</v>
+        <v>2.889467490915184</v>
       </c>
       <c r="V23">
-        <v>20565.63730027994</v>
+        <v>20565.637298214</v>
       </c>
       <c r="W23">
-        <v>828.0907914452621</v>
+        <v>828.0907940149989</v>
       </c>
       <c r="X23">
-        <v>19298.94511311972</v>
+        <v>19297.40578556537</v>
       </c>
       <c r="Y23">
-        <v>19384.216210193</v>
+        <v>19385.61588795402</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -6438,13 +6438,13 @@
         <v>16949.68437078284</v>
       </c>
       <c r="C24">
-        <v>0.5606506406750617</v>
+        <v>0.5606506406750618</v>
       </c>
       <c r="D24">
         <v>57.79474423130412</v>
       </c>
       <c r="E24">
-        <v>1.165681165461591</v>
+        <v>1.16568116546159</v>
       </c>
       <c r="F24">
         <v>105108.5841521368</v>
@@ -6453,58 +6453,58 @@
         <v>1876.398016178012</v>
       </c>
       <c r="H24">
-        <v>16899.86198534202</v>
+        <v>16898.85539140697</v>
       </c>
       <c r="I24">
-        <v>16974.05189040863</v>
+        <v>16974.58577266569</v>
       </c>
       <c r="J24">
         <v>19952.90278446822</v>
       </c>
       <c r="K24">
-        <v>0.2884725128620997</v>
+        <v>0.2884725128620996</v>
       </c>
       <c r="L24">
         <v>76.87124203389368</v>
       </c>
       <c r="M24">
-        <v>0.635208515710578</v>
+        <v>0.6352085157105782</v>
       </c>
       <c r="N24">
         <v>150860.4443588142</v>
       </c>
       <c r="O24">
-        <v>1046.771947174979</v>
+        <v>1046.771947174978</v>
       </c>
       <c r="P24">
-        <v>19914.2592878541</v>
+        <v>19913.55213167143</v>
       </c>
       <c r="Q24">
-        <v>20022.35142033149</v>
+        <v>20022.48390150329</v>
       </c>
       <c r="R24">
-        <v>20475.6166658986</v>
+        <v>20473.41208299155</v>
       </c>
       <c r="S24">
-        <v>1.556176720285443</v>
+        <v>1.076205157131218</v>
       </c>
       <c r="T24">
-        <v>81.61183717076351</v>
+        <v>77.46957618989018</v>
       </c>
       <c r="U24">
-        <v>3.284226935795621</v>
+        <v>2.705806966604114</v>
       </c>
       <c r="V24">
-        <v>28438.40142224218</v>
+        <v>26963.9109348265</v>
       </c>
       <c r="W24">
-        <v>1044.191363616732</v>
+        <v>740.584909993271</v>
       </c>
       <c r="X24">
-        <v>20402.66006456426</v>
+        <v>20400.5910192384</v>
       </c>
       <c r="Y24">
-        <v>20508.7523691133</v>
+        <v>20510.39499441971</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -6515,7 +6515,7 @@
         <v>17366.47350106565</v>
       </c>
       <c r="C25">
-        <v>1.036846545898123</v>
+        <v>1.036846545898124</v>
       </c>
       <c r="D25">
         <v>80.86819560152234</v>
@@ -6530,58 +6530,58 @@
         <v>2919.265197424338</v>
       </c>
       <c r="H25">
-        <v>17296.28711217281</v>
+        <v>17295.04149923668</v>
       </c>
       <c r="I25">
-        <v>17403.83733674344</v>
+        <v>17405.82363404104</v>
       </c>
       <c r="J25">
-        <v>20212.73873367272</v>
+        <v>20212.73873367347</v>
       </c>
       <c r="K25">
-        <v>0.7246755237336444</v>
+        <v>0.7246755245762273</v>
       </c>
       <c r="L25">
-        <v>99.07043363606614</v>
+        <v>99.07043363312238</v>
       </c>
       <c r="M25">
-        <v>1.781722572771643</v>
+        <v>1.781722575978235</v>
       </c>
       <c r="N25">
-        <v>169652.8717686865</v>
+        <v>169652.8717657407</v>
       </c>
       <c r="O25">
-        <v>2443.962260706362</v>
+        <v>2443.96226095445</v>
       </c>
       <c r="P25">
-        <v>20167.41766692837</v>
+        <v>20166.69330570621</v>
       </c>
       <c r="Q25">
-        <v>20298.65822382931</v>
+        <v>20299.0748920779</v>
       </c>
       <c r="R25">
-        <v>20711.97059663857</v>
+        <v>20710.73690475406</v>
       </c>
       <c r="S25">
-        <v>2.67903752395115</v>
+        <v>1.874817149047385</v>
       </c>
       <c r="T25">
-        <v>106.7393286874652</v>
+        <v>104.6543687151868</v>
       </c>
       <c r="U25">
-        <v>5.433408689066141</v>
+        <v>4.233164967731971</v>
       </c>
       <c r="V25">
-        <v>30910.33143638189</v>
+        <v>30286.78627958415</v>
       </c>
       <c r="W25">
-        <v>1413.503093822164</v>
+        <v>1018.336973836192</v>
       </c>
       <c r="X25">
-        <v>20618.22777776548</v>
+        <v>20616.0741874581</v>
       </c>
       <c r="Y25">
-        <v>20759.80594130645</v>
+        <v>20762.02376594264</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -6592,7 +6592,7 @@
         <v>16667.78954694893</v>
       </c>
       <c r="C26">
-        <v>0.3312650397573413</v>
+        <v>0.3312650397573412</v>
       </c>
       <c r="D26">
         <v>60.5220058753965</v>
@@ -6607,16 +6607,16 @@
         <v>1213.373763908931</v>
       </c>
       <c r="H26">
-        <v>16611.91239407022</v>
+        <v>16610.73811410197</v>
       </c>
       <c r="I26">
-        <v>16693.75437854373</v>
+        <v>16694.8867762016</v>
       </c>
       <c r="J26">
         <v>19504.43682598798</v>
       </c>
       <c r="K26">
-        <v>0.7269640968000269</v>
+        <v>0.7269640968000268</v>
       </c>
       <c r="L26">
         <v>84.2113360878072</v>
@@ -6628,37 +6628,37 @@
         <v>163837.0684874663</v>
       </c>
       <c r="O26">
-        <v>2583.953388062254</v>
+        <v>2583.953388062253</v>
       </c>
       <c r="P26">
-        <v>19462.63248640243</v>
+        <v>19461.92937904275</v>
       </c>
       <c r="Q26">
-        <v>19580.45504117473</v>
+        <v>19580.89400627089</v>
       </c>
       <c r="R26">
-        <v>20010.59364567918</v>
+        <v>20010.59364569431</v>
       </c>
       <c r="S26">
-        <v>1.496732830839076</v>
+        <v>1.496732830336255</v>
       </c>
       <c r="T26">
-        <v>81.17171770115699</v>
+        <v>81.17171776097567</v>
       </c>
       <c r="U26">
-        <v>3.583523051559822</v>
+        <v>3.583523036356936</v>
       </c>
       <c r="V26">
-        <v>28939.4225688356</v>
+        <v>28939.42258162081</v>
       </c>
       <c r="W26">
-        <v>1026.150303952114</v>
+        <v>1026.150314188866</v>
       </c>
       <c r="X26">
-        <v>19936.37287958366</v>
+        <v>19933.29854130319</v>
       </c>
       <c r="Y26">
-        <v>20050.29147819466</v>
+        <v>20051.54743162771</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -6669,7 +6669,7 @@
         <v>17707.0926628262</v>
       </c>
       <c r="C27">
-        <v>0.9839750146819881</v>
+        <v>0.9839750146819884</v>
       </c>
       <c r="D27">
         <v>46.89797297491297</v>
@@ -6681,13 +6681,13 @@
         <v>114900.0379602689</v>
       </c>
       <c r="G27">
-        <v>4664.495735786933</v>
+        <v>4664.495735786935</v>
       </c>
       <c r="H27">
-        <v>17666.05194193889</v>
+        <v>17665.88619368221</v>
       </c>
       <c r="I27">
-        <v>17727.02542934458</v>
+        <v>17727.21279675832</v>
       </c>
       <c r="J27">
         <v>20499.218535698</v>
@@ -6699,7 +6699,7 @@
         <v>66.9891085340837</v>
       </c>
       <c r="M27">
-        <v>1.24866578123056</v>
+        <v>1.248665781230559</v>
       </c>
       <c r="N27">
         <v>154312.2361300779</v>
@@ -6708,34 +6708,34 @@
         <v>2459.858814735761</v>
       </c>
       <c r="P27">
-        <v>20463.22250653994</v>
+        <v>20462.92884013968</v>
       </c>
       <c r="Q27">
-        <v>20560.84439716447</v>
+        <v>20560.59909992069</v>
       </c>
       <c r="R27">
         <v>20984.89091012177</v>
       </c>
       <c r="S27">
-        <v>2.13055592512782</v>
+        <v>2.130555925127821</v>
       </c>
       <c r="T27">
         <v>66.72153017629691</v>
       </c>
       <c r="U27">
-        <v>4.901041168139633</v>
+        <v>4.901041168139636</v>
       </c>
       <c r="V27">
         <v>26464.2050329114</v>
       </c>
       <c r="W27">
-        <v>1624.34814026896</v>
+        <v>1624.348140268961</v>
       </c>
       <c r="X27">
-        <v>20923.04908323437</v>
+        <v>20920.90768700996</v>
       </c>
       <c r="Y27">
-        <v>21014.83744016196</v>
+        <v>21016.45747037664</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6743,76 +6743,76 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16969.08832761164</v>
+        <v>16969.08832760482</v>
       </c>
       <c r="C28">
-        <v>1.11189208861999</v>
+        <v>1.111892109204353</v>
       </c>
       <c r="D28">
-        <v>43.0551925211677</v>
+        <v>43.0551925017779</v>
       </c>
       <c r="E28">
-        <v>2.592541072316912</v>
+        <v>2.59254111466478</v>
       </c>
       <c r="F28">
-        <v>112413.6037719809</v>
+        <v>112413.6037289139</v>
       </c>
       <c r="G28">
-        <v>6282.072600522248</v>
+        <v>6282.072780311499</v>
       </c>
       <c r="H28">
-        <v>16931.37810051129</v>
+        <v>16931.14951926296</v>
       </c>
       <c r="I28">
-        <v>16987.02594939273</v>
+        <v>16987.27115656251</v>
       </c>
       <c r="J28">
         <v>19397.98550450382</v>
       </c>
       <c r="K28">
-        <v>0.4751486580719586</v>
+        <v>0.4751486580719574</v>
       </c>
       <c r="L28">
         <v>62.97136550888766</v>
       </c>
       <c r="M28">
-        <v>1.118158447349441</v>
+        <v>1.118158447349438</v>
       </c>
       <c r="N28">
         <v>160309.9158526026</v>
       </c>
       <c r="O28">
-        <v>2304.778594175747</v>
+        <v>2304.778594175742</v>
       </c>
       <c r="P28">
-        <v>19367.00724474876</v>
+        <v>19366.85117266564</v>
       </c>
       <c r="Q28">
-        <v>19455.3482484549</v>
+        <v>19453.95902943624</v>
       </c>
       <c r="R28">
-        <v>19831.40526357584</v>
+        <v>19832.20098809702</v>
       </c>
       <c r="S28">
-        <v>1.947370707292473</v>
+        <v>1.187298895929239</v>
       </c>
       <c r="T28">
-        <v>60.80819638857776</v>
+        <v>62.18133642482499</v>
       </c>
       <c r="U28">
-        <v>3.902161316702063</v>
+        <v>2.785574569963854</v>
       </c>
       <c r="V28">
-        <v>26232.88727572166</v>
+        <v>26866.26444941041</v>
       </c>
       <c r="W28">
-        <v>1565.254834561586</v>
+        <v>975.2018857043158</v>
       </c>
       <c r="X28">
-        <v>19777.60513568117</v>
+        <v>19773.85507114944</v>
       </c>
       <c r="Y28">
-        <v>19858.271779265</v>
+        <v>19861.58914436151</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6820,76 +6820,76 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16911.47451530786</v>
+        <v>16911.47451530848</v>
       </c>
       <c r="C29">
-        <v>0.121946906919637</v>
+        <v>0.1219469074772741</v>
       </c>
       <c r="D29">
-        <v>49.34974323092392</v>
+        <v>49.34974323256584</v>
       </c>
       <c r="E29">
-        <v>0.2653093903543903</v>
+        <v>0.265309392784831</v>
       </c>
       <c r="F29">
-        <v>107533.0722136536</v>
+        <v>107533.0722166775</v>
       </c>
       <c r="G29">
-        <v>495.1530853832339</v>
+        <v>495.1530874859004</v>
       </c>
       <c r="H29">
-        <v>16869.25176739614</v>
+        <v>16868.7166080368</v>
       </c>
       <c r="I29">
-        <v>16931.10638180248</v>
+        <v>16931.66204416102</v>
       </c>
       <c r="J29">
-        <v>19458.57985616256</v>
+        <v>19458.57985616448</v>
       </c>
       <c r="K29">
-        <v>0.7711873638231013</v>
+        <v>0.7711873641922354</v>
       </c>
       <c r="L29">
-        <v>68.55536447740127</v>
+        <v>68.55536447067468</v>
       </c>
       <c r="M29">
-        <v>1.624626808860644</v>
+        <v>1.624626802277057</v>
       </c>
       <c r="N29">
-        <v>158113.4857809988</v>
+        <v>158113.485775719</v>
       </c>
       <c r="O29">
-        <v>3218.710440412532</v>
+        <v>3218.710434027686</v>
       </c>
       <c r="P29">
-        <v>19424.42555418397</v>
+        <v>19424.42555418208</v>
       </c>
       <c r="Q29">
-        <v>19520.63163848106</v>
+        <v>19520.63163848425</v>
       </c>
       <c r="R29">
         <v>19915.75412100207</v>
       </c>
       <c r="S29">
-        <v>0.9869764678440829</v>
+        <v>0.986976467844083</v>
       </c>
       <c r="T29">
         <v>68.35556559573614</v>
       </c>
       <c r="U29">
-        <v>2.141923075684458</v>
+        <v>2.141923075684459</v>
       </c>
       <c r="V29">
         <v>28249.28256460178</v>
       </c>
       <c r="W29">
-        <v>769.9954854376936</v>
+        <v>769.9954854376937</v>
       </c>
       <c r="X29">
-        <v>19855.23415824284</v>
+        <v>19853.609018984</v>
       </c>
       <c r="Y29">
-        <v>19944.25831641959</v>
+        <v>19945.72709587504</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -6906,7 +6906,7 @@
         <v>47.80605474108847</v>
       </c>
       <c r="E30">
-        <v>0.9041104390976344</v>
+        <v>0.904110439097634</v>
       </c>
       <c r="F30">
         <v>101826.4178214812</v>
@@ -6915,16 +6915,16 @@
         <v>1627.343837432478</v>
       </c>
       <c r="H30">
-        <v>16512.09137090921</v>
+        <v>16511.73707315851</v>
       </c>
       <c r="I30">
-        <v>16575.19514498501</v>
+        <v>16575.60380392061</v>
       </c>
       <c r="J30">
         <v>19219.37542885795</v>
       </c>
       <c r="K30">
-        <v>0.5887908972835395</v>
+        <v>0.5887908972835394</v>
       </c>
       <c r="L30">
         <v>70.48159485302125</v>
@@ -6936,37 +6936,37 @@
         <v>158683.9891908276</v>
       </c>
       <c r="O30">
-        <v>2464.964530177938</v>
+        <v>2464.964530177937</v>
       </c>
       <c r="P30">
-        <v>19184.17254955526</v>
+        <v>19183.97862748416</v>
       </c>
       <c r="Q30">
-        <v>19283.11296578652</v>
+        <v>19282.06904635914</v>
       </c>
       <c r="R30">
-        <v>19690.8423086482</v>
+        <v>19690.84230866094</v>
       </c>
       <c r="S30">
-        <v>1.275602801024357</v>
+        <v>1.275602804529032</v>
       </c>
       <c r="T30">
-        <v>67.07395392476339</v>
+        <v>67.07395396465327</v>
       </c>
       <c r="U30">
-        <v>2.831326615983214</v>
+        <v>2.831326617123291</v>
       </c>
       <c r="V30">
-        <v>26035.82135797014</v>
+        <v>26035.82136846901</v>
       </c>
       <c r="W30">
-        <v>915.1754932906699</v>
+        <v>915.1754943561847</v>
       </c>
       <c r="X30">
-        <v>19629.12488370259</v>
+        <v>19626.88701263894</v>
       </c>
       <c r="Y30">
-        <v>19723.32271830651</v>
+        <v>19725.42506470268</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -6983,7 +6983,7 @@
         <v>48.8463139870698</v>
       </c>
       <c r="E31">
-        <v>2.069902697003939</v>
+        <v>2.06990269700394</v>
       </c>
       <c r="F31">
         <v>104677.6462106277</v>
@@ -6992,58 +6992,58 @@
         <v>3484.920150109539</v>
       </c>
       <c r="H31">
-        <v>16274.6329259992</v>
+        <v>16274.04996764647</v>
       </c>
       <c r="I31">
-        <v>16340.43805201468</v>
+        <v>16341.25306707828</v>
       </c>
       <c r="J31">
-        <v>18828.72770266206</v>
+        <v>18828.72770265984</v>
       </c>
       <c r="K31">
-        <v>0.7402075002148282</v>
+        <v>0.7402075044519774</v>
       </c>
       <c r="L31">
-        <v>70.93779868814777</v>
+        <v>70.93779869419103</v>
       </c>
       <c r="M31">
-        <v>1.598346001123556</v>
+        <v>1.598345999191894</v>
       </c>
       <c r="N31">
-        <v>166083.6534235236</v>
+        <v>166083.6534362282</v>
       </c>
       <c r="O31">
-        <v>3185.297501629483</v>
+        <v>3185.297550480517</v>
       </c>
       <c r="P31">
-        <v>18793.58047553956</v>
+        <v>18793.31799664178</v>
       </c>
       <c r="Q31">
-        <v>18892.53621732888</v>
+        <v>18892.00024169417</v>
       </c>
       <c r="R31">
         <v>19282.88583658728</v>
       </c>
       <c r="S31">
-        <v>1.215492341321373</v>
+        <v>1.215492341321372</v>
       </c>
       <c r="T31">
         <v>73.50694644370186</v>
       </c>
       <c r="U31">
-        <v>2.599866977718536</v>
+        <v>2.599866977718535</v>
       </c>
       <c r="V31">
         <v>29448.71797016338</v>
       </c>
       <c r="W31">
-        <v>902.0580538116676</v>
+        <v>902.0580538116675</v>
       </c>
       <c r="X31">
-        <v>19218.24281322904</v>
+        <v>19216.2647048714</v>
       </c>
       <c r="Y31">
-        <v>19314.60456848556</v>
+        <v>19316.54868336464</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -7054,7 +7054,7 @@
         <v>17140.25175059177</v>
       </c>
       <c r="C32">
-        <v>0.4917104484743016</v>
+        <v>0.4917104484743015</v>
       </c>
       <c r="D32">
         <v>46.43001249542208</v>
@@ -7066,13 +7066,13 @@
         <v>96357.12992291174</v>
       </c>
       <c r="G32">
-        <v>1898.399285242271</v>
+        <v>1898.39928524227</v>
       </c>
       <c r="H32">
-        <v>17099.22163517824</v>
+        <v>17098.8694696721</v>
       </c>
       <c r="I32">
-        <v>17160.94486979387</v>
+        <v>17161.26847508291</v>
       </c>
       <c r="J32">
         <v>19701.80698244318</v>
@@ -7084,7 +7084,7 @@
         <v>67.22602401610953</v>
       </c>
       <c r="M32">
-        <v>1.394921469774969</v>
+        <v>1.39492146977497</v>
       </c>
       <c r="N32">
         <v>154826.2553091474</v>
@@ -7093,34 +7093,34 @@
         <v>2648.689676680609</v>
       </c>
       <c r="P32">
-        <v>19669.28586274022</v>
+        <v>19668.84447640847</v>
       </c>
       <c r="Q32">
-        <v>19761.37354255729</v>
+        <v>19760.59910958125</v>
       </c>
       <c r="R32">
         <v>20157.36626001331</v>
       </c>
       <c r="S32">
-        <v>1.79782940435247</v>
+        <v>1.797829404352471</v>
       </c>
       <c r="T32">
         <v>68.64226621352113</v>
       </c>
       <c r="U32">
-        <v>3.826125472131797</v>
+        <v>3.826125472131801</v>
       </c>
       <c r="V32">
         <v>29567.60595894852</v>
       </c>
       <c r="W32">
-        <v>1465.622902308703</v>
+        <v>1465.622902308704</v>
       </c>
       <c r="X32">
-        <v>20099.67257289817</v>
+        <v>20096.63881476557</v>
       </c>
       <c r="Y32">
-        <v>20181.5091265555</v>
+        <v>20184.20450826514</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -7128,40 +7128,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16274.49699135983</v>
+        <v>16274.49699135273</v>
       </c>
       <c r="C33">
-        <v>0.6797937907254551</v>
+        <v>0.6797937825276095</v>
       </c>
       <c r="D33">
-        <v>53.70695365228903</v>
+        <v>53.70695363461149</v>
       </c>
       <c r="E33">
-        <v>1.348546184762731</v>
+        <v>1.348546196788434</v>
       </c>
       <c r="F33">
-        <v>104463.5662403164</v>
+        <v>104463.5662144323</v>
       </c>
       <c r="G33">
-        <v>2478.890898753107</v>
+        <v>2478.89087469807</v>
       </c>
       <c r="H33">
-        <v>16226.74356902312</v>
+        <v>16226.53046067939</v>
       </c>
       <c r="I33">
-        <v>16298.98240789235</v>
+        <v>16298.96994913161</v>
       </c>
       <c r="J33">
         <v>19274.77370123982</v>
       </c>
       <c r="K33">
-        <v>0.3710042518716482</v>
+        <v>0.3710042518716483</v>
       </c>
       <c r="L33">
         <v>75.17513006622376</v>
       </c>
       <c r="M33">
-        <v>0.8512764178046126</v>
+        <v>0.8512764178046129</v>
       </c>
       <c r="N33">
         <v>161563.8280772857</v>
@@ -7170,34 +7170,34 @@
         <v>1499.828379286899</v>
       </c>
       <c r="P33">
-        <v>19237.60360575304</v>
+        <v>19237.08233766652</v>
       </c>
       <c r="Q33">
-        <v>19342.40909335103</v>
+        <v>19342.15293757007</v>
       </c>
       <c r="R33">
         <v>19801.61213574947</v>
       </c>
       <c r="S33">
-        <v>0.570988514956534</v>
+        <v>0.5709885149565344</v>
       </c>
       <c r="T33">
         <v>72.5133314064184</v>
       </c>
       <c r="U33">
-        <v>1.246090083575405</v>
+        <v>1.246090083575406</v>
       </c>
       <c r="V33">
         <v>27006.15308878259</v>
       </c>
       <c r="W33">
-        <v>395.0569247947194</v>
+        <v>395.0569247947196</v>
       </c>
       <c r="X33">
-        <v>19733.63615466058</v>
+        <v>19733.63615466288</v>
       </c>
       <c r="Y33">
-        <v>19838.073356254</v>
+        <v>19838.07335625239</v>
       </c>
     </row>
   </sheetData>
@@ -7340,34 +7340,34 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16838.30836266054</v>
+        <v>16838.54929853852</v>
       </c>
       <c r="C4">
-        <v>0.5551065641593079</v>
+        <v>0.9667662514491462</v>
       </c>
       <c r="D4">
-        <v>49.48227463991086</v>
+        <v>51.97138862872246</v>
       </c>
       <c r="E4">
-        <v>1.42581375369686</v>
+        <v>2.040083168969761</v>
       </c>
       <c r="F4">
-        <v>133014.0845753959</v>
+        <v>137055.3781518062</v>
       </c>
       <c r="G4">
-        <v>2993.714525887099</v>
+        <v>4609.963710081407</v>
       </c>
       <c r="H4">
-        <v>16791.33523853769</v>
+        <v>16789.49636935441</v>
       </c>
       <c r="I4">
-        <v>16860.56165326116</v>
+        <v>16862.1853801461</v>
       </c>
       <c r="J4">
         <v>19210.84547493186</v>
       </c>
       <c r="K4">
-        <v>0.4582903184018669</v>
+        <v>0.4582903184018668</v>
       </c>
       <c r="L4">
         <v>68.5636824615826</v>
@@ -7382,10 +7382,10 @@
         <v>2122.826530341905</v>
       </c>
       <c r="P4">
-        <v>19176.87741583748</v>
+        <v>19176.39090199965</v>
       </c>
       <c r="Q4">
-        <v>19272.43152088694</v>
+        <v>19272.69306619465</v>
       </c>
       <c r="R4">
         <v>19637.0830215115</v>
@@ -7397,7 +7397,7 @@
         <v>82.23187518019138</v>
       </c>
       <c r="U4">
-        <v>3.987837621348283</v>
+        <v>3.987837621348284</v>
       </c>
       <c r="V4">
         <v>37448.27541346715</v>
@@ -7406,10 +7406,10 @@
         <v>1709.509788099677</v>
       </c>
       <c r="X4">
-        <v>19564.93416877066</v>
+        <v>19562.60086076506</v>
       </c>
       <c r="Y4">
-        <v>19667.43511308141</v>
+        <v>19668.590212053</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -7417,76 +7417,76 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>15908.13546546853</v>
+        <v>15908.29362559688</v>
       </c>
       <c r="C5">
-        <v>0.1655116317218664</v>
+        <v>0.5172532330980231</v>
       </c>
       <c r="D5">
-        <v>53.1042919192647</v>
+        <v>54.75617597815327</v>
       </c>
       <c r="E5">
-        <v>0.4449571110870506</v>
+        <v>1.11009414148337</v>
       </c>
       <c r="F5">
-        <v>115785.0549455221</v>
+        <v>118123.9742113265</v>
       </c>
       <c r="G5">
-        <v>757.6185995241329</v>
+        <v>2044.153238281465</v>
       </c>
       <c r="H5">
-        <v>15860.04151799957</v>
+        <v>15859.26829690788</v>
       </c>
       <c r="I5">
-        <v>15931.44092286928</v>
+        <v>15932.19907700676</v>
       </c>
       <c r="J5">
-        <v>18562.45828799999</v>
+        <v>18562.45828799995</v>
       </c>
       <c r="K5">
-        <v>0.7945610620784217</v>
+        <v>0.7945610595524325</v>
       </c>
       <c r="L5">
-        <v>72.5124406629059</v>
+        <v>72.51244066182738</v>
       </c>
       <c r="M5">
-        <v>1.937213303047885</v>
+        <v>1.937213293906052</v>
       </c>
       <c r="N5">
-        <v>153685.2423083259</v>
+        <v>153685.2423085784</v>
       </c>
       <c r="O5">
-        <v>3277.114875281159</v>
+        <v>3277.114884326831</v>
       </c>
       <c r="P5">
-        <v>18526.3591906369</v>
+        <v>18525.7929681651</v>
       </c>
       <c r="Q5">
-        <v>18627.51504588736</v>
+        <v>18627.61787093302</v>
       </c>
       <c r="R5">
-        <v>19034.90570795998</v>
+        <v>19035.38743239219</v>
       </c>
       <c r="S5">
-        <v>0.8426224249435817</v>
+        <v>1.252155897051415</v>
       </c>
       <c r="T5">
-        <v>69.28378526886689</v>
+        <v>72.10474867363926</v>
       </c>
       <c r="U5">
-        <v>1.935958885448954</v>
+        <v>2.492771819374923</v>
       </c>
       <c r="V5">
-        <v>27460.73808151261</v>
+        <v>28217.16246974992</v>
       </c>
       <c r="W5">
-        <v>648.5554074019376</v>
+        <v>886.8260591249509</v>
       </c>
       <c r="X5">
-        <v>18971.25767536632</v>
+        <v>18969.65283673074</v>
       </c>
       <c r="Y5">
-        <v>19067.11522926932</v>
+        <v>19068.373038554</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -7494,76 +7494,76 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16246.60058850628</v>
+        <v>16248.20366143781</v>
       </c>
       <c r="C6">
-        <v>1.107234057546295</v>
+        <v>1.046828800594079</v>
       </c>
       <c r="D6">
-        <v>73.53674868485119</v>
+        <v>76.20709515716156</v>
       </c>
       <c r="E6">
-        <v>2.782211085092992</v>
+        <v>2.384804831150117</v>
       </c>
       <c r="F6">
-        <v>117206.5854928222</v>
+        <v>121011.3091827716</v>
       </c>
       <c r="G6">
-        <v>3485.786118722773</v>
+        <v>3131.949856786808</v>
       </c>
       <c r="H6">
-        <v>16180.85720604487</v>
+        <v>16179.60303503045</v>
       </c>
       <c r="I6">
-        <v>16287.56185734556</v>
+        <v>16290.12828715142</v>
       </c>
       <c r="J6">
-        <v>18990.7574047607</v>
+        <v>18990.75740475827</v>
       </c>
       <c r="K6">
-        <v>0.8899303653101441</v>
+        <v>0.8899303605460211</v>
       </c>
       <c r="L6">
-        <v>102.0819299202603</v>
+        <v>102.0819299297143</v>
       </c>
       <c r="M6">
-        <v>2.155031752723778</v>
+        <v>2.155031765888769</v>
       </c>
       <c r="N6">
-        <v>175517.1779605172</v>
+        <v>175517.1779700986</v>
       </c>
       <c r="O6">
-        <v>3022.801148454822</v>
+        <v>3022.801140165956</v>
       </c>
       <c r="P6">
-        <v>18946.94233595953</v>
+        <v>18946.97936958507</v>
       </c>
       <c r="Q6">
-        <v>19079.74248986612</v>
+        <v>19079.24599378951</v>
       </c>
       <c r="R6">
         <v>19473.80928933304</v>
       </c>
       <c r="S6">
-        <v>1.250551309076965</v>
+        <v>1.250551309076966</v>
       </c>
       <c r="T6">
         <v>91.48621872137454</v>
       </c>
       <c r="U6">
-        <v>2.827517780683717</v>
+        <v>2.827517780683719</v>
       </c>
       <c r="V6">
         <v>27693.05390539912</v>
       </c>
       <c r="W6">
-        <v>705.6949774584295</v>
+        <v>705.6949774584294</v>
       </c>
       <c r="X6">
-        <v>19386.76301126355</v>
+        <v>19386.76301126354</v>
       </c>
       <c r="Y6">
-        <v>19523.684552942</v>
+        <v>19523.68455294199</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -7586,13 +7586,13 @@
         <v>132346.8837120245</v>
       </c>
       <c r="G7">
-        <v>4901.126716285724</v>
+        <v>4901.126716285725</v>
       </c>
       <c r="H7">
-        <v>16986.98633428864</v>
+        <v>16985.81074721775</v>
       </c>
       <c r="I7">
-        <v>17062.24251072089</v>
+        <v>17063.0848255465</v>
       </c>
       <c r="J7">
         <v>19761.18503952661</v>
@@ -7604,7 +7604,7 @@
         <v>72.33999936384522</v>
       </c>
       <c r="M7">
-        <v>0.9763894824320571</v>
+        <v>0.9763894824320569</v>
       </c>
       <c r="N7">
         <v>163122.1774026983</v>
@@ -7613,10 +7613,10 @@
         <v>1791.820610252277</v>
       </c>
       <c r="P7">
-        <v>19724.88498655845</v>
+        <v>19723.74298488038</v>
       </c>
       <c r="Q7">
-        <v>19825.77768008894</v>
+        <v>19826.91732468594</v>
       </c>
       <c r="R7">
         <v>20242.59881494971</v>
@@ -7637,10 +7637,10 @@
         <v>1080.989170236416</v>
       </c>
       <c r="X7">
-        <v>20175.01463887429</v>
+        <v>20172.57182698229</v>
       </c>
       <c r="Y7">
-        <v>20274.72633493397</v>
+        <v>20276.75629151799</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -7648,28 +7648,28 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>16704.20379638112</v>
+        <v>16704.20379637901</v>
       </c>
       <c r="C8">
-        <v>0.3370171845100391</v>
+        <v>0.3370171874031707</v>
       </c>
       <c r="D8">
-        <v>56.39414903365205</v>
+        <v>56.39414902773283</v>
       </c>
       <c r="E8">
-        <v>0.6993385388236656</v>
+        <v>0.6993385437543718</v>
       </c>
       <c r="F8">
-        <v>122036.0574148285</v>
+        <v>122036.0574060642</v>
       </c>
       <c r="G8">
-        <v>1414.938244968349</v>
+        <v>1414.938282335137</v>
       </c>
       <c r="H8">
-        <v>16655.06203500642</v>
+        <v>16652.88449068183</v>
       </c>
       <c r="I8">
-        <v>16727.22629908411</v>
+        <v>16729.8280980489</v>
       </c>
       <c r="J8">
         <v>18982.51472899702</v>
@@ -7690,10 +7690,10 @@
         <v>2191.193582792656</v>
       </c>
       <c r="P8">
-        <v>18948.57554262396</v>
+        <v>18948.17662530087</v>
       </c>
       <c r="Q8">
-        <v>19045.56654672686</v>
+        <v>19045.48115632767</v>
       </c>
       <c r="R8">
         <v>19394.45586858739</v>
@@ -7705,7 +7705,7 @@
         <v>72.82834334867302</v>
       </c>
       <c r="U8">
-        <v>3.512480231111551</v>
+        <v>3.512480231111552</v>
       </c>
       <c r="V8">
         <v>28494.0279432614</v>
@@ -7714,10 +7714,10 @@
         <v>1223.655151256419</v>
       </c>
       <c r="X8">
-        <v>19329.8901984647</v>
+        <v>19327.3367209896</v>
       </c>
       <c r="Y8">
-        <v>19426.33882633052</v>
+        <v>19428.92220630278</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7725,52 +7725,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17163.16603396507</v>
+        <v>17163.1660339636</v>
       </c>
       <c r="C9">
-        <v>0.4878243832414624</v>
+        <v>0.4878243859792444</v>
       </c>
       <c r="D9">
-        <v>62.51380122225675</v>
+        <v>62.51380121864896</v>
       </c>
       <c r="E9">
-        <v>1.121572436825225</v>
+        <v>1.121572431634343</v>
       </c>
       <c r="F9">
-        <v>109574.7231681846</v>
+        <v>109574.7231607903</v>
       </c>
       <c r="G9">
-        <v>1614.148529274116</v>
+        <v>1614.148537024947</v>
       </c>
       <c r="H9">
-        <v>17107.84433076283</v>
+        <v>17106.74206230414</v>
       </c>
       <c r="I9">
-        <v>17191.93829066556</v>
+        <v>17193.25061361611</v>
       </c>
       <c r="J9">
-        <v>19851.77199374646</v>
+        <v>19851.77199375018</v>
       </c>
       <c r="K9">
-        <v>0.6264988549933804</v>
+        <v>0.6264988525243419</v>
       </c>
       <c r="L9">
-        <v>80.53665889671829</v>
+        <v>80.53665888684455</v>
       </c>
       <c r="M9">
-        <v>1.3828269667997</v>
+        <v>1.382826981252436</v>
       </c>
       <c r="N9">
-        <v>161671.5119270912</v>
+        <v>161671.511908763</v>
       </c>
       <c r="O9">
-        <v>2353.298834687147</v>
+        <v>2353.298833552639</v>
       </c>
       <c r="P9">
-        <v>19814.21367529939</v>
+        <v>19813.59574425123</v>
       </c>
       <c r="Q9">
-        <v>19922.941105025</v>
+        <v>19922.67477907071</v>
       </c>
       <c r="R9">
         <v>20318.41796985676</v>
@@ -7791,10 +7791,10 @@
         <v>317.5946606595277</v>
       </c>
       <c r="X9">
-        <v>20249.8889959977</v>
+        <v>20248.20613855797</v>
       </c>
       <c r="Y9">
-        <v>20354.2292769531</v>
+        <v>20356.12059936431</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7805,7 +7805,7 @@
         <v>16701.42461356575</v>
       </c>
       <c r="C10">
-        <v>1.479872583426689</v>
+        <v>1.479872583426688</v>
       </c>
       <c r="D10">
         <v>58.8671619343018</v>
@@ -7817,25 +7817,25 @@
         <v>133338.0197138686</v>
       </c>
       <c r="G10">
-        <v>6168.837435735897</v>
+        <v>6168.837435735896</v>
       </c>
       <c r="H10">
-        <v>16649.00140923064</v>
+        <v>16647.17746474161</v>
       </c>
       <c r="I10">
-        <v>16724.94866453218</v>
+        <v>16725.56365401183</v>
       </c>
       <c r="J10">
         <v>19593.86430441643</v>
       </c>
       <c r="K10">
-        <v>0.3913246732372148</v>
+        <v>0.3913246732372149</v>
       </c>
       <c r="L10">
         <v>77.58788369805139</v>
       </c>
       <c r="M10">
-        <v>0.8889350755196985</v>
+        <v>0.8889350755196983</v>
       </c>
       <c r="N10">
         <v>173875.2089824901</v>
@@ -7844,34 +7844,34 @@
         <v>1645.602708199759</v>
       </c>
       <c r="P10">
-        <v>19555.1414823101</v>
+        <v>19554.51542289379</v>
       </c>
       <c r="Q10">
-        <v>19664.0889567243</v>
+        <v>19663.65278448532</v>
       </c>
       <c r="R10">
-        <v>20103.32985081135</v>
+        <v>20103.32985080779</v>
       </c>
       <c r="S10">
-        <v>1.57240622693988</v>
+        <v>1.572406230479012</v>
       </c>
       <c r="T10">
-        <v>81.6860013488708</v>
+        <v>81.68600133710052</v>
       </c>
       <c r="U10">
-        <v>3.600576641512888</v>
+        <v>3.600576667901736</v>
       </c>
       <c r="V10">
-        <v>32945.475098992</v>
+        <v>32945.4750948498</v>
       </c>
       <c r="W10">
-        <v>1191.581926109958</v>
+        <v>1191.581935341599</v>
       </c>
       <c r="X10">
-        <v>20026.21889053047</v>
+        <v>20022.84374677633</v>
       </c>
       <c r="Y10">
-        <v>20143.54631371269</v>
+        <v>20145.73884368914</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -7879,34 +7879,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17171.52890923537</v>
+        <v>17037.22331561903</v>
       </c>
       <c r="C11">
-        <v>3.651197569468632</v>
+        <v>0.6546931898610664</v>
       </c>
       <c r="D11">
-        <v>81.96982966755448</v>
+        <v>58.31162478219185</v>
       </c>
       <c r="E11">
-        <v>9.251553188168906</v>
+        <v>1.499610954143319</v>
       </c>
       <c r="F11">
-        <v>37196.1919050911</v>
+        <v>105288.2546216124</v>
       </c>
       <c r="G11">
-        <v>3453.024301463422</v>
+        <v>2255.74213042018</v>
       </c>
       <c r="H11">
-        <v>17103.56324115233</v>
+        <v>16982.37601430713</v>
       </c>
       <c r="I11">
-        <v>17202.955135806</v>
+        <v>17068.98818122143</v>
       </c>
       <c r="J11">
         <v>19909.13930827697</v>
       </c>
       <c r="K11">
-        <v>0.5232888390877789</v>
+        <v>0.5232888390877788</v>
       </c>
       <c r="L11">
         <v>71.84647071981072</v>
@@ -7921,34 +7921,34 @@
         <v>1807.929821741805</v>
       </c>
       <c r="P11">
-        <v>19873.3364551563</v>
+        <v>19873.01131919294</v>
       </c>
       <c r="Q11">
-        <v>19974.27501261003</v>
+        <v>19973.82895396133</v>
       </c>
       <c r="R11">
-        <v>20395.00700036188</v>
+        <v>20395.82056362319</v>
       </c>
       <c r="S11">
-        <v>1.907264499232094</v>
+        <v>1.239455872329775</v>
       </c>
       <c r="T11">
-        <v>69.50443582497414</v>
+        <v>71.86836392099528</v>
       </c>
       <c r="U11">
-        <v>4.452149545539863</v>
+        <v>2.779571206540124</v>
       </c>
       <c r="V11">
-        <v>22582.90951719985</v>
+        <v>23214.0671052213</v>
       </c>
       <c r="W11">
-        <v>1216.596315559872</v>
+        <v>743.6049984361177</v>
       </c>
       <c r="X11">
-        <v>20331.20963078807</v>
+        <v>20329.36392956605</v>
       </c>
       <c r="Y11">
-        <v>20428.80025677053</v>
+        <v>20430.40349181645</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -7956,28 +7956,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>17549.22665045617</v>
+        <v>17549.22665045856</v>
       </c>
       <c r="C12">
-        <v>0.5110510960378805</v>
+        <v>0.5110511044529504</v>
       </c>
       <c r="D12">
-        <v>51.12594417222527</v>
+        <v>51.12594417704565</v>
       </c>
       <c r="E12">
-        <v>0.9744448112526992</v>
+        <v>0.9744448402854056</v>
       </c>
       <c r="F12">
-        <v>129532.6454528111</v>
+        <v>129532.6454653975</v>
       </c>
       <c r="G12">
-        <v>2553.848155504964</v>
+        <v>2553.848239449273</v>
       </c>
       <c r="H12">
-        <v>17504.84409670198</v>
+        <v>17504.69719532012</v>
       </c>
       <c r="I12">
-        <v>17568.6835381998</v>
+        <v>17568.8223430227</v>
       </c>
       <c r="J12">
         <v>20215.20898742893</v>
@@ -7995,37 +7995,37 @@
         <v>143280.4012322971</v>
       </c>
       <c r="O12">
-        <v>3922.97866939799</v>
+        <v>3922.978669397991</v>
       </c>
       <c r="P12">
-        <v>20182.07932878442</v>
+        <v>20181.65384408056</v>
       </c>
       <c r="Q12">
-        <v>20276.70513812163</v>
+        <v>20275.6979478646</v>
       </c>
       <c r="R12">
         <v>20680.23960081181</v>
       </c>
       <c r="S12">
-        <v>1.761573939441995</v>
+        <v>1.761573939441996</v>
       </c>
       <c r="T12">
         <v>72.57013634565969</v>
       </c>
       <c r="U12">
-        <v>4.125610434789249</v>
+        <v>4.125610434789252</v>
       </c>
       <c r="V12">
         <v>25344.97546762428</v>
       </c>
       <c r="W12">
-        <v>1184.43491688459</v>
+        <v>1184.434916884591</v>
       </c>
       <c r="X12">
-        <v>20616.35127044515</v>
+        <v>20615.3723910062</v>
       </c>
       <c r="Y12">
-        <v>20710.17227915581</v>
+        <v>20710.6691740184</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -8036,13 +8036,13 @@
         <v>17207.59338062581</v>
       </c>
       <c r="C13">
-        <v>0.4914482618367967</v>
+        <v>0.4914482618367966</v>
       </c>
       <c r="D13">
         <v>57.98806494794554</v>
       </c>
       <c r="E13">
-        <v>1.10955369670438</v>
+        <v>1.109553696704381</v>
       </c>
       <c r="F13">
         <v>121806.5810248639</v>
@@ -8051,58 +8051,58 @@
         <v>1959.038350288877</v>
       </c>
       <c r="H13">
-        <v>17157.27725485923</v>
+        <v>17155.92623785374</v>
       </c>
       <c r="I13">
-        <v>17232.45781696082</v>
+        <v>17234.4202969588</v>
       </c>
       <c r="J13">
-        <v>19987.3697023834</v>
+        <v>19986.73206253515</v>
       </c>
       <c r="K13">
-        <v>0.9031044693616632</v>
+        <v>0.6471971995886924</v>
       </c>
       <c r="L13">
-        <v>78.79812098298588</v>
+        <v>80.00458255483638</v>
       </c>
       <c r="M13">
-        <v>1.99522602910165</v>
+        <v>1.602794026208557</v>
       </c>
       <c r="N13">
-        <v>144432.3723058632</v>
+        <v>146604.2042784319</v>
       </c>
       <c r="O13">
-        <v>3170.269565759319</v>
+        <v>2324.960899312019</v>
       </c>
       <c r="P13">
-        <v>19950.07363221707</v>
+        <v>19949.55413788911</v>
       </c>
       <c r="Q13">
-        <v>20057.7004841167</v>
+        <v>20057.36228868728</v>
       </c>
       <c r="R13">
         <v>20467.8618156045</v>
       </c>
       <c r="S13">
-        <v>1.256606264131427</v>
+        <v>1.256606264131428</v>
       </c>
       <c r="T13">
         <v>76.85166143052545</v>
       </c>
       <c r="U13">
-        <v>2.745816345217201</v>
+        <v>2.745816345217202</v>
       </c>
       <c r="V13">
         <v>24620.17757382266</v>
       </c>
       <c r="W13">
-        <v>740.9682328053775</v>
+        <v>740.9682328053777</v>
       </c>
       <c r="X13">
-        <v>20396.3333346205</v>
+        <v>20394.26747724195</v>
       </c>
       <c r="Y13">
-        <v>20505.64558550389</v>
+        <v>20508.79268524408</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8110,34 +8110,34 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>16141.23345504676</v>
+        <v>16141.23345503456</v>
       </c>
       <c r="C14">
-        <v>0.3772689769845946</v>
+        <v>0.3772689817818181</v>
       </c>
       <c r="D14">
-        <v>51.06516642418842</v>
+        <v>51.06516638985337</v>
       </c>
       <c r="E14">
-        <v>0.8442011056353397</v>
+        <v>0.8442011056132969</v>
       </c>
       <c r="F14">
-        <v>126231.1431669976</v>
+        <v>126231.1431006213</v>
       </c>
       <c r="G14">
-        <v>1776.245261429648</v>
+        <v>1776.24529941786</v>
       </c>
       <c r="H14">
-        <v>16096.31314673827</v>
+        <v>16095.64910303311</v>
       </c>
       <c r="I14">
-        <v>16162.80569334204</v>
+        <v>16163.48931350612</v>
       </c>
       <c r="J14">
         <v>18622.19479105404</v>
       </c>
       <c r="K14">
-        <v>0.4869231953902707</v>
+        <v>0.4869231953902706</v>
       </c>
       <c r="L14">
         <v>71.04119711104225</v>
@@ -8152,10 +8152,10 @@
         <v>1944.845923482743</v>
       </c>
       <c r="P14">
-        <v>18588.36508777777</v>
+        <v>18588.1112302744</v>
       </c>
       <c r="Q14">
-        <v>18685.04976224491</v>
+        <v>18684.22247550402</v>
       </c>
       <c r="R14">
         <v>19064.7451173256</v>
@@ -8167,7 +8167,7 @@
         <v>63.9091491639313</v>
       </c>
       <c r="U14">
-        <v>3.871684128115352</v>
+        <v>3.871684128115351</v>
       </c>
       <c r="V14">
         <v>23309.80660972428</v>
@@ -8176,10 +8176,10 @@
         <v>1186.525757790113</v>
       </c>
       <c r="X14">
-        <v>19004.90993857085</v>
+        <v>19003.4087087583</v>
       </c>
       <c r="Y14">
-        <v>19098.0577290562</v>
+        <v>19099.35847022433</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -8205,22 +8205,22 @@
         <v>2648.717607366697</v>
       </c>
       <c r="H15">
-        <v>16823.21833562774</v>
+        <v>16822.80957090053</v>
       </c>
       <c r="I15">
-        <v>16895.29903316616</v>
+        <v>16895.46030776484</v>
       </c>
       <c r="J15">
         <v>19753.64609003859</v>
       </c>
       <c r="K15">
-        <v>0.7413641116137053</v>
+        <v>0.7413641116137052</v>
       </c>
       <c r="L15">
         <v>76.55993173414363</v>
       </c>
       <c r="M15">
-        <v>1.641247600676318</v>
+        <v>1.641247600676319</v>
       </c>
       <c r="N15">
         <v>137776.4396493308</v>
@@ -8229,34 +8229,34 @@
         <v>2468.12946023503</v>
       </c>
       <c r="P15">
-        <v>19716.53893561966</v>
+        <v>19715.97343381029</v>
       </c>
       <c r="Q15">
-        <v>19821.99554166794</v>
+        <v>19821.72657811913</v>
       </c>
       <c r="R15">
-        <v>20258.20427118857</v>
+        <v>20258.20427118933</v>
       </c>
       <c r="S15">
-        <v>0.6038156620890268</v>
+        <v>0.6038156612790863</v>
       </c>
       <c r="T15">
-        <v>68.70155517121776</v>
+        <v>68.70155517331098</v>
       </c>
       <c r="U15">
-        <v>1.412625968099406</v>
+        <v>1.412625965595137</v>
       </c>
       <c r="V15">
-        <v>22245.14524538341</v>
+        <v>22245.1452462117</v>
       </c>
       <c r="W15">
-        <v>371.2622935481844</v>
+        <v>371.2622935994576</v>
       </c>
       <c r="X15">
-        <v>20191.93300923987</v>
+        <v>20190.04944001215</v>
       </c>
       <c r="Y15">
-        <v>20295.17266185006</v>
+        <v>20297.90089954904</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -8264,28 +8264,28 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16101.30102787204</v>
+        <v>16102.8030730386</v>
       </c>
       <c r="C16">
-        <v>0.1790296418327724</v>
+        <v>0.5084377352168877</v>
       </c>
       <c r="D16">
-        <v>41.1593972609983</v>
+        <v>43.71494652274755</v>
       </c>
       <c r="E16">
-        <v>0.3434823678462126</v>
+        <v>1.273097766844795</v>
       </c>
       <c r="F16">
-        <v>116995.2485743108</v>
+        <v>125507.4816723944</v>
       </c>
       <c r="G16">
-        <v>1009.672966617948</v>
+        <v>2937.341893485148</v>
       </c>
       <c r="H16">
-        <v>16064.62535222934</v>
+        <v>16063.92501183549</v>
       </c>
       <c r="I16">
-        <v>16119.69669241124</v>
+        <v>16120.31355085266</v>
       </c>
       <c r="J16">
         <v>18619.28838625676</v>
@@ -8303,37 +8303,37 @@
         <v>157716.8591702517</v>
       </c>
       <c r="O16">
-        <v>2510.954941798173</v>
+        <v>2510.954941798174</v>
       </c>
       <c r="P16">
-        <v>18587.17809474259</v>
+        <v>18586.92660030345</v>
       </c>
       <c r="Q16">
-        <v>18679.2339865737</v>
+        <v>18677.60946980133</v>
       </c>
       <c r="R16">
-        <v>19076.88732295284</v>
+        <v>19077.66199493222</v>
       </c>
       <c r="S16">
-        <v>1.816797662357043</v>
+        <v>2.865421503163629</v>
       </c>
       <c r="T16">
-        <v>59.06390166133674</v>
+        <v>63.98107631364925</v>
       </c>
       <c r="U16">
-        <v>4.145659547467008</v>
+        <v>5.782892486142629</v>
       </c>
       <c r="V16">
-        <v>26392.72085924862</v>
+        <v>27853.66261932082</v>
       </c>
       <c r="W16">
-        <v>1551.767811818662</v>
+        <v>2258.018975364118</v>
       </c>
       <c r="X16">
-        <v>19021.4955033779</v>
+        <v>19019.06481543127</v>
       </c>
       <c r="Y16">
-        <v>19103.38443727938</v>
+        <v>19105.10085690936</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -8341,34 +8341,34 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16950.55303779024</v>
+        <v>16950.55303779092</v>
       </c>
       <c r="C17">
-        <v>0.8614343818196192</v>
+        <v>0.8614343741081391</v>
       </c>
       <c r="D17">
-        <v>52.58557953269413</v>
+        <v>52.5855795364282</v>
       </c>
       <c r="E17">
-        <v>2.073361341405558</v>
+        <v>2.073361359236073</v>
       </c>
       <c r="F17">
-        <v>124455.9279643056</v>
+        <v>124455.927965935</v>
       </c>
       <c r="G17">
-        <v>4056.291188398629</v>
+        <v>4056.291133682509</v>
       </c>
       <c r="H17">
-        <v>16904.36378499337</v>
+        <v>16903.64120011985</v>
       </c>
       <c r="I17">
-        <v>16973.03086105614</v>
+        <v>16973.71615114303</v>
       </c>
       <c r="J17">
         <v>19515.28629084801</v>
       </c>
       <c r="K17">
-        <v>0.8846361281410109</v>
+        <v>0.8846361281410108</v>
       </c>
       <c r="L17">
         <v>70.7957191790191</v>
@@ -8380,13 +8380,13 @@
         <v>167586.5502188115</v>
       </c>
       <c r="O17">
-        <v>4100.117823341655</v>
+        <v>4100.117823341654</v>
       </c>
       <c r="P17">
-        <v>19480.51771036166</v>
+        <v>19480.26077858868</v>
       </c>
       <c r="Q17">
-        <v>19578.65990433168</v>
+        <v>19577.78556859649</v>
       </c>
       <c r="R17">
         <v>19970.01583916399</v>
@@ -8398,7 +8398,7 @@
         <v>73.65743228753561</v>
       </c>
       <c r="U17">
-        <v>3.469989168260428</v>
+        <v>3.469989168260429</v>
       </c>
       <c r="V17">
         <v>29601.52111263266</v>
@@ -8407,10 +8407,10 @@
         <v>1150.223569644509</v>
       </c>
       <c r="X17">
-        <v>19904.79922196182</v>
+        <v>19904.09507453045</v>
       </c>
       <c r="Y17">
-        <v>20002.15142731537</v>
+        <v>20003.41293380813</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -8418,40 +8418,40 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>16714.66288090224</v>
+        <v>16714.66288091224</v>
       </c>
       <c r="C18">
-        <v>0.7219914214247708</v>
+        <v>0.7219914189897014</v>
       </c>
       <c r="D18">
-        <v>53.37241618664829</v>
+        <v>53.37241620793753</v>
       </c>
       <c r="E18">
-        <v>1.417457606315411</v>
+        <v>1.417457589730528</v>
       </c>
       <c r="F18">
-        <v>124796.8965570394</v>
+        <v>124796.896605491</v>
       </c>
       <c r="G18">
-        <v>3148.631153549514</v>
+        <v>3148.631153861475</v>
       </c>
       <c r="H18">
-        <v>16668.04075006866</v>
+        <v>16667.58394877984</v>
       </c>
       <c r="I18">
-        <v>16735.35224835575</v>
+        <v>16735.73192244034</v>
       </c>
       <c r="J18">
         <v>19341.70967803831</v>
       </c>
       <c r="K18">
-        <v>0.4997549432861966</v>
+        <v>0.4997549432861965</v>
       </c>
       <c r="L18">
         <v>70.72787796205337</v>
       </c>
       <c r="M18">
-        <v>1.174304382703416</v>
+        <v>1.174304382703417</v>
       </c>
       <c r="N18">
         <v>160041.4153426221</v>
@@ -8460,34 +8460,34 @@
         <v>2156.400302617028</v>
       </c>
       <c r="P18">
-        <v>19306.47531342443</v>
+        <v>19306.06192542326</v>
       </c>
       <c r="Q18">
-        <v>19404.70697255528</v>
+        <v>19404.36613864941</v>
       </c>
       <c r="R18">
-        <v>19805.93990290817</v>
+        <v>19807.03033435365</v>
       </c>
       <c r="S18">
-        <v>1.01659475151337</v>
+        <v>0.8063913689395626</v>
       </c>
       <c r="T18">
-        <v>66.52663331261039</v>
+        <v>68.58684285178987</v>
       </c>
       <c r="U18">
-        <v>2.205912384955363</v>
+        <v>1.963591770602323</v>
       </c>
       <c r="V18">
-        <v>27461.52076331071</v>
+        <v>28284.84329570236</v>
       </c>
       <c r="W18">
-        <v>787.8669815764457</v>
+        <v>642.3341026017843</v>
       </c>
       <c r="X18">
-        <v>19745.6239464663</v>
+        <v>19743.63412764997</v>
       </c>
       <c r="Y18">
-        <v>19838.68477750424</v>
+        <v>19841.13625020391</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -8495,76 +8495,76 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>16530.56977320768</v>
+        <v>16530.56977320609</v>
       </c>
       <c r="C19">
-        <v>5.587114836223929</v>
+        <v>5.587114841123308</v>
       </c>
       <c r="D19">
-        <v>89.62758968587943</v>
+        <v>89.62758980657318</v>
       </c>
       <c r="E19">
-        <v>11.83817398788603</v>
+        <v>11.83817396522395</v>
       </c>
       <c r="F19">
-        <v>108650.5349703856</v>
+        <v>108650.5352146162</v>
       </c>
       <c r="G19">
-        <v>12747.96629222628</v>
+        <v>12747.96626428871</v>
       </c>
       <c r="H19">
-        <v>16448.95671968574</v>
+        <v>16448.13952675667</v>
       </c>
       <c r="I19">
-        <v>16602.20831151852</v>
+        <v>16608.49243677396</v>
       </c>
       <c r="J19">
-        <v>18764.53378468049</v>
+        <v>18758.15706335143</v>
       </c>
       <c r="K19">
-        <v>6.038381892897702</v>
+        <v>10.786534749097</v>
       </c>
       <c r="L19">
-        <v>130.1421438199235</v>
+        <v>149.1812325445301</v>
       </c>
       <c r="M19">
-        <v>12.13150730930889</v>
+        <v>19.25141810249509</v>
       </c>
       <c r="N19">
-        <v>192856.6050166649</v>
+        <v>218678.0307066132</v>
       </c>
       <c r="O19">
-        <v>18441.7438314006</v>
+        <v>32412.44056676886</v>
       </c>
       <c r="P19">
-        <v>18731.70612681492</v>
+        <v>18730.64314298727</v>
       </c>
       <c r="Q19">
-        <v>18866.66214304413</v>
+        <v>18873.21844414554</v>
       </c>
       <c r="R19">
-        <v>19185.63186325652</v>
+        <v>19185.6318632547</v>
       </c>
       <c r="S19">
-        <v>1.456391550019808</v>
+        <v>1.456391549610097</v>
       </c>
       <c r="T19">
-        <v>93.56110212742213</v>
+        <v>93.56110211840387</v>
       </c>
       <c r="U19">
-        <v>3.41590779870934</v>
+        <v>3.415907799683216</v>
       </c>
       <c r="V19">
-        <v>27277.15174823448</v>
+        <v>27277.1517473776</v>
       </c>
       <c r="W19">
-        <v>816.4907038842215</v>
+        <v>816.4907035901134</v>
       </c>
       <c r="X19">
-        <v>19095.94586240203</v>
+        <v>19092.35732634095</v>
       </c>
       <c r="Y19">
-        <v>19243.03656207464</v>
+        <v>19248.81751123261</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8572,76 +8572,76 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>16238.63467930602</v>
+        <v>16238.63467930344</v>
       </c>
       <c r="C20">
-        <v>0.42924687979472</v>
+        <v>0.4292468784277967</v>
       </c>
       <c r="D20">
-        <v>51.27695996520516</v>
+        <v>51.27695995412621</v>
       </c>
       <c r="E20">
-        <v>1.09804314697994</v>
+        <v>1.098043149771138</v>
       </c>
       <c r="F20">
-        <v>115263.3714774576</v>
+        <v>115263.3714660723</v>
       </c>
       <c r="G20">
-        <v>1948.777007828396</v>
+        <v>1948.776945280374</v>
       </c>
       <c r="H20">
-        <v>16193.50184516807</v>
+        <v>16193.0254911137</v>
       </c>
       <c r="I20">
-        <v>16260.56769047625</v>
+        <v>16261.24575635873</v>
       </c>
       <c r="J20">
-        <v>18717.59599888126</v>
+        <v>18717.50917287655</v>
       </c>
       <c r="K20">
-        <v>0.5631957638499447</v>
+        <v>0.5855544708426228</v>
       </c>
       <c r="L20">
-        <v>68.55739736544865</v>
+        <v>69.34655019001758</v>
       </c>
       <c r="M20">
-        <v>1.156747532270703</v>
+        <v>1.447823142829183</v>
       </c>
       <c r="N20">
-        <v>148457.6130649927</v>
+        <v>149570.9970999218</v>
       </c>
       <c r="O20">
-        <v>2189.635130825644</v>
+        <v>2526.191445636449</v>
       </c>
       <c r="P20">
-        <v>18681.47727661315</v>
+        <v>18681.22014370812</v>
       </c>
       <c r="Q20">
-        <v>18780.01099978974</v>
+        <v>18779.24672570922</v>
       </c>
       <c r="R20">
-        <v>19160.34177976846</v>
+        <v>19160.36564460307</v>
       </c>
       <c r="S20">
-        <v>1.404059963576403</v>
+        <v>1.306416048543907</v>
       </c>
       <c r="T20">
-        <v>65.7282693857711</v>
+        <v>66.26459364045834</v>
       </c>
       <c r="U20">
-        <v>3.64261361102559</v>
+        <v>2.843682731735372</v>
       </c>
       <c r="V20">
-        <v>25766.2614072891</v>
+        <v>25892.02300393884</v>
       </c>
       <c r="W20">
-        <v>1114.988871682017</v>
+        <v>939.6115832416853</v>
       </c>
       <c r="X20">
-        <v>19100.42653577543</v>
+        <v>19097.69459663246</v>
       </c>
       <c r="Y20">
-        <v>19191.02936835487</v>
+        <v>19195.48448719293</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -8649,76 +8649,76 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>16913.80896447864</v>
+        <v>16912.7554786479</v>
       </c>
       <c r="C21">
-        <v>1.035792060465859</v>
+        <v>0.5955453880969854</v>
       </c>
       <c r="D21">
-        <v>60.03320012930321</v>
+        <v>58.32343912464141</v>
       </c>
       <c r="E21">
-        <v>1.885137057968725</v>
+        <v>1.34518491852753</v>
       </c>
       <c r="F21">
-        <v>122949.2662827611</v>
+        <v>119047.6526823671</v>
       </c>
       <c r="G21">
-        <v>3854.964075477337</v>
+        <v>2263.901621598934</v>
       </c>
       <c r="H21">
-        <v>16858.51098207957</v>
+        <v>16856.85391547067</v>
       </c>
       <c r="I21">
-        <v>16939.72710048002</v>
+        <v>16941.13441781744</v>
       </c>
       <c r="J21">
-        <v>19574.32933325853</v>
+        <v>19574.32933326062</v>
       </c>
       <c r="K21">
-        <v>0.5351856299396008</v>
+        <v>0.5351856294279789</v>
       </c>
       <c r="L21">
-        <v>73.72609728043355</v>
+        <v>73.72609727074524</v>
       </c>
       <c r="M21">
-        <v>1.19278608322717</v>
+        <v>1.192786111858851</v>
       </c>
       <c r="N21">
-        <v>134922.7361146478</v>
+        <v>134922.7361130939</v>
       </c>
       <c r="O21">
-        <v>1812.265486825573</v>
+        <v>1812.265482413779</v>
       </c>
       <c r="P21">
-        <v>19537.65465687243</v>
+        <v>19537.09015442653</v>
       </c>
       <c r="Q21">
-        <v>19640.69835533068</v>
+        <v>19640.75164324625</v>
       </c>
       <c r="R21">
-        <v>20047.05322054608</v>
+        <v>20047.53724487741</v>
       </c>
       <c r="S21">
-        <v>2.316787423289062</v>
+        <v>2.390667820573702</v>
       </c>
       <c r="T21">
-        <v>88.57683713679504</v>
+        <v>93.90318392908294</v>
       </c>
       <c r="U21">
-        <v>5.102423497424682</v>
+        <v>5.473785162119201</v>
       </c>
       <c r="V21">
-        <v>33544.5321181181</v>
+        <v>34644.76718725016</v>
       </c>
       <c r="W21">
-        <v>1647.314139443259</v>
+        <v>1650.905780569734</v>
       </c>
       <c r="X21">
-        <v>19963.72946808425</v>
+        <v>19958.42600338413</v>
       </c>
       <c r="Y21">
-        <v>20089.44716904319</v>
+        <v>20093.03798321923</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -8726,34 +8726,34 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>16173.6795760093</v>
+        <v>16172.70361468286</v>
       </c>
       <c r="C22">
-        <v>1.259168022152227</v>
+        <v>0.6860340900243836</v>
       </c>
       <c r="D22">
-        <v>62.09200375265611</v>
+        <v>60.48155071368657</v>
       </c>
       <c r="E22">
-        <v>2.345950054047518</v>
+        <v>1.583304815263896</v>
       </c>
       <c r="F22">
-        <v>119106.0464661435</v>
+        <v>115646.6887897455</v>
       </c>
       <c r="G22">
-        <v>4470.218284180247</v>
+        <v>2472.692940628252</v>
       </c>
       <c r="H22">
-        <v>16118.28279276359</v>
+        <v>16115.13101127114</v>
       </c>
       <c r="I22">
-        <v>16198.73801064479</v>
+        <v>16200.65138138631</v>
       </c>
       <c r="J22">
         <v>18803.59766657223</v>
       </c>
       <c r="K22">
-        <v>0.8626532551471239</v>
+        <v>0.862653255147124</v>
       </c>
       <c r="L22">
         <v>74.43102949894066</v>
@@ -8768,34 +8768,34 @@
         <v>2913.518144444993</v>
       </c>
       <c r="P22">
-        <v>18765.7853838064</v>
+        <v>18765.07215605996</v>
       </c>
       <c r="Q22">
-        <v>18870.9884744468</v>
+        <v>18871.38743009974</v>
       </c>
       <c r="R22">
-        <v>19268.26521572774</v>
+        <v>19268.94088858094</v>
       </c>
       <c r="S22">
-        <v>2.36937560477536</v>
+        <v>1.984803934936519</v>
       </c>
       <c r="T22">
-        <v>79.51076802264798</v>
+        <v>83.80057683904268</v>
       </c>
       <c r="U22">
-        <v>5.373270908337894</v>
+        <v>4.539775062365841</v>
       </c>
       <c r="V22">
-        <v>27712.70379109661</v>
+        <v>28640.25793624306</v>
       </c>
       <c r="W22">
-        <v>1563.687061110162</v>
+        <v>1273.695637486864</v>
       </c>
       <c r="X22">
-        <v>19191.65333738549</v>
+        <v>19188.74390034997</v>
       </c>
       <c r="Y22">
-        <v>19308.42602390708</v>
+        <v>19310.44831199616</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -8812,67 +8812,67 @@
         <v>60.65158010451579</v>
       </c>
       <c r="E23">
-        <v>2.68178938237306</v>
+        <v>2.681789382373061</v>
       </c>
       <c r="F23">
         <v>110688.663012577</v>
       </c>
       <c r="G23">
-        <v>4185.166800082569</v>
+        <v>4185.16680008257</v>
       </c>
       <c r="H23">
-        <v>16892.10811631631</v>
+        <v>16891.21017865124</v>
       </c>
       <c r="I23">
-        <v>16976.85697108487</v>
+        <v>16977.63939936394</v>
       </c>
       <c r="J23">
-        <v>19864.73558944586</v>
+        <v>19864.73558944982</v>
       </c>
       <c r="K23">
-        <v>0.5728773409492457</v>
+        <v>0.5728773374009278</v>
       </c>
       <c r="L23">
-        <v>80.46325395151101</v>
+        <v>80.46325393739055</v>
       </c>
       <c r="M23">
-        <v>1.371520272762699</v>
+        <v>1.371520259612892</v>
       </c>
       <c r="N23">
-        <v>133754.7166062013</v>
+        <v>133754.7165909027</v>
       </c>
       <c r="O23">
-        <v>1840.060686311424</v>
+        <v>1840.060655764191</v>
       </c>
       <c r="P23">
-        <v>19824.83779299413</v>
+        <v>19824.07959243199</v>
       </c>
       <c r="Q23">
-        <v>19937.55893681655</v>
+        <v>19937.39853522108</v>
       </c>
       <c r="R23">
-        <v>20368.92378650168</v>
+        <v>20368.92378652847</v>
       </c>
       <c r="S23">
-        <v>2.710999276265009</v>
+        <v>2.710999285220897</v>
       </c>
       <c r="T23">
-        <v>89.46598192739494</v>
+        <v>89.4659819799049</v>
       </c>
       <c r="U23">
-        <v>5.707767266790163</v>
+        <v>5.707767363829467</v>
       </c>
       <c r="V23">
-        <v>26701.48220661378</v>
+        <v>26701.48222410385</v>
       </c>
       <c r="W23">
-        <v>1499.385168885049</v>
+        <v>1499.385177393095</v>
       </c>
       <c r="X23">
-        <v>20288.31665005908</v>
+        <v>20285.21987040279</v>
       </c>
       <c r="Y23">
-        <v>20407.92456286744</v>
+        <v>20409.8880739804</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -8889,7 +8889,7 @@
         <v>58.73666701380279</v>
       </c>
       <c r="E24">
-        <v>0.894715057041741</v>
+        <v>0.8947150570417415</v>
       </c>
       <c r="F24">
         <v>97278.07611037878</v>
@@ -8898,58 +8898,58 @@
         <v>1165.201022790185</v>
       </c>
       <c r="H24">
-        <v>16052.83706188468</v>
+        <v>16051.94348071171</v>
       </c>
       <c r="I24">
-        <v>16132.08227760667</v>
+        <v>16133.30148313911</v>
       </c>
       <c r="J24">
-        <v>18587.58099153084</v>
+        <v>18587.58099152953</v>
       </c>
       <c r="K24">
-        <v>0.7131467380142306</v>
+        <v>0.7131467418663207</v>
       </c>
       <c r="L24">
-        <v>76.53252385435705</v>
+        <v>76.53252385718314</v>
       </c>
       <c r="M24">
-        <v>1.557534814476253</v>
+        <v>1.557534827740886</v>
       </c>
       <c r="N24">
-        <v>127518.5657368071</v>
+        <v>127518.565742643</v>
       </c>
       <c r="O24">
-        <v>2245.593869793785</v>
+        <v>2245.593953261986</v>
       </c>
       <c r="P24">
-        <v>18550.50031257029</v>
+        <v>18550.04710817184</v>
       </c>
       <c r="Q24">
-        <v>18656.46504489934</v>
+        <v>18655.65560830279</v>
       </c>
       <c r="R24">
-        <v>19030.13112004281</v>
+        <v>19030.13112001667</v>
       </c>
       <c r="S24">
-        <v>1.12876080655008</v>
+        <v>1.1287608051941</v>
       </c>
       <c r="T24">
-        <v>80.95244109648795</v>
+        <v>80.95244102514073</v>
       </c>
       <c r="U24">
-        <v>2.407879473799059</v>
+        <v>2.407879461059424</v>
       </c>
       <c r="V24">
-        <v>23411.50339767754</v>
+        <v>23411.50338215686</v>
       </c>
       <c r="W24">
-        <v>604.2427300933148</v>
+        <v>604.2427364959245</v>
       </c>
       <c r="X24">
-        <v>18958.68242538282</v>
+        <v>18955.6154137728</v>
       </c>
       <c r="Y24">
-        <v>19065.34233676592</v>
+        <v>19067.97947905649</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -8960,7 +8960,7 @@
         <v>16994.62227367466</v>
       </c>
       <c r="C25">
-        <v>0.7990527825345607</v>
+        <v>0.7990527825345608</v>
       </c>
       <c r="D25">
         <v>51.72845077628329</v>
@@ -8972,61 +8972,61 @@
         <v>108803.8733687032</v>
       </c>
       <c r="G25">
-        <v>3094.698532764464</v>
+        <v>3094.698532764465</v>
       </c>
       <c r="H25">
-        <v>16948.66736667826</v>
+        <v>16948.09496098687</v>
       </c>
       <c r="I25">
-        <v>17017.23353522685</v>
+        <v>17017.7960988452</v>
       </c>
       <c r="J25">
         <v>19688.15889034443</v>
       </c>
       <c r="K25">
-        <v>0.4169477235180956</v>
+        <v>0.4169477235180954</v>
       </c>
       <c r="L25">
         <v>73.84278590347233</v>
       </c>
       <c r="M25">
-        <v>0.9099670135575254</v>
+        <v>0.9099670135575245</v>
       </c>
       <c r="N25">
         <v>154757.2699716038</v>
       </c>
       <c r="O25">
-        <v>1632.386913869981</v>
+        <v>1632.38691386998</v>
       </c>
       <c r="P25">
-        <v>19652.73160680021</v>
+        <v>19652.38940366937</v>
       </c>
       <c r="Q25">
-        <v>19754.50173486063</v>
+        <v>19754.00579437617</v>
       </c>
       <c r="R25">
-        <v>20165.30984123845</v>
+        <v>20165.42526794958</v>
       </c>
       <c r="S25">
-        <v>1.954607392075074</v>
+        <v>1.238748041892128</v>
       </c>
       <c r="T25">
-        <v>75.0334395147519</v>
+        <v>75.22458679259231</v>
       </c>
       <c r="U25">
-        <v>3.83495830170145</v>
+        <v>2.779491131654781</v>
       </c>
       <c r="V25">
-        <v>27349.99783012287</v>
+        <v>27424.15979099427</v>
       </c>
       <c r="W25">
-        <v>1293.617061363705</v>
+        <v>841.2573311658161</v>
       </c>
       <c r="X25">
-        <v>20096.53203409117</v>
+        <v>20095.29527344052</v>
       </c>
       <c r="Y25">
-        <v>20199.87137390745</v>
+        <v>20201.09943264446</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -9037,7 +9037,7 @@
         <v>16711.25780413339</v>
       </c>
       <c r="C26">
-        <v>0.6697422350030998</v>
+        <v>0.6697422350030996</v>
       </c>
       <c r="D26">
         <v>50.38675017346966</v>
@@ -9049,25 +9049,25 @@
         <v>105722.2753181485</v>
       </c>
       <c r="G26">
-        <v>2651.312748789822</v>
+        <v>2651.312748789821</v>
       </c>
       <c r="H26">
-        <v>16667.25200056158</v>
+        <v>16666.71323254294</v>
       </c>
       <c r="I26">
-        <v>16732.70730471893</v>
+        <v>16733.24536315252</v>
       </c>
       <c r="J26">
         <v>19331.96403027629</v>
       </c>
       <c r="K26">
-        <v>0.681682914780668</v>
+        <v>0.6816829147806678</v>
       </c>
       <c r="L26">
         <v>72.26370711451185</v>
       </c>
       <c r="M26">
-        <v>1.636409198736891</v>
+        <v>1.636409198736889</v>
       </c>
       <c r="N26">
         <v>131435.4974131906</v>
@@ -9076,34 +9076,34 @@
         <v>2395.876188406564</v>
       </c>
       <c r="P26">
-        <v>19297.81631164158</v>
+        <v>19297.54483175424</v>
       </c>
       <c r="Q26">
-        <v>19395.55146856517</v>
+        <v>19394.8285029137</v>
       </c>
       <c r="R26">
-        <v>19799.9704021352</v>
+        <v>19798.74853623612</v>
       </c>
       <c r="S26">
-        <v>2.530942339803829</v>
+        <v>1.366244053454199</v>
       </c>
       <c r="T26">
-        <v>70.45932394136085</v>
+        <v>68.29923530310326</v>
       </c>
       <c r="U26">
-        <v>4.968727930162254</v>
+        <v>3.237231050417217</v>
       </c>
       <c r="V26">
-        <v>23388.3388644748</v>
+        <v>22634.071042999</v>
       </c>
       <c r="W26">
-        <v>1565.818917154972</v>
+        <v>862.9669734142769</v>
       </c>
       <c r="X26">
-        <v>19736.94605497356</v>
+        <v>19735.21685080355</v>
       </c>
       <c r="Y26">
-        <v>19828.62960312596</v>
+        <v>19830.26559028524</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -9111,76 +9111,76 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>16395.88297430261</v>
+        <v>16396.18371651242</v>
       </c>
       <c r="C27">
-        <v>0.847459995131399</v>
+        <v>1.127866014380112</v>
       </c>
       <c r="D27">
-        <v>57.58557119730636</v>
+        <v>59.98148343072898</v>
       </c>
       <c r="E27">
-        <v>2.066026655588587</v>
+        <v>2.331560534764202</v>
       </c>
       <c r="F27">
-        <v>98048.40586044724</v>
+        <v>100571.5189377448</v>
       </c>
       <c r="G27">
-        <v>2819.675709421521</v>
+        <v>3398.333558345022</v>
       </c>
       <c r="H27">
-        <v>16341.39706421153</v>
+        <v>16339.79166596363</v>
       </c>
       <c r="I27">
-        <v>16422.46642643953</v>
+        <v>16423.91553738272</v>
       </c>
       <c r="J27">
-        <v>18943.83365365124</v>
+        <v>18943.83365365442</v>
       </c>
       <c r="K27">
-        <v>0.4643907007432435</v>
+        <v>0.4643907009160306</v>
       </c>
       <c r="L27">
-        <v>76.04524872559281</v>
+        <v>76.04524871516433</v>
       </c>
       <c r="M27">
-        <v>1.042545209781546</v>
+        <v>1.042545189936802</v>
       </c>
       <c r="N27">
-        <v>133529.7325696687</v>
+        <v>133529.7325574744</v>
       </c>
       <c r="O27">
-        <v>1518.963359265142</v>
+        <v>1518.963348202941</v>
       </c>
       <c r="P27">
-        <v>18901.88688754979</v>
+        <v>18900.82823066609</v>
       </c>
       <c r="Q27">
-        <v>19014.78199548075</v>
+        <v>19014.0264053062</v>
       </c>
       <c r="R27">
-        <v>19398.94689193049</v>
+        <v>19398.94689193083</v>
       </c>
       <c r="S27">
-        <v>1.854805863250853</v>
+        <v>1.854805858118641</v>
       </c>
       <c r="T27">
-        <v>88.76321576756938</v>
+        <v>88.7632157690153</v>
       </c>
       <c r="U27">
-        <v>3.841966468056551</v>
+        <v>3.841966480678863</v>
       </c>
       <c r="V27">
-        <v>26432.95542628053</v>
+        <v>26432.95542555909</v>
       </c>
       <c r="W27">
-        <v>1015.218677921151</v>
+        <v>1015.218671501749</v>
       </c>
       <c r="X27">
-        <v>19318.49761967467</v>
+        <v>19315.3180704279</v>
       </c>
       <c r="Y27">
-        <v>19437.03148225825</v>
+        <v>19438.87261523657</v>
       </c>
     </row>
   </sheetData>
